--- a/Class_VII/Result.xlsx
+++ b/Class_VII/Result.xlsx
@@ -361,10 +361,10 @@
     <t>A</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1326,19 +1326,19 @@
         <v>115</v>
       </c>
       <c r="CP2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CQ2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CR2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CS2" t="s">
         <v>115</v>
       </c>
       <c r="CT2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CU2" t="s">
         <v>115</v>
@@ -1350,7 +1350,7 @@
         <v>231.2</v>
       </c>
       <c r="CX2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CY2">
         <v>800</v>
@@ -1640,34 +1640,34 @@
         <v>100</v>
       </c>
       <c r="CO3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CQ3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CR3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CS3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CU3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CV3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CW3">
         <v>68.39999999999999</v>
       </c>
       <c r="CX3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CY3">
         <v>800</v>
@@ -1960,31 +1960,31 @@
         <v>115</v>
       </c>
       <c r="CP4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CQ4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CR4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CS4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT4" t="s">
         <v>115</v>
       </c>
       <c r="CU4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CV4" t="s">
         <v>115</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>116</v>
       </c>
       <c r="CW4">
         <v>334.8</v>
       </c>
       <c r="CX4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CY4">
         <v>800</v>
@@ -2274,34 +2274,34 @@
         <v>100</v>
       </c>
       <c r="CO5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CQ5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CR5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CS5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CU5" t="s">
         <v>115</v>
       </c>
       <c r="CV5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CW5">
         <v>205.4</v>
       </c>
       <c r="CX5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CY5">
         <v>800</v>
@@ -2591,34 +2591,34 @@
         <v>100</v>
       </c>
       <c r="CO6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CQ6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CR6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CS6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CU6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CV6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CW6">
         <v>130.2</v>
       </c>
       <c r="CX6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CY6">
         <v>800</v>
@@ -2914,13 +2914,13 @@
         <v>115</v>
       </c>
       <c r="CQ7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CR7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CS7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT7" t="s">
         <v>115</v>
@@ -2935,7 +2935,7 @@
         <v>310.6</v>
       </c>
       <c r="CX7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CY7">
         <v>800</v>
@@ -3225,34 +3225,34 @@
         <v>100</v>
       </c>
       <c r="CO8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CP8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CQ8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CR8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CS8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CT8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CU8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CV8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CW8">
         <v>551.2</v>
       </c>
       <c r="CX8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CY8">
         <v>800</v>
@@ -3542,34 +3542,34 @@
         <v>100</v>
       </c>
       <c r="CO9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CP9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CQ9" t="s">
         <v>115</v>
       </c>
       <c r="CR9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CS9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CT9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CU9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CV9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CW9">
         <v>150</v>
       </c>
       <c r="CX9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CY9">
         <v>800</v>

--- a/Class_VII/Result.xlsx
+++ b/Class_VII/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="133">
   <si>
     <t>Student Name</t>
   </si>
@@ -28,294 +28,294 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment I_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment I_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment-2_English I_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English II_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Maths_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Computer_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Social Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam_English I_pass</t>
+    <t>FA-I_Social Science</t>
+  </si>
+  <si>
+    <t>FA-I_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English I</t>
+  </si>
+  <si>
+    <t>FA-I_English I_total</t>
+  </si>
+  <si>
+    <t>FA-I_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English II</t>
+  </si>
+  <si>
+    <t>FA-I_English II_total</t>
+  </si>
+  <si>
+    <t>FA-I_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Maths</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Science</t>
+  </si>
+  <si>
+    <t>FA-I_Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Computer</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English I</t>
+  </si>
+  <si>
+    <t>FA-II_English I_total</t>
+  </si>
+  <si>
+    <t>FA-II_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English II</t>
+  </si>
+  <si>
+    <t>FA-II_English II_total</t>
+  </si>
+  <si>
+    <t>FA-II_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Maths</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Science</t>
+  </si>
+  <si>
+    <t>FA-II_Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Computer</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_pass</t>
+  </si>
+  <si>
+    <t>HY_Social Science</t>
+  </si>
+  <si>
+    <t>HY_Social Science_total</t>
+  </si>
+  <si>
+    <t>HY_Social Science_pass</t>
+  </si>
+  <si>
+    <t>HY_English I</t>
+  </si>
+  <si>
+    <t>HY_English I_total</t>
+  </si>
+  <si>
+    <t>HY_English I_pass</t>
+  </si>
+  <si>
+    <t>HY_Hindi</t>
+  </si>
+  <si>
+    <t>HY_Hindi_total</t>
+  </si>
+  <si>
+    <t>HY_Hindi_pass</t>
+  </si>
+  <si>
+    <t>HY_English II</t>
+  </si>
+  <si>
+    <t>HY_English II_total</t>
+  </si>
+  <si>
+    <t>HY_English II_pass</t>
+  </si>
+  <si>
+    <t>HY_Maths</t>
+  </si>
+  <si>
+    <t>HY_Maths_total</t>
+  </si>
+  <si>
+    <t>HY_Maths_pass</t>
+  </si>
+  <si>
+    <t>HY_Science</t>
+  </si>
+  <si>
+    <t>HY_Science_total</t>
+  </si>
+  <si>
+    <t>HY_Science_pass</t>
+  </si>
+  <si>
+    <t>HY_Assamese</t>
+  </si>
+  <si>
+    <t>HY_Assamese_total</t>
+  </si>
+  <si>
+    <t>HY_Assamese_pass</t>
+  </si>
+  <si>
+    <t>HY_Computer</t>
+  </si>
+  <si>
+    <t>HY_Computer_total</t>
+  </si>
+  <si>
+    <t>HY_Computer_pass</t>
+  </si>
+  <si>
+    <t>Weightage Social Science</t>
+  </si>
+  <si>
+    <t>Weightage English I</t>
+  </si>
+  <si>
+    <t>Weightage Hindi</t>
   </si>
   <si>
     <t>Weightage English II</t>
   </si>
   <si>
+    <t>Weightage Maths</t>
+  </si>
+  <si>
     <t>Weightage Science</t>
   </si>
   <si>
-    <t>Weightage Maths</t>
-  </si>
-  <si>
-    <t>Weightage Hindi</t>
+    <t>Weightage Assamese</t>
   </si>
   <si>
     <t>Weightage Computer</t>
   </si>
   <si>
-    <t>Weightage Social Science</t>
-  </si>
-  <si>
-    <t>Weightage Assamese</t>
-  </si>
-  <si>
-    <t>Weightage English I</t>
+    <t>Weightage Social Science total</t>
+  </si>
+  <si>
+    <t>Weightage English I total</t>
+  </si>
+  <si>
+    <t>Weightage Hindi total</t>
   </si>
   <si>
     <t>Weightage English II total</t>
   </si>
   <si>
+    <t>Weightage Maths total</t>
+  </si>
+  <si>
     <t>Weightage Science total</t>
   </si>
   <si>
-    <t>Weightage Maths total</t>
-  </si>
-  <si>
-    <t>Weightage Hindi total</t>
+    <t>Weightage Assamese total</t>
   </si>
   <si>
     <t>Weightage Computer total</t>
   </si>
   <si>
-    <t>Weightage Social Science total</t>
-  </si>
-  <si>
-    <t>Weightage Assamese total</t>
-  </si>
-  <si>
-    <t>Weightage English I total</t>
+    <t>Result Social Science</t>
+  </si>
+  <si>
+    <t>Result English I</t>
+  </si>
+  <si>
+    <t>Result Hindi</t>
   </si>
   <si>
     <t>Result English II</t>
   </si>
   <si>
+    <t>Result Maths</t>
+  </si>
+  <si>
     <t>Result Science</t>
   </si>
   <si>
-    <t>Result Maths</t>
-  </si>
-  <si>
-    <t>Result Hindi</t>
+    <t>Result Assamese</t>
   </si>
   <si>
     <t>Result Computer</t>
   </si>
   <si>
-    <t>Result Social Science</t>
-  </si>
-  <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
-    <t>Result English I</t>
-  </si>
-  <si>
     <t>Total Weightage</t>
   </si>
   <si>
@@ -331,28 +331,76 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Anuska Hazarika</t>
-  </si>
-  <si>
-    <t>Jeet Boro</t>
-  </si>
-  <si>
-    <t>Anurag Sharma</t>
-  </si>
-  <si>
-    <t>Somar Barman</t>
-  </si>
-  <si>
-    <t>Sandeep Chetry</t>
-  </si>
-  <si>
-    <t>Rohan Sharma</t>
-  </si>
-  <si>
-    <t>Bikrant Shah</t>
-  </si>
-  <si>
-    <t>Nakul Sha</t>
+    <t>Riwaj Sharma</t>
+  </si>
+  <si>
+    <t>Koyel Biswas</t>
+  </si>
+  <si>
+    <t>Pratik Chetry</t>
+  </si>
+  <si>
+    <t>Manab Basumatary</t>
+  </si>
+  <si>
+    <t>Pranil chetry</t>
+  </si>
+  <si>
+    <t>Moumeeta Dey</t>
+  </si>
+  <si>
+    <t>Ayushi Sharma</t>
+  </si>
+  <si>
+    <t>Abhay Das</t>
+  </si>
+  <si>
+    <t>Kriti Chetri</t>
+  </si>
+  <si>
+    <t>Prantik Das</t>
+  </si>
+  <si>
+    <t>Prateek Das</t>
+  </si>
+  <si>
+    <t>Niyor Teron</t>
+  </si>
+  <si>
+    <t>Sumit Sarma</t>
+  </si>
+  <si>
+    <t>Rajdeep Tumung</t>
+  </si>
+  <si>
+    <t>Dhritojit Boro</t>
+  </si>
+  <si>
+    <t>Gitartha Patgiri</t>
+  </si>
+  <si>
+    <t>Manoj Barman</t>
+  </si>
+  <si>
+    <t>Swapna Barman</t>
+  </si>
+  <si>
+    <t>Karan Rahang</t>
+  </si>
+  <si>
+    <t>Sumit Chetry</t>
+  </si>
+  <si>
+    <t>Rasmita Boro</t>
+  </si>
+  <si>
+    <t>Jyotirmoy Sharma</t>
+  </si>
+  <si>
+    <t>Jayshree Deka</t>
+  </si>
+  <si>
+    <t>Shivam Kumar Nayak</t>
   </si>
   <si>
     <t>VII</t>
@@ -722,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA9"/>
+  <dimension ref="A1:DA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,16 +1098,16 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -1068,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -1077,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1086,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>23.5</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -1095,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -1104,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>24</v>
       </c>
       <c r="U2">
         <v>25</v>
@@ -1113,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="X2">
         <v>25</v>
@@ -1122,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>3.5</v>
+        <v>25</v>
       </c>
       <c r="AA2">
         <v>25</v>
@@ -1131,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="AC2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -1140,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="AF2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AG2">
         <v>25</v>
@@ -1149,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>2.5</v>
+        <v>23</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1158,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="AL2">
-        <v>4.5</v>
+        <v>19</v>
       </c>
       <c r="AM2">
         <v>25</v>
@@ -1167,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AP2">
         <v>25</v>
@@ -1176,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="AR2">
-        <v>5</v>
+        <v>19.5</v>
       </c>
       <c r="AS2">
         <v>25</v>
@@ -1185,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="AU2">
-        <v>4.5</v>
+        <v>18.5</v>
       </c>
       <c r="AV2">
         <v>25</v>
@@ -1194,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="AX2">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="AY2">
         <v>25</v>
@@ -1203,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="BA2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="BB2">
         <v>100</v>
@@ -1212,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="BD2">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="BE2">
         <v>100</v>
@@ -1221,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="BG2">
-        <v>30</v>
+        <v>90.5</v>
       </c>
       <c r="BH2">
         <v>100</v>
@@ -1230,7 +1278,7 @@
         <v>30</v>
       </c>
       <c r="BJ2">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="BK2">
         <v>100</v>
@@ -1239,7 +1287,7 @@
         <v>30</v>
       </c>
       <c r="BM2">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="BN2">
         <v>100</v>
@@ -1248,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="BP2">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="BQ2">
         <v>100</v>
@@ -1257,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="BS2">
-        <v>35.5</v>
+        <v>62</v>
       </c>
       <c r="BT2">
         <v>100</v>
@@ -1266,7 +1314,7 @@
         <v>30</v>
       </c>
       <c r="BV2">
-        <v>40</v>
+        <v>93.5</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1275,28 +1323,28 @@
         <v>30</v>
       </c>
       <c r="BY2">
-        <v>37.6</v>
+        <v>87.2</v>
       </c>
       <c r="BZ2">
-        <v>19.6</v>
+        <v>94</v>
       </c>
       <c r="CA2">
-        <v>25.4</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="CB2">
-        <v>24.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="CC2">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="CD2">
-        <v>23.4</v>
+        <v>82.2</v>
       </c>
       <c r="CE2">
-        <v>32.4</v>
+        <v>62.2</v>
       </c>
       <c r="CF2">
-        <v>36</v>
+        <v>94.8</v>
       </c>
       <c r="CG2">
         <v>100</v>
@@ -1323,43 +1371,43 @@
         <v>100</v>
       </c>
       <c r="CO2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CP2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CQ2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CR2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CS2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CT2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CU2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CV2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CW2">
-        <v>231.2</v>
+        <v>675.6</v>
       </c>
       <c r="CX2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CY2">
         <v>800</v>
       </c>
       <c r="CZ2">
-        <v>28.9</v>
+        <v>84.45</v>
       </c>
       <c r="DA2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -1367,16 +1415,16 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -1385,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -1394,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -1403,107 +1451,107 @@
         <v>7</v>
       </c>
       <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>15.5</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>20</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>21</v>
+      </c>
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>16.5</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>21</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
+        <v>11</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>18</v>
+      </c>
+      <c r="AM3">
+        <v>25</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>16.5</v>
+      </c>
+      <c r="AP3">
+        <v>25</v>
+      </c>
+      <c r="AQ3">
+        <v>7</v>
+      </c>
+      <c r="AR3">
+        <v>3.5</v>
+      </c>
+      <c r="AS3">
+        <v>25</v>
+      </c>
+      <c r="AT3">
+        <v>7</v>
+      </c>
+      <c r="AU3">
         <v>12</v>
       </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>17</v>
-      </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>16.5</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>14</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>6</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>4</v>
-      </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>25</v>
-      </c>
-      <c r="AN3">
-        <v>7</v>
-      </c>
-      <c r="AO3">
-        <v>13</v>
-      </c>
-      <c r="AP3">
-        <v>25</v>
-      </c>
-      <c r="AQ3">
-        <v>7</v>
-      </c>
-      <c r="AR3">
-        <v>9</v>
-      </c>
-      <c r="AS3">
-        <v>25</v>
-      </c>
-      <c r="AT3">
-        <v>7</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
       <c r="AV3">
         <v>25</v>
       </c>
@@ -1511,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="AX3">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="AY3">
         <v>25</v>
@@ -1520,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1529,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1538,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1547,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BK3">
         <v>100</v>
@@ -1556,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BN3">
         <v>100</v>
@@ -1565,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BQ3">
         <v>100</v>
@@ -1574,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="BS3">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="BT3">
         <v>100</v>
@@ -1583,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="BV3">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="BW3">
         <v>100</v>
@@ -1592,28 +1640,28 @@
         <v>30</v>
       </c>
       <c r="BY3">
-        <v>5.6</v>
+        <v>61.6</v>
       </c>
       <c r="BZ3">
-        <v>4.6</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="CA3">
-        <v>3.6</v>
+        <v>57.2</v>
       </c>
       <c r="CB3">
-        <v>4.8</v>
+        <v>85.2</v>
       </c>
       <c r="CC3">
-        <v>7.2</v>
+        <v>58.6</v>
       </c>
       <c r="CD3">
-        <v>10.4</v>
+        <v>45.2</v>
       </c>
       <c r="CE3">
-        <v>8</v>
+        <v>56.8</v>
       </c>
       <c r="CF3">
-        <v>24.2</v>
+        <v>87</v>
       </c>
       <c r="CG3">
         <v>100</v>
@@ -1640,43 +1688,43 @@
         <v>100</v>
       </c>
       <c r="CO3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CP3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CQ3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CR3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CS3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CT3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CU3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CV3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CW3">
-        <v>68.39999999999999</v>
+        <v>524</v>
       </c>
       <c r="CX3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CY3">
         <v>800</v>
       </c>
       <c r="CZ3">
-        <v>8.549999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="DA3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -1684,16 +1732,16 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1702,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -1711,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -1720,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="O4">
         <v>25</v>
@@ -1729,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>2.5</v>
+        <v>15.5</v>
       </c>
       <c r="R4">
         <v>25</v>
@@ -1738,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="T4">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="U4">
         <v>25</v>
@@ -1747,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>25</v>
@@ -1756,7 +1804,7 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA4">
         <v>25</v>
@@ -1765,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AD4">
         <v>25</v>
@@ -1774,26 +1822,26 @@
         <v>7</v>
       </c>
       <c r="AF4">
+        <v>24</v>
+      </c>
+      <c r="AG4">
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <v>7</v>
+      </c>
+      <c r="AI4">
+        <v>16</v>
+      </c>
+      <c r="AJ4">
+        <v>25</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
         <v>9</v>
       </c>
-      <c r="AG4">
-        <v>25</v>
-      </c>
-      <c r="AH4">
-        <v>7</v>
-      </c>
-      <c r="AI4">
-        <v>7</v>
-      </c>
-      <c r="AJ4">
-        <v>25</v>
-      </c>
-      <c r="AK4">
-        <v>7</v>
-      </c>
-      <c r="AL4">
-        <v>16</v>
-      </c>
       <c r="AM4">
         <v>25</v>
       </c>
@@ -1801,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="AP4">
         <v>25</v>
@@ -1810,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="AR4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AS4">
         <v>25</v>
@@ -1819,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV4">
         <v>25</v>
@@ -1828,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="AX4">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AY4">
         <v>25</v>
@@ -1837,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="BA4">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1846,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1855,26 +1903,26 @@
         <v>30</v>
       </c>
       <c r="BG4">
+        <v>50</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>30</v>
+      </c>
+      <c r="BJ4">
+        <v>46</v>
+      </c>
+      <c r="BK4">
+        <v>100</v>
+      </c>
+      <c r="BL4">
+        <v>30</v>
+      </c>
+      <c r="BM4">
         <v>59</v>
       </c>
-      <c r="BH4">
-        <v>100</v>
-      </c>
-      <c r="BI4">
-        <v>30</v>
-      </c>
-      <c r="BJ4">
-        <v>45</v>
-      </c>
-      <c r="BK4">
-        <v>100</v>
-      </c>
-      <c r="BL4">
-        <v>30</v>
-      </c>
-      <c r="BM4">
-        <v>24</v>
-      </c>
       <c r="BN4">
         <v>100</v>
       </c>
@@ -1882,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="BQ4">
         <v>100</v>
@@ -1891,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="BS4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BT4">
         <v>100</v>
@@ -1900,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="BV4">
-        <v>47</v>
+        <v>71.5</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1909,28 +1957,28 @@
         <v>30</v>
       </c>
       <c r="BY4">
-        <v>40.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="BZ4">
-        <v>53.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="CA4">
-        <v>52.8</v>
+        <v>50.4</v>
       </c>
       <c r="CB4">
-        <v>50.2</v>
+        <v>48.8</v>
       </c>
       <c r="CC4">
-        <v>21.6</v>
+        <v>59</v>
       </c>
       <c r="CD4">
-        <v>44.6</v>
+        <v>63.2</v>
       </c>
       <c r="CE4">
-        <v>26.2</v>
+        <v>29.6</v>
       </c>
       <c r="CF4">
-        <v>45.4</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="CG4">
         <v>100</v>
@@ -1957,43 +2005,43 @@
         <v>100</v>
       </c>
       <c r="CO4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CP4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CQ4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CR4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CS4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CT4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CU4" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CV4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CW4">
-        <v>334.8</v>
+        <v>463.4</v>
       </c>
       <c r="CX4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CY4">
         <v>800</v>
       </c>
       <c r="CZ4">
-        <v>41.84999999999999</v>
+        <v>57.92499999999999</v>
       </c>
       <c r="DA4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -2001,16 +2049,16 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -2019,44 +2067,44 @@
         <v>7</v>
       </c>
       <c r="H5">
+        <v>7.5</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>13.5</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
       <c r="U5">
         <v>25</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>25</v>
@@ -2073,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <v>25</v>
@@ -2082,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -2091,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -2100,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -2109,17 +2157,17 @@
         <v>7</v>
       </c>
       <c r="AL5">
+        <v>7</v>
+      </c>
+      <c r="AM5">
+        <v>25</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
         <v>11</v>
       </c>
-      <c r="AM5">
-        <v>25</v>
-      </c>
-      <c r="AN5">
-        <v>7</v>
-      </c>
-      <c r="AO5">
-        <v>5.5</v>
-      </c>
       <c r="AP5">
         <v>25</v>
       </c>
@@ -2127,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -2136,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="AV5">
         <v>25</v>
@@ -2145,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="AX5">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="AY5">
         <v>25</v>
@@ -2154,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="BA5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB5">
         <v>100</v>
@@ -2163,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="BD5">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="BE5">
         <v>100</v>
@@ -2172,7 +2220,7 @@
         <v>30</v>
       </c>
       <c r="BG5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="BH5">
         <v>100</v>
@@ -2181,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="BJ5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BK5">
         <v>100</v>
@@ -2190,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="BM5">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="BN5">
         <v>100</v>
@@ -2199,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="BP5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BQ5">
         <v>100</v>
@@ -2208,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="BS5">
-        <v>39.5</v>
+        <v>30</v>
       </c>
       <c r="BT5">
         <v>100</v>
@@ -2217,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="BV5">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BW5">
         <v>100</v>
@@ -2226,28 +2274,28 @@
         <v>30</v>
       </c>
       <c r="BY5">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="BZ5">
-        <v>20</v>
+        <v>27.6</v>
       </c>
       <c r="CA5">
-        <v>27.4</v>
+        <v>34</v>
       </c>
       <c r="CB5">
-        <v>26.2</v>
+        <v>24.2</v>
       </c>
       <c r="CC5">
-        <v>25.4</v>
+        <v>56.8</v>
       </c>
       <c r="CD5">
-        <v>24.4</v>
+        <v>21.8</v>
       </c>
       <c r="CE5">
-        <v>34</v>
+        <v>25.6</v>
       </c>
       <c r="CF5">
-        <v>27.2</v>
+        <v>32.2</v>
       </c>
       <c r="CG5">
         <v>100</v>
@@ -2274,43 +2322,43 @@
         <v>100</v>
       </c>
       <c r="CO5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CP5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CQ5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CR5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CS5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CT5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CU5" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="CV5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CW5">
-        <v>205.4</v>
+        <v>238.8</v>
       </c>
       <c r="CX5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CY5">
         <v>800</v>
       </c>
       <c r="CZ5">
-        <v>25.675</v>
+        <v>29.85</v>
       </c>
       <c r="DA5">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -2318,16 +2366,16 @@
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -2336,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -2354,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="O6">
         <v>25</v>
@@ -2363,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>18.5</v>
       </c>
       <c r="R6">
         <v>25</v>
@@ -2372,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>25</v>
@@ -2381,7 +2429,7 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>17.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6">
         <v>25</v>
@@ -2390,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="AA6">
         <v>25</v>
@@ -2399,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="AC6">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD6">
         <v>25</v>
@@ -2408,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="AF6">
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="AG6">
         <v>25</v>
@@ -2417,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="AI6">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AJ6">
         <v>25</v>
@@ -2426,7 +2474,7 @@
         <v>7</v>
       </c>
       <c r="AL6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AM6">
         <v>25</v>
@@ -2435,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP6">
         <v>25</v>
@@ -2444,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="AR6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AS6">
         <v>25</v>
@@ -2453,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="AU6">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="AV6">
         <v>25</v>
@@ -2462,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="AX6">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AY6">
         <v>25</v>
@@ -2471,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BB6">
         <v>100</v>
@@ -2480,7 +2528,7 @@
         <v>30</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BE6">
         <v>100</v>
@@ -2489,7 +2537,7 @@
         <v>30</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="BH6">
         <v>100</v>
@@ -2498,7 +2546,7 @@
         <v>30</v>
       </c>
       <c r="BJ6">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BK6">
         <v>100</v>
@@ -2507,7 +2555,7 @@
         <v>30</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BN6">
         <v>100</v>
@@ -2516,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BQ6">
         <v>100</v>
@@ -2525,7 +2573,7 @@
         <v>30</v>
       </c>
       <c r="BS6">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="BT6">
         <v>100</v>
@@ -2534,7 +2582,7 @@
         <v>30</v>
       </c>
       <c r="BV6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="BW6">
         <v>100</v>
@@ -2543,28 +2591,28 @@
         <v>30</v>
       </c>
       <c r="BY6">
-        <v>14.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="BZ6">
-        <v>7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="CA6">
-        <v>9.199999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="CB6">
-        <v>27.2</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="CC6">
-        <v>5.8</v>
+        <v>59.4</v>
       </c>
       <c r="CD6">
-        <v>17.2</v>
+        <v>43.6</v>
       </c>
       <c r="CE6">
-        <v>20</v>
+        <v>41.6</v>
       </c>
       <c r="CF6">
-        <v>29</v>
+        <v>49.8</v>
       </c>
       <c r="CG6">
         <v>100</v>
@@ -2591,43 +2639,43 @@
         <v>100</v>
       </c>
       <c r="CO6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CP6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CQ6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CR6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CS6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CT6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CU6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CV6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CW6">
-        <v>130.2</v>
+        <v>457.6</v>
       </c>
       <c r="CX6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CY6">
         <v>800</v>
       </c>
       <c r="CZ6">
-        <v>16.275</v>
+        <v>57.2</v>
       </c>
       <c r="DA6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -2635,16 +2683,16 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>25</v>
@@ -2653,7 +2701,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -2662,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="L7">
         <v>25</v>
@@ -2671,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="O7">
         <v>25</v>
@@ -2680,89 +2728,89 @@
         <v>7</v>
       </c>
       <c r="Q7">
+        <v>6.5</v>
+      </c>
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>4.5</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>11.5</v>
+      </c>
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>6</v>
+      </c>
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
+        <v>17</v>
+      </c>
+      <c r="AG7">
+        <v>25</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>15.5</v>
+      </c>
+      <c r="AJ7">
+        <v>25</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>7</v>
+      </c>
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>25</v>
+      </c>
+      <c r="AQ7">
+        <v>7</v>
+      </c>
+      <c r="AR7">
         <v>2</v>
       </c>
-      <c r="R7">
-        <v>25</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>13</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>10.5</v>
-      </c>
-      <c r="X7">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-      <c r="Z7">
-        <v>10.5</v>
-      </c>
-      <c r="AA7">
-        <v>25</v>
-      </c>
-      <c r="AB7">
-        <v>7</v>
-      </c>
-      <c r="AC7">
-        <v>13</v>
-      </c>
-      <c r="AD7">
-        <v>25</v>
-      </c>
-      <c r="AE7">
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <v>9</v>
-      </c>
-      <c r="AG7">
-        <v>25</v>
-      </c>
-      <c r="AH7">
-        <v>7</v>
-      </c>
-      <c r="AI7">
-        <v>9</v>
-      </c>
-      <c r="AJ7">
-        <v>25</v>
-      </c>
-      <c r="AK7">
-        <v>7</v>
-      </c>
-      <c r="AL7">
-        <v>13.5</v>
-      </c>
-      <c r="AM7">
-        <v>25</v>
-      </c>
-      <c r="AN7">
-        <v>7</v>
-      </c>
-      <c r="AO7">
-        <v>7</v>
-      </c>
-      <c r="AP7">
-        <v>25</v>
-      </c>
-      <c r="AQ7">
-        <v>7</v>
-      </c>
-      <c r="AR7">
-        <v>6</v>
-      </c>
       <c r="AS7">
         <v>25</v>
       </c>
@@ -2770,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV7">
         <v>25</v>
@@ -2779,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="AX7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AY7">
         <v>25</v>
@@ -2788,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="BA7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB7">
         <v>100</v>
@@ -2797,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="BD7">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="BE7">
         <v>100</v>
@@ -2806,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="BG7">
-        <v>49</v>
+        <v>60.5</v>
       </c>
       <c r="BH7">
         <v>100</v>
@@ -2815,7 +2863,7 @@
         <v>30</v>
       </c>
       <c r="BJ7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BK7">
         <v>100</v>
@@ -2833,7 +2881,7 @@
         <v>30</v>
       </c>
       <c r="BP7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BQ7">
         <v>100</v>
@@ -2842,7 +2890,7 @@
         <v>30</v>
       </c>
       <c r="BS7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="BT7">
         <v>100</v>
@@ -2851,7 +2899,7 @@
         <v>30</v>
       </c>
       <c r="BV7">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="BW7">
         <v>100</v>
@@ -2860,28 +2908,28 @@
         <v>30</v>
       </c>
       <c r="BY7">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="BZ7">
-        <v>39.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="CA7">
-        <v>46</v>
+        <v>59.2</v>
       </c>
       <c r="CB7">
-        <v>46.6</v>
+        <v>50.2</v>
       </c>
       <c r="CC7">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="CD7">
-        <v>34</v>
+        <v>28.2</v>
       </c>
       <c r="CE7">
-        <v>31.8</v>
+        <v>43.4</v>
       </c>
       <c r="CF7">
-        <v>44.2</v>
+        <v>34.8</v>
       </c>
       <c r="CG7">
         <v>100</v>
@@ -2908,43 +2956,43 @@
         <v>100</v>
       </c>
       <c r="CO7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CP7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CQ7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CR7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CS7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CT7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="CU7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CV7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CW7">
-        <v>310.6</v>
+        <v>354.2</v>
       </c>
       <c r="CX7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CY7">
         <v>800</v>
       </c>
       <c r="CZ7">
-        <v>38.825</v>
+        <v>44.275</v>
       </c>
       <c r="DA7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -2952,253 +3000,253 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>19.5</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>20.5</v>
       </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>15.5</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>9.5</v>
-      </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>1.5</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>12.5</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>10.5</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>11</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
         <v>23</v>
       </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>11.5</v>
-      </c>
-      <c r="R8">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>23</v>
-      </c>
-      <c r="U8">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>16</v>
-      </c>
-      <c r="X8">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-      <c r="Z8">
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>13</v>
+      </c>
+      <c r="AJ8">
+        <v>25</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
+        <v>11</v>
+      </c>
+      <c r="AM8">
+        <v>25</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
+        <v>7</v>
+      </c>
+      <c r="AP8">
+        <v>25</v>
+      </c>
+      <c r="AQ8">
+        <v>7</v>
+      </c>
+      <c r="AR8">
+        <v>4</v>
+      </c>
+      <c r="AS8">
+        <v>25</v>
+      </c>
+      <c r="AT8">
+        <v>7</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>25</v>
+      </c>
+      <c r="AW8">
+        <v>7</v>
+      </c>
+      <c r="AX8">
+        <v>7.5</v>
+      </c>
+      <c r="AY8">
+        <v>25</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>47</v>
+      </c>
+      <c r="BB8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>30</v>
+      </c>
+      <c r="BD8">
+        <v>65</v>
+      </c>
+      <c r="BE8">
+        <v>100</v>
+      </c>
+      <c r="BF8">
+        <v>30</v>
+      </c>
+      <c r="BG8">
+        <v>63</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+      <c r="BI8">
+        <v>30</v>
+      </c>
+      <c r="BJ8">
+        <v>73</v>
+      </c>
+      <c r="BK8">
+        <v>100</v>
+      </c>
+      <c r="BL8">
+        <v>30</v>
+      </c>
+      <c r="BM8">
+        <v>29</v>
+      </c>
+      <c r="BN8">
+        <v>100</v>
+      </c>
+      <c r="BO8">
+        <v>30</v>
+      </c>
+      <c r="BP8">
+        <v>52</v>
+      </c>
+      <c r="BQ8">
+        <v>100</v>
+      </c>
+      <c r="BR8">
+        <v>30</v>
+      </c>
+      <c r="BS8">
         <v>19</v>
       </c>
-      <c r="AA8">
-        <v>25</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>19</v>
-      </c>
-      <c r="AD8">
-        <v>25</v>
-      </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <v>15</v>
-      </c>
-      <c r="AG8">
-        <v>25</v>
-      </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>21</v>
-      </c>
-      <c r="AJ8">
-        <v>25</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>19</v>
-      </c>
-      <c r="AM8">
-        <v>25</v>
-      </c>
-      <c r="AN8">
-        <v>7</v>
-      </c>
-      <c r="AO8">
-        <v>23</v>
-      </c>
-      <c r="AP8">
-        <v>25</v>
-      </c>
-      <c r="AQ8">
-        <v>7</v>
-      </c>
-      <c r="AR8">
-        <v>22</v>
-      </c>
-      <c r="AS8">
-        <v>25</v>
-      </c>
-      <c r="AT8">
-        <v>7</v>
-      </c>
-      <c r="AU8">
-        <v>10.5</v>
-      </c>
-      <c r="AV8">
-        <v>25</v>
-      </c>
-      <c r="AW8">
-        <v>7</v>
-      </c>
-      <c r="AX8">
-        <v>20.5</v>
-      </c>
-      <c r="AY8">
-        <v>25</v>
-      </c>
-      <c r="AZ8">
-        <v>7</v>
-      </c>
-      <c r="BA8">
-        <v>72</v>
-      </c>
-      <c r="BB8">
-        <v>100</v>
-      </c>
-      <c r="BC8">
-        <v>30</v>
-      </c>
-      <c r="BD8">
-        <v>74</v>
-      </c>
-      <c r="BE8">
-        <v>100</v>
-      </c>
-      <c r="BF8">
-        <v>30</v>
-      </c>
-      <c r="BG8">
-        <v>73</v>
-      </c>
-      <c r="BH8">
-        <v>100</v>
-      </c>
-      <c r="BI8">
-        <v>30</v>
-      </c>
-      <c r="BJ8">
-        <v>75</v>
-      </c>
-      <c r="BK8">
-        <v>100</v>
-      </c>
-      <c r="BL8">
-        <v>30</v>
-      </c>
-      <c r="BM8">
-        <v>54</v>
-      </c>
-      <c r="BN8">
-        <v>100</v>
-      </c>
-      <c r="BO8">
-        <v>30</v>
-      </c>
-      <c r="BP8">
+      <c r="BT8">
+        <v>100</v>
+      </c>
+      <c r="BU8">
+        <v>30</v>
+      </c>
+      <c r="BV8">
+        <v>37.5</v>
+      </c>
+      <c r="BW8">
+        <v>100</v>
+      </c>
+      <c r="BX8">
+        <v>30</v>
+      </c>
+      <c r="BY8">
+        <v>46.8</v>
+      </c>
+      <c r="BZ8">
         <v>69</v>
       </c>
-      <c r="BQ8">
-        <v>100</v>
-      </c>
-      <c r="BR8">
-        <v>30</v>
-      </c>
-      <c r="BS8">
-        <v>55</v>
-      </c>
-      <c r="BT8">
-        <v>100</v>
-      </c>
-      <c r="BU8">
-        <v>30</v>
-      </c>
-      <c r="BV8">
-        <v>73</v>
-      </c>
-      <c r="BW8">
-        <v>100</v>
-      </c>
-      <c r="BX8">
-        <v>30</v>
-      </c>
-      <c r="BY8">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="BZ8">
-        <v>71.40000000000001</v>
-      </c>
       <c r="CA8">
-        <v>70.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="CB8">
-        <v>76.8</v>
+        <v>71</v>
       </c>
       <c r="CC8">
-        <v>57</v>
+        <v>26.6</v>
       </c>
       <c r="CD8">
-        <v>73.2</v>
+        <v>48.2</v>
       </c>
       <c r="CE8">
-        <v>54.6</v>
+        <v>18.4</v>
       </c>
       <c r="CF8">
-        <v>74.2</v>
+        <v>37.2</v>
       </c>
       <c r="CG8">
         <v>100</v>
@@ -3225,43 +3273,43 @@
         <v>100</v>
       </c>
       <c r="CO8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CP8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CQ8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CR8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CS8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="CT8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CU8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="CV8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CW8">
-        <v>551.2</v>
+        <v>379.2</v>
       </c>
       <c r="CX8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CY8">
         <v>800</v>
       </c>
       <c r="CZ8">
-        <v>68.90000000000001</v>
+        <v>47.4</v>
       </c>
       <c r="DA8">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -3269,16 +3317,16 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -3287,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>25</v>
@@ -3296,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
         <v>25</v>
@@ -3305,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O9">
         <v>25</v>
@@ -3314,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -3323,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="U9">
         <v>25</v>
@@ -3332,7 +3380,7 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X9">
         <v>25</v>
@@ -3341,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="AA9">
         <v>25</v>
@@ -3350,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="AC9">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD9">
         <v>25</v>
@@ -3359,7 +3407,7 @@
         <v>7</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AG9">
         <v>25</v>
@@ -3377,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AM9">
         <v>25</v>
@@ -3386,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AP9">
         <v>25</v>
@@ -3395,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3404,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AV9">
         <v>25</v>
@@ -3413,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="AX9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AY9">
         <v>25</v>
@@ -3422,7 +3470,7 @@
         <v>7</v>
       </c>
       <c r="BA9">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="BB9">
         <v>100</v>
@@ -3431,7 +3479,7 @@
         <v>30</v>
       </c>
       <c r="BD9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="BE9">
         <v>100</v>
@@ -3440,7 +3488,7 @@
         <v>30</v>
       </c>
       <c r="BG9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="BH9">
         <v>100</v>
@@ -3449,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="BJ9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="BK9">
         <v>100</v>
@@ -3458,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="BM9">
-        <v>24.5</v>
+        <v>50</v>
       </c>
       <c r="BN9">
         <v>100</v>
@@ -3467,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="BP9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="BQ9">
         <v>100</v>
@@ -3476,7 +3524,7 @@
         <v>30</v>
       </c>
       <c r="BS9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="BT9">
         <v>100</v>
@@ -3485,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="BV9">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="BW9">
         <v>100</v>
@@ -3494,28 +3542,28 @@
         <v>30</v>
       </c>
       <c r="BY9">
-        <v>9.6</v>
+        <v>59.4</v>
       </c>
       <c r="BZ9">
-        <v>18.8</v>
+        <v>69.2</v>
       </c>
       <c r="CA9">
-        <v>36.8</v>
+        <v>56.2</v>
       </c>
       <c r="CB9">
-        <v>14.8</v>
+        <v>46.4</v>
       </c>
       <c r="CC9">
-        <v>21.8</v>
+        <v>46.6</v>
       </c>
       <c r="CD9">
-        <v>22.4</v>
+        <v>50.2</v>
       </c>
       <c r="CE9">
-        <v>8.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="CF9">
-        <v>17</v>
+        <v>69.2</v>
       </c>
       <c r="CG9">
         <v>100</v>
@@ -3542,43 +3590,5115 @@
         <v>100</v>
       </c>
       <c r="CO9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CP9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CQ9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CR9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CS9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CT9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CU9" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="CV9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CW9">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="CX9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="CY9">
         <v>800</v>
       </c>
       <c r="CZ9">
-        <v>18.75</v>
+        <v>52.87500000000001</v>
       </c>
       <c r="DA9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:105">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
         <v>6</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>15.5</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>8.5</v>
+      </c>
+      <c r="AA10">
+        <v>25</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>18.5</v>
+      </c>
+      <c r="AD10">
+        <v>25</v>
+      </c>
+      <c r="AE10">
+        <v>7</v>
+      </c>
+      <c r="AF10">
+        <v>18</v>
+      </c>
+      <c r="AG10">
+        <v>25</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10">
+        <v>25</v>
+      </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10">
+        <v>11.5</v>
+      </c>
+      <c r="AM10">
+        <v>25</v>
+      </c>
+      <c r="AN10">
+        <v>7</v>
+      </c>
+      <c r="AO10">
+        <v>17</v>
+      </c>
+      <c r="AP10">
+        <v>25</v>
+      </c>
+      <c r="AQ10">
+        <v>7</v>
+      </c>
+      <c r="AR10">
+        <v>7.5</v>
+      </c>
+      <c r="AS10">
+        <v>25</v>
+      </c>
+      <c r="AT10">
+        <v>7</v>
+      </c>
+      <c r="AU10">
+        <v>17</v>
+      </c>
+      <c r="AV10">
+        <v>25</v>
+      </c>
+      <c r="AW10">
+        <v>7</v>
+      </c>
+      <c r="AX10">
+        <v>5.5</v>
+      </c>
+      <c r="AY10">
+        <v>25</v>
+      </c>
+      <c r="AZ10">
+        <v>7</v>
+      </c>
+      <c r="BA10">
+        <v>71</v>
+      </c>
+      <c r="BB10">
+        <v>100</v>
+      </c>
+      <c r="BC10">
+        <v>30</v>
+      </c>
+      <c r="BD10">
+        <v>41</v>
+      </c>
+      <c r="BE10">
+        <v>100</v>
+      </c>
+      <c r="BF10">
+        <v>30</v>
+      </c>
+      <c r="BG10">
+        <v>49</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+      <c r="BI10">
+        <v>30</v>
+      </c>
+      <c r="BJ10">
+        <v>59</v>
+      </c>
+      <c r="BK10">
+        <v>100</v>
+      </c>
+      <c r="BL10">
+        <v>30</v>
+      </c>
+      <c r="BM10">
+        <v>53</v>
+      </c>
+      <c r="BN10">
+        <v>100</v>
+      </c>
+      <c r="BO10">
+        <v>30</v>
+      </c>
+      <c r="BP10">
+        <v>48</v>
+      </c>
+      <c r="BQ10">
+        <v>100</v>
+      </c>
+      <c r="BR10">
+        <v>30</v>
+      </c>
+      <c r="BS10">
+        <v>42</v>
+      </c>
+      <c r="BT10">
+        <v>100</v>
+      </c>
+      <c r="BU10">
+        <v>30</v>
+      </c>
+      <c r="BV10">
+        <v>56</v>
+      </c>
+      <c r="BW10">
+        <v>100</v>
+      </c>
+      <c r="BX10">
+        <v>30</v>
+      </c>
+      <c r="BY10">
+        <v>72.2</v>
+      </c>
+      <c r="BZ10">
+        <v>46</v>
+      </c>
+      <c r="CA10">
+        <v>45</v>
+      </c>
+      <c r="CB10">
+        <v>58</v>
+      </c>
+      <c r="CC10">
+        <v>54.4</v>
+      </c>
+      <c r="CD10">
+        <v>45</v>
+      </c>
+      <c r="CE10">
+        <v>42</v>
+      </c>
+      <c r="CF10">
+        <v>50.4</v>
+      </c>
+      <c r="CG10">
+        <v>100</v>
+      </c>
+      <c r="CH10">
+        <v>100</v>
+      </c>
+      <c r="CI10">
+        <v>100</v>
+      </c>
+      <c r="CJ10">
+        <v>100</v>
+      </c>
+      <c r="CK10">
+        <v>100</v>
+      </c>
+      <c r="CL10">
+        <v>100</v>
+      </c>
+      <c r="CM10">
+        <v>100</v>
+      </c>
+      <c r="CN10">
+        <v>100</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW10">
+        <v>412.9999999999999</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY10">
+        <v>800</v>
+      </c>
+      <c r="CZ10">
+        <v>51.62499999999999</v>
+      </c>
+      <c r="DA10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:105">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>5.5</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>25</v>
+      </c>
+      <c r="AB11">
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <v>4.5</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>16</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>2.5</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <v>25</v>
+      </c>
+      <c r="AN11">
+        <v>7</v>
+      </c>
+      <c r="AO11">
+        <v>7</v>
+      </c>
+      <c r="AP11">
+        <v>25</v>
+      </c>
+      <c r="AQ11">
+        <v>7</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>25</v>
+      </c>
+      <c r="AT11">
+        <v>7</v>
+      </c>
+      <c r="AU11">
+        <v>2.5</v>
+      </c>
+      <c r="AV11">
+        <v>25</v>
+      </c>
+      <c r="AW11">
+        <v>7</v>
+      </c>
+      <c r="AX11">
+        <v>2.5</v>
+      </c>
+      <c r="AY11">
+        <v>25</v>
+      </c>
+      <c r="AZ11">
+        <v>7</v>
+      </c>
+      <c r="BA11">
+        <v>24</v>
+      </c>
+      <c r="BB11">
+        <v>100</v>
+      </c>
+      <c r="BC11">
+        <v>30</v>
+      </c>
+      <c r="BD11">
+        <v>34</v>
+      </c>
+      <c r="BE11">
+        <v>100</v>
+      </c>
+      <c r="BF11">
+        <v>30</v>
+      </c>
+      <c r="BG11">
+        <v>16.5</v>
+      </c>
+      <c r="BH11">
+        <v>100</v>
+      </c>
+      <c r="BI11">
+        <v>30</v>
+      </c>
+      <c r="BJ11">
+        <v>30</v>
+      </c>
+      <c r="BK11">
+        <v>100</v>
+      </c>
+      <c r="BL11">
+        <v>30</v>
+      </c>
+      <c r="BM11">
+        <v>30</v>
+      </c>
+      <c r="BN11">
+        <v>100</v>
+      </c>
+      <c r="BO11">
+        <v>30</v>
+      </c>
+      <c r="BP11">
+        <v>19</v>
+      </c>
+      <c r="BQ11">
+        <v>100</v>
+      </c>
+      <c r="BR11">
+        <v>30</v>
+      </c>
+      <c r="BS11">
+        <v>14</v>
+      </c>
+      <c r="BT11">
+        <v>100</v>
+      </c>
+      <c r="BU11">
+        <v>30</v>
+      </c>
+      <c r="BV11">
+        <v>34</v>
+      </c>
+      <c r="BW11">
+        <v>100</v>
+      </c>
+      <c r="BX11">
+        <v>30</v>
+      </c>
+      <c r="BY11">
+        <v>23.8</v>
+      </c>
+      <c r="BZ11">
+        <v>39.6</v>
+      </c>
+      <c r="CA11">
+        <v>16.4</v>
+      </c>
+      <c r="CB11">
+        <v>29.2</v>
+      </c>
+      <c r="CC11">
+        <v>28</v>
+      </c>
+      <c r="CD11">
+        <v>16</v>
+      </c>
+      <c r="CE11">
+        <v>14.6</v>
+      </c>
+      <c r="CF11">
+        <v>31</v>
+      </c>
+      <c r="CG11">
+        <v>100</v>
+      </c>
+      <c r="CH11">
+        <v>100</v>
+      </c>
+      <c r="CI11">
+        <v>100</v>
+      </c>
+      <c r="CJ11">
+        <v>100</v>
+      </c>
+      <c r="CK11">
+        <v>100</v>
+      </c>
+      <c r="CL11">
+        <v>100</v>
+      </c>
+      <c r="CM11">
+        <v>100</v>
+      </c>
+      <c r="CN11">
+        <v>100</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW11">
+        <v>198.6</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY11">
+        <v>800</v>
+      </c>
+      <c r="CZ11">
+        <v>24.825</v>
+      </c>
+      <c r="DA11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:105">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>20.5</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>16</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>7.5</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>13.5</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>15.5</v>
+      </c>
+      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <v>25</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>15.5</v>
+      </c>
+      <c r="AJ12">
+        <v>25</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>11</v>
+      </c>
+      <c r="AM12">
+        <v>25</v>
+      </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>13</v>
+      </c>
+      <c r="AP12">
+        <v>25</v>
+      </c>
+      <c r="AQ12">
+        <v>7</v>
+      </c>
+      <c r="AR12">
+        <v>6</v>
+      </c>
+      <c r="AS12">
+        <v>25</v>
+      </c>
+      <c r="AT12">
+        <v>7</v>
+      </c>
+      <c r="AU12">
+        <v>9.5</v>
+      </c>
+      <c r="AV12">
+        <v>25</v>
+      </c>
+      <c r="AW12">
+        <v>7</v>
+      </c>
+      <c r="AX12">
+        <v>21</v>
+      </c>
+      <c r="AY12">
+        <v>25</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>63</v>
+      </c>
+      <c r="BB12">
+        <v>100</v>
+      </c>
+      <c r="BC12">
+        <v>30</v>
+      </c>
+      <c r="BD12">
+        <v>73</v>
+      </c>
+      <c r="BE12">
+        <v>100</v>
+      </c>
+      <c r="BF12">
+        <v>30</v>
+      </c>
+      <c r="BG12">
+        <v>66</v>
+      </c>
+      <c r="BH12">
+        <v>100</v>
+      </c>
+      <c r="BI12">
+        <v>30</v>
+      </c>
+      <c r="BJ12">
+        <v>62</v>
+      </c>
+      <c r="BK12">
+        <v>100</v>
+      </c>
+      <c r="BL12">
+        <v>30</v>
+      </c>
+      <c r="BM12">
+        <v>59</v>
+      </c>
+      <c r="BN12">
+        <v>100</v>
+      </c>
+      <c r="BO12">
+        <v>30</v>
+      </c>
+      <c r="BP12">
+        <v>40</v>
+      </c>
+      <c r="BQ12">
+        <v>100</v>
+      </c>
+      <c r="BR12">
+        <v>30</v>
+      </c>
+      <c r="BS12">
+        <v>22.5</v>
+      </c>
+      <c r="BT12">
+        <v>100</v>
+      </c>
+      <c r="BU12">
+        <v>30</v>
+      </c>
+      <c r="BV12">
+        <v>79</v>
+      </c>
+      <c r="BW12">
+        <v>100</v>
+      </c>
+      <c r="BX12">
+        <v>30</v>
+      </c>
+      <c r="BY12">
+        <v>64.2</v>
+      </c>
+      <c r="BZ12">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="CA12">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="CB12">
+        <v>62.2</v>
+      </c>
+      <c r="CC12">
+        <v>57.2</v>
+      </c>
+      <c r="CD12">
+        <v>40.8</v>
+      </c>
+      <c r="CE12">
+        <v>24.8</v>
+      </c>
+      <c r="CF12">
+        <v>77</v>
+      </c>
+      <c r="CG12">
+        <v>100</v>
+      </c>
+      <c r="CH12">
+        <v>100</v>
+      </c>
+      <c r="CI12">
+        <v>100</v>
+      </c>
+      <c r="CJ12">
+        <v>100</v>
+      </c>
+      <c r="CK12">
+        <v>100</v>
+      </c>
+      <c r="CL12">
+        <v>100</v>
+      </c>
+      <c r="CM12">
+        <v>100</v>
+      </c>
+      <c r="CN12">
+        <v>100</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW12">
+        <v>465.2</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY12">
+        <v>800</v>
+      </c>
+      <c r="CZ12">
+        <v>58.15</v>
+      </c>
+      <c r="DA12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:105">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>7.5</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>8</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <v>9.5</v>
+      </c>
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>18.5</v>
+      </c>
+      <c r="AG13">
+        <v>25</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>8</v>
+      </c>
+      <c r="AJ13">
+        <v>25</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>7</v>
+      </c>
+      <c r="AM13">
+        <v>25</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>7</v>
+      </c>
+      <c r="AP13">
+        <v>25</v>
+      </c>
+      <c r="AQ13">
+        <v>7</v>
+      </c>
+      <c r="AR13">
+        <v>3.5</v>
+      </c>
+      <c r="AS13">
+        <v>25</v>
+      </c>
+      <c r="AT13">
+        <v>7</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>25</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>19</v>
+      </c>
+      <c r="AY13">
+        <v>25</v>
+      </c>
+      <c r="AZ13">
+        <v>7</v>
+      </c>
+      <c r="BA13">
+        <v>49</v>
+      </c>
+      <c r="BB13">
+        <v>100</v>
+      </c>
+      <c r="BC13">
+        <v>30</v>
+      </c>
+      <c r="BD13">
+        <v>41</v>
+      </c>
+      <c r="BE13">
+        <v>100</v>
+      </c>
+      <c r="BF13">
+        <v>30</v>
+      </c>
+      <c r="BG13">
+        <v>43</v>
+      </c>
+      <c r="BH13">
+        <v>100</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BJ13">
+        <v>43</v>
+      </c>
+      <c r="BK13">
+        <v>100</v>
+      </c>
+      <c r="BL13">
+        <v>30</v>
+      </c>
+      <c r="BM13">
+        <v>42</v>
+      </c>
+      <c r="BN13">
+        <v>100</v>
+      </c>
+      <c r="BO13">
+        <v>30</v>
+      </c>
+      <c r="BP13">
+        <v>27</v>
+      </c>
+      <c r="BQ13">
+        <v>100</v>
+      </c>
+      <c r="BR13">
+        <v>30</v>
+      </c>
+      <c r="BS13">
+        <v>29</v>
+      </c>
+      <c r="BT13">
+        <v>100</v>
+      </c>
+      <c r="BU13">
+        <v>30</v>
+      </c>
+      <c r="BV13">
+        <v>62</v>
+      </c>
+      <c r="BW13">
+        <v>100</v>
+      </c>
+      <c r="BX13">
+        <v>30</v>
+      </c>
+      <c r="BY13">
+        <v>48.6</v>
+      </c>
+      <c r="BZ13">
+        <v>46.2</v>
+      </c>
+      <c r="CA13">
+        <v>39.2</v>
+      </c>
+      <c r="CB13">
+        <v>42</v>
+      </c>
+      <c r="CC13">
+        <v>37.2</v>
+      </c>
+      <c r="CD13">
+        <v>24.4</v>
+      </c>
+      <c r="CE13">
+        <v>28.6</v>
+      </c>
+      <c r="CF13">
+        <v>60.4</v>
+      </c>
+      <c r="CG13">
+        <v>100</v>
+      </c>
+      <c r="CH13">
+        <v>100</v>
+      </c>
+      <c r="CI13">
+        <v>100</v>
+      </c>
+      <c r="CJ13">
+        <v>100</v>
+      </c>
+      <c r="CK13">
+        <v>100</v>
+      </c>
+      <c r="CL13">
+        <v>100</v>
+      </c>
+      <c r="CM13">
+        <v>100</v>
+      </c>
+      <c r="CN13">
+        <v>100</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW13">
+        <v>326.6</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY13">
+        <v>800</v>
+      </c>
+      <c r="CZ13">
+        <v>40.825</v>
+      </c>
+      <c r="DA13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:105">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>9.5</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>4.5</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>4</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>9.5</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>25</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>7</v>
+      </c>
+      <c r="AM14">
+        <v>25</v>
+      </c>
+      <c r="AN14">
+        <v>7</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>25</v>
+      </c>
+      <c r="AQ14">
+        <v>7</v>
+      </c>
+      <c r="AR14">
+        <v>2</v>
+      </c>
+      <c r="AS14">
+        <v>25</v>
+      </c>
+      <c r="AT14">
+        <v>7</v>
+      </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>25</v>
+      </c>
+      <c r="AW14">
+        <v>7</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>25</v>
+      </c>
+      <c r="AZ14">
+        <v>7</v>
+      </c>
+      <c r="BA14">
+        <v>23</v>
+      </c>
+      <c r="BB14">
+        <v>100</v>
+      </c>
+      <c r="BC14">
+        <v>30</v>
+      </c>
+      <c r="BD14">
+        <v>40</v>
+      </c>
+      <c r="BE14">
+        <v>100</v>
+      </c>
+      <c r="BF14">
+        <v>30</v>
+      </c>
+      <c r="BG14">
+        <v>17</v>
+      </c>
+      <c r="BH14">
+        <v>100</v>
+      </c>
+      <c r="BI14">
+        <v>30</v>
+      </c>
+      <c r="BJ14">
+        <v>27</v>
+      </c>
+      <c r="BK14">
+        <v>100</v>
+      </c>
+      <c r="BL14">
+        <v>30</v>
+      </c>
+      <c r="BM14">
+        <v>6</v>
+      </c>
+      <c r="BN14">
+        <v>100</v>
+      </c>
+      <c r="BO14">
+        <v>30</v>
+      </c>
+      <c r="BP14">
+        <v>32</v>
+      </c>
+      <c r="BQ14">
+        <v>100</v>
+      </c>
+      <c r="BR14">
+        <v>30</v>
+      </c>
+      <c r="BS14">
+        <v>30</v>
+      </c>
+      <c r="BT14">
+        <v>100</v>
+      </c>
+      <c r="BU14">
+        <v>30</v>
+      </c>
+      <c r="BV14">
+        <v>43</v>
+      </c>
+      <c r="BW14">
+        <v>100</v>
+      </c>
+      <c r="BX14">
+        <v>30</v>
+      </c>
+      <c r="BY14">
+        <v>21.2</v>
+      </c>
+      <c r="BZ14">
+        <v>39.6</v>
+      </c>
+      <c r="CA14">
+        <v>15.4</v>
+      </c>
+      <c r="CB14">
+        <v>27.6</v>
+      </c>
+      <c r="CC14">
+        <v>6</v>
+      </c>
+      <c r="CD14">
+        <v>27.6</v>
+      </c>
+      <c r="CE14">
+        <v>24.8</v>
+      </c>
+      <c r="CF14">
+        <v>37.2</v>
+      </c>
+      <c r="CG14">
+        <v>100</v>
+      </c>
+      <c r="CH14">
+        <v>100</v>
+      </c>
+      <c r="CI14">
+        <v>100</v>
+      </c>
+      <c r="CJ14">
+        <v>100</v>
+      </c>
+      <c r="CK14">
+        <v>100</v>
+      </c>
+      <c r="CL14">
+        <v>100</v>
+      </c>
+      <c r="CM14">
+        <v>100</v>
+      </c>
+      <c r="CN14">
+        <v>100</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW14">
+        <v>199.4</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY14">
+        <v>800</v>
+      </c>
+      <c r="CZ14">
+        <v>24.925</v>
+      </c>
+      <c r="DA14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:105">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>5.5</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>12.5</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>4.5</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>5.5</v>
+      </c>
+      <c r="X15">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>8.5</v>
+      </c>
+      <c r="AA15">
+        <v>25</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>25</v>
+      </c>
+      <c r="AE15">
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>7</v>
+      </c>
+      <c r="AI15">
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <v>25</v>
+      </c>
+      <c r="AK15">
+        <v>7</v>
+      </c>
+      <c r="AL15">
+        <v>7.5</v>
+      </c>
+      <c r="AM15">
+        <v>25</v>
+      </c>
+      <c r="AN15">
+        <v>7</v>
+      </c>
+      <c r="AO15">
+        <v>7.5</v>
+      </c>
+      <c r="AP15">
+        <v>25</v>
+      </c>
+      <c r="AQ15">
+        <v>7</v>
+      </c>
+      <c r="AR15">
+        <v>5.5</v>
+      </c>
+      <c r="AS15">
+        <v>25</v>
+      </c>
+      <c r="AT15">
+        <v>7</v>
+      </c>
+      <c r="AU15">
+        <v>3.5</v>
+      </c>
+      <c r="AV15">
+        <v>25</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
+        <v>3</v>
+      </c>
+      <c r="AY15">
+        <v>25</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>24</v>
+      </c>
+      <c r="BB15">
+        <v>100</v>
+      </c>
+      <c r="BC15">
+        <v>30</v>
+      </c>
+      <c r="BD15">
+        <v>41</v>
+      </c>
+      <c r="BE15">
+        <v>100</v>
+      </c>
+      <c r="BF15">
+        <v>30</v>
+      </c>
+      <c r="BG15">
+        <v>36</v>
+      </c>
+      <c r="BH15">
+        <v>100</v>
+      </c>
+      <c r="BI15">
+        <v>30</v>
+      </c>
+      <c r="BJ15">
+        <v>39</v>
+      </c>
+      <c r="BK15">
+        <v>100</v>
+      </c>
+      <c r="BL15">
+        <v>30</v>
+      </c>
+      <c r="BM15">
+        <v>28</v>
+      </c>
+      <c r="BN15">
+        <v>100</v>
+      </c>
+      <c r="BO15">
+        <v>30</v>
+      </c>
+      <c r="BP15">
+        <v>37</v>
+      </c>
+      <c r="BQ15">
+        <v>100</v>
+      </c>
+      <c r="BR15">
+        <v>30</v>
+      </c>
+      <c r="BS15">
+        <v>24</v>
+      </c>
+      <c r="BT15">
+        <v>100</v>
+      </c>
+      <c r="BU15">
+        <v>30</v>
+      </c>
+      <c r="BV15">
+        <v>46.5</v>
+      </c>
+      <c r="BW15">
+        <v>100</v>
+      </c>
+      <c r="BX15">
+        <v>30</v>
+      </c>
+      <c r="BY15">
+        <v>25.2</v>
+      </c>
+      <c r="BZ15">
+        <v>41.2</v>
+      </c>
+      <c r="CA15">
+        <v>32.6</v>
+      </c>
+      <c r="CB15">
+        <v>39.2</v>
+      </c>
+      <c r="CC15">
+        <v>27.2</v>
+      </c>
+      <c r="CD15">
+        <v>33.4</v>
+      </c>
+      <c r="CE15">
+        <v>22.8</v>
+      </c>
+      <c r="CF15">
+        <v>41.8</v>
+      </c>
+      <c r="CG15">
+        <v>100</v>
+      </c>
+      <c r="CH15">
+        <v>100</v>
+      </c>
+      <c r="CI15">
+        <v>100</v>
+      </c>
+      <c r="CJ15">
+        <v>100</v>
+      </c>
+      <c r="CK15">
+        <v>100</v>
+      </c>
+      <c r="CL15">
+        <v>100</v>
+      </c>
+      <c r="CM15">
+        <v>100</v>
+      </c>
+      <c r="CN15">
+        <v>100</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW15">
+        <v>263.4</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY15">
+        <v>800</v>
+      </c>
+      <c r="CZ15">
+        <v>32.925</v>
+      </c>
+      <c r="DA15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:105">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>10.5</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>8.5</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>22.5</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>8.5</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>11.5</v>
+      </c>
+      <c r="AA16">
+        <v>25</v>
+      </c>
+      <c r="AB16">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <v>8.5</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>17.5</v>
+      </c>
+      <c r="AG16">
+        <v>25</v>
+      </c>
+      <c r="AH16">
+        <v>7</v>
+      </c>
+      <c r="AI16">
+        <v>7</v>
+      </c>
+      <c r="AJ16">
+        <v>25</v>
+      </c>
+      <c r="AK16">
+        <v>7</v>
+      </c>
+      <c r="AL16">
+        <v>7.5</v>
+      </c>
+      <c r="AM16">
+        <v>25</v>
+      </c>
+      <c r="AN16">
+        <v>7</v>
+      </c>
+      <c r="AO16">
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <v>25</v>
+      </c>
+      <c r="AQ16">
+        <v>7</v>
+      </c>
+      <c r="AR16">
+        <v>7.5</v>
+      </c>
+      <c r="AS16">
+        <v>25</v>
+      </c>
+      <c r="AT16">
+        <v>7</v>
+      </c>
+      <c r="AU16">
+        <v>10</v>
+      </c>
+      <c r="AV16">
+        <v>25</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>5.5</v>
+      </c>
+      <c r="AY16">
+        <v>25</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>31</v>
+      </c>
+      <c r="BB16">
+        <v>100</v>
+      </c>
+      <c r="BC16">
+        <v>30</v>
+      </c>
+      <c r="BD16">
+        <v>55</v>
+      </c>
+      <c r="BE16">
+        <v>100</v>
+      </c>
+      <c r="BF16">
+        <v>30</v>
+      </c>
+      <c r="BG16">
+        <v>46.5</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>30</v>
+      </c>
+      <c r="BJ16">
+        <v>38</v>
+      </c>
+      <c r="BK16">
+        <v>100</v>
+      </c>
+      <c r="BL16">
+        <v>30</v>
+      </c>
+      <c r="BM16">
+        <v>31</v>
+      </c>
+      <c r="BN16">
+        <v>100</v>
+      </c>
+      <c r="BO16">
+        <v>30</v>
+      </c>
+      <c r="BP16">
+        <v>38</v>
+      </c>
+      <c r="BQ16">
+        <v>100</v>
+      </c>
+      <c r="BR16">
+        <v>30</v>
+      </c>
+      <c r="BS16">
+        <v>16</v>
+      </c>
+      <c r="BT16">
+        <v>100</v>
+      </c>
+      <c r="BU16">
+        <v>30</v>
+      </c>
+      <c r="BV16">
+        <v>50.5</v>
+      </c>
+      <c r="BW16">
+        <v>100</v>
+      </c>
+      <c r="BX16">
+        <v>30</v>
+      </c>
+      <c r="BY16">
+        <v>32.4</v>
+      </c>
+      <c r="BZ16">
+        <v>57.4</v>
+      </c>
+      <c r="CA16">
+        <v>43.4</v>
+      </c>
+      <c r="CB16">
+        <v>42.4</v>
+      </c>
+      <c r="CC16">
+        <v>27.6</v>
+      </c>
+      <c r="CD16">
+        <v>36.6</v>
+      </c>
+      <c r="CE16">
+        <v>20.2</v>
+      </c>
+      <c r="CF16">
+        <v>47.2</v>
+      </c>
+      <c r="CG16">
+        <v>100</v>
+      </c>
+      <c r="CH16">
+        <v>100</v>
+      </c>
+      <c r="CI16">
+        <v>100</v>
+      </c>
+      <c r="CJ16">
+        <v>100</v>
+      </c>
+      <c r="CK16">
+        <v>100</v>
+      </c>
+      <c r="CL16">
+        <v>100</v>
+      </c>
+      <c r="CM16">
+        <v>100</v>
+      </c>
+      <c r="CN16">
+        <v>100</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW16">
+        <v>307.2</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY16">
+        <v>800</v>
+      </c>
+      <c r="CZ16">
+        <v>38.4</v>
+      </c>
+      <c r="DA16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:105">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>10.5</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>2.5</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>8.5</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>25</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>5.5</v>
+      </c>
+      <c r="X17">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>25</v>
+      </c>
+      <c r="AE17">
+        <v>7</v>
+      </c>
+      <c r="AF17">
+        <v>11.5</v>
+      </c>
+      <c r="AG17">
+        <v>25</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>1.5</v>
+      </c>
+      <c r="AJ17">
+        <v>25</v>
+      </c>
+      <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
+        <v>4.5</v>
+      </c>
+      <c r="AM17">
+        <v>25</v>
+      </c>
+      <c r="AN17">
+        <v>7</v>
+      </c>
+      <c r="AO17">
+        <v>5</v>
+      </c>
+      <c r="AP17">
+        <v>25</v>
+      </c>
+      <c r="AQ17">
+        <v>7</v>
+      </c>
+      <c r="AR17">
+        <v>2.5</v>
+      </c>
+      <c r="AS17">
+        <v>25</v>
+      </c>
+      <c r="AT17">
+        <v>7</v>
+      </c>
+      <c r="AU17">
+        <v>4.5</v>
+      </c>
+      <c r="AV17">
+        <v>25</v>
+      </c>
+      <c r="AW17">
+        <v>7</v>
+      </c>
+      <c r="AX17">
+        <v>0.5</v>
+      </c>
+      <c r="AY17">
+        <v>25</v>
+      </c>
+      <c r="AZ17">
+        <v>7</v>
+      </c>
+      <c r="BA17">
+        <v>22</v>
+      </c>
+      <c r="BB17">
+        <v>100</v>
+      </c>
+      <c r="BC17">
+        <v>30</v>
+      </c>
+      <c r="BD17">
+        <v>28</v>
+      </c>
+      <c r="BE17">
+        <v>100</v>
+      </c>
+      <c r="BF17">
+        <v>30</v>
+      </c>
+      <c r="BG17">
+        <v>19.5</v>
+      </c>
+      <c r="BH17">
+        <v>100</v>
+      </c>
+      <c r="BI17">
+        <v>30</v>
+      </c>
+      <c r="BJ17">
+        <v>18</v>
+      </c>
+      <c r="BK17">
+        <v>100</v>
+      </c>
+      <c r="BL17">
+        <v>30</v>
+      </c>
+      <c r="BM17">
+        <v>23</v>
+      </c>
+      <c r="BN17">
+        <v>100</v>
+      </c>
+      <c r="BO17">
+        <v>30</v>
+      </c>
+      <c r="BP17">
+        <v>24</v>
+      </c>
+      <c r="BQ17">
+        <v>100</v>
+      </c>
+      <c r="BR17">
+        <v>30</v>
+      </c>
+      <c r="BS17">
+        <v>19</v>
+      </c>
+      <c r="BT17">
+        <v>100</v>
+      </c>
+      <c r="BU17">
+        <v>30</v>
+      </c>
+      <c r="BV17">
+        <v>39</v>
+      </c>
+      <c r="BW17">
+        <v>100</v>
+      </c>
+      <c r="BX17">
+        <v>30</v>
+      </c>
+      <c r="BY17">
+        <v>20.6</v>
+      </c>
+      <c r="BZ17">
+        <v>31.2</v>
+      </c>
+      <c r="CA17">
+        <v>17.2</v>
+      </c>
+      <c r="CB17">
+        <v>19.6</v>
+      </c>
+      <c r="CC17">
+        <v>21.6</v>
+      </c>
+      <c r="CD17">
+        <v>21</v>
+      </c>
+      <c r="CE17">
+        <v>19.2</v>
+      </c>
+      <c r="CF17">
+        <v>33</v>
+      </c>
+      <c r="CG17">
+        <v>100</v>
+      </c>
+      <c r="CH17">
+        <v>100</v>
+      </c>
+      <c r="CI17">
+        <v>100</v>
+      </c>
+      <c r="CJ17">
+        <v>100</v>
+      </c>
+      <c r="CK17">
+        <v>100</v>
+      </c>
+      <c r="CL17">
+        <v>100</v>
+      </c>
+      <c r="CM17">
+        <v>100</v>
+      </c>
+      <c r="CN17">
+        <v>100</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW17">
+        <v>183.4</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY17">
+        <v>800</v>
+      </c>
+      <c r="CZ17">
+        <v>22.925</v>
+      </c>
+      <c r="DA17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:105">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>4.5</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>8.5</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>5.5</v>
+      </c>
+      <c r="X18">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>5.5</v>
+      </c>
+      <c r="AA18">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>19</v>
+      </c>
+      <c r="AG18">
+        <v>25</v>
+      </c>
+      <c r="AH18">
+        <v>7</v>
+      </c>
+      <c r="AI18">
+        <v>6</v>
+      </c>
+      <c r="AJ18">
+        <v>25</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>5.5</v>
+      </c>
+      <c r="AM18">
+        <v>25</v>
+      </c>
+      <c r="AN18">
+        <v>7</v>
+      </c>
+      <c r="AO18">
+        <v>4</v>
+      </c>
+      <c r="AP18">
+        <v>25</v>
+      </c>
+      <c r="AQ18">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>5</v>
+      </c>
+      <c r="AS18">
+        <v>25</v>
+      </c>
+      <c r="AT18">
+        <v>7</v>
+      </c>
+      <c r="AU18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>25</v>
+      </c>
+      <c r="AW18">
+        <v>7</v>
+      </c>
+      <c r="AX18">
+        <v>5.5</v>
+      </c>
+      <c r="AY18">
+        <v>25</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
+        <v>51</v>
+      </c>
+      <c r="BB18">
+        <v>100</v>
+      </c>
+      <c r="BC18">
+        <v>30</v>
+      </c>
+      <c r="BD18">
+        <v>48</v>
+      </c>
+      <c r="BE18">
+        <v>100</v>
+      </c>
+      <c r="BF18">
+        <v>30</v>
+      </c>
+      <c r="BG18">
+        <v>38.5</v>
+      </c>
+      <c r="BH18">
+        <v>100</v>
+      </c>
+      <c r="BI18">
+        <v>30</v>
+      </c>
+      <c r="BJ18">
+        <v>39</v>
+      </c>
+      <c r="BK18">
+        <v>100</v>
+      </c>
+      <c r="BL18">
+        <v>30</v>
+      </c>
+      <c r="BM18">
+        <v>28</v>
+      </c>
+      <c r="BN18">
+        <v>100</v>
+      </c>
+      <c r="BO18">
+        <v>30</v>
+      </c>
+      <c r="BP18">
+        <v>45</v>
+      </c>
+      <c r="BQ18">
+        <v>100</v>
+      </c>
+      <c r="BR18">
+        <v>30</v>
+      </c>
+      <c r="BS18">
+        <v>25</v>
+      </c>
+      <c r="BT18">
+        <v>100</v>
+      </c>
+      <c r="BU18">
+        <v>30</v>
+      </c>
+      <c r="BV18">
+        <v>50</v>
+      </c>
+      <c r="BW18">
+        <v>100</v>
+      </c>
+      <c r="BX18">
+        <v>30</v>
+      </c>
+      <c r="BY18">
+        <v>48.4</v>
+      </c>
+      <c r="BZ18">
+        <v>52.8</v>
+      </c>
+      <c r="CA18">
+        <v>35</v>
+      </c>
+      <c r="CB18">
+        <v>35.4</v>
+      </c>
+      <c r="CC18">
+        <v>25.6</v>
+      </c>
+      <c r="CD18">
+        <v>41.4</v>
+      </c>
+      <c r="CE18">
+        <v>24.6</v>
+      </c>
+      <c r="CF18">
+        <v>44.4</v>
+      </c>
+      <c r="CG18">
+        <v>100</v>
+      </c>
+      <c r="CH18">
+        <v>100</v>
+      </c>
+      <c r="CI18">
+        <v>100</v>
+      </c>
+      <c r="CJ18">
+        <v>100</v>
+      </c>
+      <c r="CK18">
+        <v>100</v>
+      </c>
+      <c r="CL18">
+        <v>100</v>
+      </c>
+      <c r="CM18">
+        <v>100</v>
+      </c>
+      <c r="CN18">
+        <v>100</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW18">
+        <v>307.6</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY18">
+        <v>800</v>
+      </c>
+      <c r="CZ18">
+        <v>38.45</v>
+      </c>
+      <c r="DA18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:105">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>9.5</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>10.5</v>
+      </c>
+      <c r="X19">
+        <v>25</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>25</v>
+      </c>
+      <c r="AB19">
+        <v>7</v>
+      </c>
+      <c r="AC19">
+        <v>5.5</v>
+      </c>
+      <c r="AD19">
+        <v>25</v>
+      </c>
+      <c r="AE19">
+        <v>7</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19">
+        <v>25</v>
+      </c>
+      <c r="AH19">
+        <v>7</v>
+      </c>
+      <c r="AI19">
+        <v>12</v>
+      </c>
+      <c r="AJ19">
+        <v>25</v>
+      </c>
+      <c r="AK19">
+        <v>7</v>
+      </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>25</v>
+      </c>
+      <c r="AN19">
+        <v>7</v>
+      </c>
+      <c r="AO19">
+        <v>4</v>
+      </c>
+      <c r="AP19">
+        <v>25</v>
+      </c>
+      <c r="AQ19">
+        <v>7</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>25</v>
+      </c>
+      <c r="AT19">
+        <v>7</v>
+      </c>
+      <c r="AU19">
+        <v>12</v>
+      </c>
+      <c r="AV19">
+        <v>25</v>
+      </c>
+      <c r="AW19">
+        <v>7</v>
+      </c>
+      <c r="AX19">
+        <v>5</v>
+      </c>
+      <c r="AY19">
+        <v>25</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>50</v>
+      </c>
+      <c r="BB19">
+        <v>100</v>
+      </c>
+      <c r="BC19">
+        <v>30</v>
+      </c>
+      <c r="BD19">
+        <v>51</v>
+      </c>
+      <c r="BE19">
+        <v>100</v>
+      </c>
+      <c r="BF19">
+        <v>30</v>
+      </c>
+      <c r="BG19">
+        <v>47</v>
+      </c>
+      <c r="BH19">
+        <v>100</v>
+      </c>
+      <c r="BI19">
+        <v>30</v>
+      </c>
+      <c r="BJ19">
+        <v>34</v>
+      </c>
+      <c r="BK19">
+        <v>100</v>
+      </c>
+      <c r="BL19">
+        <v>30</v>
+      </c>
+      <c r="BM19">
+        <v>32</v>
+      </c>
+      <c r="BN19">
+        <v>100</v>
+      </c>
+      <c r="BO19">
+        <v>30</v>
+      </c>
+      <c r="BP19">
+        <v>38</v>
+      </c>
+      <c r="BQ19">
+        <v>100</v>
+      </c>
+      <c r="BR19">
+        <v>30</v>
+      </c>
+      <c r="BS19">
+        <v>34</v>
+      </c>
+      <c r="BT19">
+        <v>100</v>
+      </c>
+      <c r="BU19">
+        <v>30</v>
+      </c>
+      <c r="BV19">
+        <v>50.5</v>
+      </c>
+      <c r="BW19">
+        <v>100</v>
+      </c>
+      <c r="BX19">
+        <v>30</v>
+      </c>
+      <c r="BY19">
+        <v>46.6</v>
+      </c>
+      <c r="BZ19">
+        <v>52.4</v>
+      </c>
+      <c r="CA19">
+        <v>46.2</v>
+      </c>
+      <c r="CB19">
+        <v>31.6</v>
+      </c>
+      <c r="CC19">
+        <v>28.8</v>
+      </c>
+      <c r="CD19">
+        <v>35.6</v>
+      </c>
+      <c r="CE19">
+        <v>36.2</v>
+      </c>
+      <c r="CF19">
+        <v>44.4</v>
+      </c>
+      <c r="CG19">
+        <v>100</v>
+      </c>
+      <c r="CH19">
+        <v>100</v>
+      </c>
+      <c r="CI19">
+        <v>100</v>
+      </c>
+      <c r="CJ19">
+        <v>100</v>
+      </c>
+      <c r="CK19">
+        <v>100</v>
+      </c>
+      <c r="CL19">
+        <v>100</v>
+      </c>
+      <c r="CM19">
+        <v>100</v>
+      </c>
+      <c r="CN19">
+        <v>100</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW19">
+        <v>321.8</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY19">
+        <v>800</v>
+      </c>
+      <c r="CZ19">
+        <v>40.22499999999999</v>
+      </c>
+      <c r="DA19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:105">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>16.5</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>5.5</v>
+      </c>
+      <c r="R20">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>11.5</v>
+      </c>
+      <c r="X20">
+        <v>25</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>8</v>
+      </c>
+      <c r="AA20">
+        <v>25</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>25</v>
+      </c>
+      <c r="AE20">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>14.5</v>
+      </c>
+      <c r="AG20">
+        <v>25</v>
+      </c>
+      <c r="AH20">
+        <v>7</v>
+      </c>
+      <c r="AI20">
+        <v>17</v>
+      </c>
+      <c r="AJ20">
+        <v>25</v>
+      </c>
+      <c r="AK20">
+        <v>7</v>
+      </c>
+      <c r="AL20">
+        <v>7</v>
+      </c>
+      <c r="AM20">
+        <v>25</v>
+      </c>
+      <c r="AN20">
+        <v>7</v>
+      </c>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+      <c r="AP20">
+        <v>25</v>
+      </c>
+      <c r="AQ20">
+        <v>7</v>
+      </c>
+      <c r="AR20">
+        <v>7</v>
+      </c>
+      <c r="AS20">
+        <v>25</v>
+      </c>
+      <c r="AT20">
+        <v>7</v>
+      </c>
+      <c r="AU20">
+        <v>9</v>
+      </c>
+      <c r="AV20">
+        <v>25</v>
+      </c>
+      <c r="AW20">
+        <v>7</v>
+      </c>
+      <c r="AX20">
+        <v>7.5</v>
+      </c>
+      <c r="AY20">
+        <v>25</v>
+      </c>
+      <c r="AZ20">
+        <v>7</v>
+      </c>
+      <c r="BA20">
+        <v>56</v>
+      </c>
+      <c r="BB20">
+        <v>100</v>
+      </c>
+      <c r="BC20">
+        <v>30</v>
+      </c>
+      <c r="BD20">
+        <v>57</v>
+      </c>
+      <c r="BE20">
+        <v>100</v>
+      </c>
+      <c r="BF20">
+        <v>30</v>
+      </c>
+      <c r="BG20">
+        <v>55</v>
+      </c>
+      <c r="BH20">
+        <v>100</v>
+      </c>
+      <c r="BI20">
+        <v>30</v>
+      </c>
+      <c r="BJ20">
+        <v>33</v>
+      </c>
+      <c r="BK20">
+        <v>100</v>
+      </c>
+      <c r="BL20">
+        <v>30</v>
+      </c>
+      <c r="BM20">
+        <v>41</v>
+      </c>
+      <c r="BN20">
+        <v>100</v>
+      </c>
+      <c r="BO20">
+        <v>30</v>
+      </c>
+      <c r="BP20">
+        <v>43</v>
+      </c>
+      <c r="BQ20">
+        <v>100</v>
+      </c>
+      <c r="BR20">
+        <v>30</v>
+      </c>
+      <c r="BS20">
+        <v>31</v>
+      </c>
+      <c r="BT20">
+        <v>100</v>
+      </c>
+      <c r="BU20">
+        <v>30</v>
+      </c>
+      <c r="BV20">
+        <v>61.5</v>
+      </c>
+      <c r="BW20">
+        <v>100</v>
+      </c>
+      <c r="BX20">
+        <v>30</v>
+      </c>
+      <c r="BY20">
+        <v>54.8</v>
+      </c>
+      <c r="BZ20">
+        <v>58</v>
+      </c>
+      <c r="CA20">
+        <v>54</v>
+      </c>
+      <c r="CB20">
+        <v>35.2</v>
+      </c>
+      <c r="CC20">
+        <v>37</v>
+      </c>
+      <c r="CD20">
+        <v>38.8</v>
+      </c>
+      <c r="CE20">
+        <v>33</v>
+      </c>
+      <c r="CF20">
+        <v>55.4</v>
+      </c>
+      <c r="CG20">
+        <v>100</v>
+      </c>
+      <c r="CH20">
+        <v>100</v>
+      </c>
+      <c r="CI20">
+        <v>100</v>
+      </c>
+      <c r="CJ20">
+        <v>100</v>
+      </c>
+      <c r="CK20">
+        <v>100</v>
+      </c>
+      <c r="CL20">
+        <v>100</v>
+      </c>
+      <c r="CM20">
+        <v>100</v>
+      </c>
+      <c r="CN20">
+        <v>100</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW20">
+        <v>366.2</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY20">
+        <v>800</v>
+      </c>
+      <c r="CZ20">
+        <v>45.775</v>
+      </c>
+      <c r="DA20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:105">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>18.5</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>8.5</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>16</v>
+      </c>
+      <c r="AA21">
+        <v>25</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <v>7</v>
+      </c>
+      <c r="AF21">
+        <v>17.5</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>7</v>
+      </c>
+      <c r="AI21">
+        <v>10</v>
+      </c>
+      <c r="AJ21">
+        <v>25</v>
+      </c>
+      <c r="AK21">
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <v>14</v>
+      </c>
+      <c r="AM21">
+        <v>25</v>
+      </c>
+      <c r="AN21">
+        <v>7</v>
+      </c>
+      <c r="AO21">
+        <v>16</v>
+      </c>
+      <c r="AP21">
+        <v>25</v>
+      </c>
+      <c r="AQ21">
+        <v>7</v>
+      </c>
+      <c r="AR21">
+        <v>8.5</v>
+      </c>
+      <c r="AS21">
+        <v>25</v>
+      </c>
+      <c r="AT21">
+        <v>7</v>
+      </c>
+      <c r="AU21">
+        <v>7.5</v>
+      </c>
+      <c r="AV21">
+        <v>25</v>
+      </c>
+      <c r="AW21">
+        <v>7</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>25</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>30</v>
+      </c>
+      <c r="BB21">
+        <v>100</v>
+      </c>
+      <c r="BC21">
+        <v>30</v>
+      </c>
+      <c r="BD21">
+        <v>52</v>
+      </c>
+      <c r="BE21">
+        <v>100</v>
+      </c>
+      <c r="BF21">
+        <v>30</v>
+      </c>
+      <c r="BG21">
+        <v>47</v>
+      </c>
+      <c r="BH21">
+        <v>100</v>
+      </c>
+      <c r="BI21">
+        <v>30</v>
+      </c>
+      <c r="BJ21">
+        <v>42</v>
+      </c>
+      <c r="BK21">
+        <v>100</v>
+      </c>
+      <c r="BL21">
+        <v>30</v>
+      </c>
+      <c r="BM21">
+        <v>44</v>
+      </c>
+      <c r="BN21">
+        <v>100</v>
+      </c>
+      <c r="BO21">
+        <v>30</v>
+      </c>
+      <c r="BP21">
+        <v>26</v>
+      </c>
+      <c r="BQ21">
+        <v>100</v>
+      </c>
+      <c r="BR21">
+        <v>30</v>
+      </c>
+      <c r="BS21">
+        <v>4</v>
+      </c>
+      <c r="BT21">
+        <v>100</v>
+      </c>
+      <c r="BU21">
+        <v>30</v>
+      </c>
+      <c r="BV21">
+        <v>47</v>
+      </c>
+      <c r="BW21">
+        <v>100</v>
+      </c>
+      <c r="BX21">
+        <v>30</v>
+      </c>
+      <c r="BY21">
+        <v>29.6</v>
+      </c>
+      <c r="BZ21">
+        <v>54.2</v>
+      </c>
+      <c r="CA21">
+        <v>45.6</v>
+      </c>
+      <c r="CB21">
+        <v>46.6</v>
+      </c>
+      <c r="CC21">
+        <v>44.4</v>
+      </c>
+      <c r="CD21">
+        <v>27.6</v>
+      </c>
+      <c r="CE21">
+        <v>7.4</v>
+      </c>
+      <c r="CF21">
+        <v>46</v>
+      </c>
+      <c r="CG21">
+        <v>100</v>
+      </c>
+      <c r="CH21">
+        <v>100</v>
+      </c>
+      <c r="CI21">
+        <v>100</v>
+      </c>
+      <c r="CJ21">
+        <v>100</v>
+      </c>
+      <c r="CK21">
+        <v>100</v>
+      </c>
+      <c r="CL21">
+        <v>100</v>
+      </c>
+      <c r="CM21">
+        <v>100</v>
+      </c>
+      <c r="CN21">
+        <v>100</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW21">
+        <v>301.4</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY21">
+        <v>800</v>
+      </c>
+      <c r="CZ21">
+        <v>37.675</v>
+      </c>
+      <c r="DA21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:105">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>22.5</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>23.5</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+      <c r="R22">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>25</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <v>19</v>
+      </c>
+      <c r="X22">
+        <v>25</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>12.5</v>
+      </c>
+      <c r="AA22">
+        <v>25</v>
+      </c>
+      <c r="AB22">
+        <v>7</v>
+      </c>
+      <c r="AC22">
+        <v>23</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+      <c r="AE22">
+        <v>7</v>
+      </c>
+      <c r="AF22">
+        <v>23.5</v>
+      </c>
+      <c r="AG22">
+        <v>25</v>
+      </c>
+      <c r="AH22">
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <v>22</v>
+      </c>
+      <c r="AJ22">
+        <v>25</v>
+      </c>
+      <c r="AK22">
+        <v>7</v>
+      </c>
+      <c r="AL22">
+        <v>19.5</v>
+      </c>
+      <c r="AM22">
+        <v>25</v>
+      </c>
+      <c r="AN22">
+        <v>7</v>
+      </c>
+      <c r="AO22">
+        <v>16</v>
+      </c>
+      <c r="AP22">
+        <v>25</v>
+      </c>
+      <c r="AQ22">
+        <v>7</v>
+      </c>
+      <c r="AR22">
+        <v>16</v>
+      </c>
+      <c r="AS22">
+        <v>25</v>
+      </c>
+      <c r="AT22">
+        <v>7</v>
+      </c>
+      <c r="AU22">
+        <v>17</v>
+      </c>
+      <c r="AV22">
+        <v>25</v>
+      </c>
+      <c r="AW22">
+        <v>7</v>
+      </c>
+      <c r="AX22">
+        <v>21.5</v>
+      </c>
+      <c r="AY22">
+        <v>25</v>
+      </c>
+      <c r="AZ22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>83</v>
+      </c>
+      <c r="BB22">
+        <v>100</v>
+      </c>
+      <c r="BC22">
+        <v>30</v>
+      </c>
+      <c r="BD22">
+        <v>73</v>
+      </c>
+      <c r="BE22">
+        <v>100</v>
+      </c>
+      <c r="BF22">
+        <v>30</v>
+      </c>
+      <c r="BG22">
+        <v>80.5</v>
+      </c>
+      <c r="BH22">
+        <v>100</v>
+      </c>
+      <c r="BI22">
+        <v>30</v>
+      </c>
+      <c r="BJ22">
+        <v>62</v>
+      </c>
+      <c r="BK22">
+        <v>100</v>
+      </c>
+      <c r="BL22">
+        <v>30</v>
+      </c>
+      <c r="BM22">
+        <v>70</v>
+      </c>
+      <c r="BN22">
+        <v>100</v>
+      </c>
+      <c r="BO22">
+        <v>30</v>
+      </c>
+      <c r="BP22">
+        <v>64</v>
+      </c>
+      <c r="BQ22">
+        <v>100</v>
+      </c>
+      <c r="BR22">
+        <v>30</v>
+      </c>
+      <c r="BS22">
+        <v>58</v>
+      </c>
+      <c r="BT22">
+        <v>100</v>
+      </c>
+      <c r="BU22">
+        <v>30</v>
+      </c>
+      <c r="BV22">
+        <v>86</v>
+      </c>
+      <c r="BW22">
+        <v>100</v>
+      </c>
+      <c r="BX22">
+        <v>30</v>
+      </c>
+      <c r="BY22">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="BZ22">
+        <v>76.2</v>
+      </c>
+      <c r="CA22">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="CB22">
+        <v>66.8</v>
+      </c>
+      <c r="CC22">
+        <v>68.8</v>
+      </c>
+      <c r="CD22">
+        <v>62.8</v>
+      </c>
+      <c r="CE22">
+        <v>60.8</v>
+      </c>
+      <c r="CF22">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="CG22">
+        <v>100</v>
+      </c>
+      <c r="CH22">
+        <v>100</v>
+      </c>
+      <c r="CI22">
+        <v>100</v>
+      </c>
+      <c r="CJ22">
+        <v>100</v>
+      </c>
+      <c r="CK22">
+        <v>100</v>
+      </c>
+      <c r="CL22">
+        <v>100</v>
+      </c>
+      <c r="CM22">
+        <v>100</v>
+      </c>
+      <c r="CN22">
+        <v>100</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW22">
+        <v>582.8000000000001</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY22">
+        <v>800</v>
+      </c>
+      <c r="CZ22">
+        <v>72.85000000000001</v>
+      </c>
+      <c r="DA22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:105">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>25</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>25</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>25</v>
+      </c>
+      <c r="AE23">
+        <v>7</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>25</v>
+      </c>
+      <c r="AH23">
+        <v>7</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>25</v>
+      </c>
+      <c r="AK23">
+        <v>7</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>25</v>
+      </c>
+      <c r="AN23">
+        <v>7</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>25</v>
+      </c>
+      <c r="AQ23">
+        <v>7</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>25</v>
+      </c>
+      <c r="AT23">
+        <v>7</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>25</v>
+      </c>
+      <c r="AW23">
+        <v>7</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>25</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>100</v>
+      </c>
+      <c r="BC23">
+        <v>30</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>100</v>
+      </c>
+      <c r="BF23">
+        <v>30</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>100</v>
+      </c>
+      <c r="BI23">
+        <v>30</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>100</v>
+      </c>
+      <c r="BL23">
+        <v>30</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>100</v>
+      </c>
+      <c r="BO23">
+        <v>30</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>100</v>
+      </c>
+      <c r="BR23">
+        <v>30</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>100</v>
+      </c>
+      <c r="BU23">
+        <v>30</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>100</v>
+      </c>
+      <c r="BX23">
+        <v>30</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>100</v>
+      </c>
+      <c r="CH23">
+        <v>100</v>
+      </c>
+      <c r="CI23">
+        <v>100</v>
+      </c>
+      <c r="CJ23">
+        <v>100</v>
+      </c>
+      <c r="CK23">
+        <v>100</v>
+      </c>
+      <c r="CL23">
+        <v>100</v>
+      </c>
+      <c r="CM23">
+        <v>100</v>
+      </c>
+      <c r="CN23">
+        <v>100</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY23">
+        <v>800</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:105">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>6.5</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>12.5</v>
+      </c>
+      <c r="X24">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24">
+        <v>7</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+      <c r="AD24">
+        <v>25</v>
+      </c>
+      <c r="AE24">
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <v>23.5</v>
+      </c>
+      <c r="AG24">
+        <v>25</v>
+      </c>
+      <c r="AH24">
+        <v>7</v>
+      </c>
+      <c r="AI24">
+        <v>5</v>
+      </c>
+      <c r="AJ24">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>7</v>
+      </c>
+      <c r="AL24">
+        <v>7</v>
+      </c>
+      <c r="AM24">
+        <v>25</v>
+      </c>
+      <c r="AN24">
+        <v>7</v>
+      </c>
+      <c r="AO24">
+        <v>4</v>
+      </c>
+      <c r="AP24">
+        <v>25</v>
+      </c>
+      <c r="AQ24">
+        <v>7</v>
+      </c>
+      <c r="AR24">
+        <v>4.5</v>
+      </c>
+      <c r="AS24">
+        <v>25</v>
+      </c>
+      <c r="AT24">
+        <v>7</v>
+      </c>
+      <c r="AU24">
+        <v>11.5</v>
+      </c>
+      <c r="AV24">
+        <v>25</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>5.5</v>
+      </c>
+      <c r="AY24">
+        <v>25</v>
+      </c>
+      <c r="AZ24">
+        <v>7</v>
+      </c>
+      <c r="BA24">
+        <v>43</v>
+      </c>
+      <c r="BB24">
+        <v>100</v>
+      </c>
+      <c r="BC24">
+        <v>30</v>
+      </c>
+      <c r="BD24">
+        <v>68</v>
+      </c>
+      <c r="BE24">
+        <v>100</v>
+      </c>
+      <c r="BF24">
+        <v>30</v>
+      </c>
+      <c r="BG24">
+        <v>34</v>
+      </c>
+      <c r="BH24">
+        <v>100</v>
+      </c>
+      <c r="BI24">
+        <v>30</v>
+      </c>
+      <c r="BJ24">
+        <v>22</v>
+      </c>
+      <c r="BK24">
+        <v>100</v>
+      </c>
+      <c r="BL24">
+        <v>30</v>
+      </c>
+      <c r="BM24">
+        <v>21</v>
+      </c>
+      <c r="BN24">
+        <v>100</v>
+      </c>
+      <c r="BO24">
+        <v>30</v>
+      </c>
+      <c r="BP24">
+        <v>34</v>
+      </c>
+      <c r="BQ24">
+        <v>100</v>
+      </c>
+      <c r="BR24">
+        <v>30</v>
+      </c>
+      <c r="BS24">
+        <v>30</v>
+      </c>
+      <c r="BT24">
+        <v>100</v>
+      </c>
+      <c r="BU24">
+        <v>30</v>
+      </c>
+      <c r="BV24">
+        <v>46.5</v>
+      </c>
+      <c r="BW24">
+        <v>100</v>
+      </c>
+      <c r="BX24">
+        <v>30</v>
+      </c>
+      <c r="BY24">
+        <v>41.6</v>
+      </c>
+      <c r="BZ24">
+        <v>70.2</v>
+      </c>
+      <c r="CA24">
+        <v>32</v>
+      </c>
+      <c r="CB24">
+        <v>25.2</v>
+      </c>
+      <c r="CC24">
+        <v>21</v>
+      </c>
+      <c r="CD24">
+        <v>30.6</v>
+      </c>
+      <c r="CE24">
+        <v>33.6</v>
+      </c>
+      <c r="CF24">
+        <v>41.8</v>
+      </c>
+      <c r="CG24">
+        <v>100</v>
+      </c>
+      <c r="CH24">
+        <v>100</v>
+      </c>
+      <c r="CI24">
+        <v>100</v>
+      </c>
+      <c r="CJ24">
+        <v>100</v>
+      </c>
+      <c r="CK24">
+        <v>100</v>
+      </c>
+      <c r="CL24">
+        <v>100</v>
+      </c>
+      <c r="CM24">
+        <v>100</v>
+      </c>
+      <c r="CN24">
+        <v>100</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW24">
+        <v>296</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY24">
+        <v>800</v>
+      </c>
+      <c r="CZ24">
+        <v>37</v>
+      </c>
+      <c r="DA24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:105">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>13.5</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>19.5</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>25</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AD25">
+        <v>25</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>15.5</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>7</v>
+      </c>
+      <c r="AI25">
+        <v>8.5</v>
+      </c>
+      <c r="AJ25">
+        <v>25</v>
+      </c>
+      <c r="AK25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25">
+        <v>25</v>
+      </c>
+      <c r="AN25">
+        <v>7</v>
+      </c>
+      <c r="AO25">
+        <v>7.5</v>
+      </c>
+      <c r="AP25">
+        <v>25</v>
+      </c>
+      <c r="AQ25">
+        <v>7</v>
+      </c>
+      <c r="AR25">
+        <v>7</v>
+      </c>
+      <c r="AS25">
+        <v>25</v>
+      </c>
+      <c r="AT25">
+        <v>7</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>25</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>10</v>
+      </c>
+      <c r="AY25">
+        <v>25</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+      <c r="BA25">
+        <v>36</v>
+      </c>
+      <c r="BB25">
+        <v>100</v>
+      </c>
+      <c r="BC25">
+        <v>30</v>
+      </c>
+      <c r="BD25">
+        <v>46</v>
+      </c>
+      <c r="BE25">
+        <v>100</v>
+      </c>
+      <c r="BF25">
+        <v>30</v>
+      </c>
+      <c r="BG25">
+        <v>50</v>
+      </c>
+      <c r="BH25">
+        <v>100</v>
+      </c>
+      <c r="BI25">
+        <v>30</v>
+      </c>
+      <c r="BJ25">
+        <v>37</v>
+      </c>
+      <c r="BK25">
+        <v>100</v>
+      </c>
+      <c r="BL25">
+        <v>30</v>
+      </c>
+      <c r="BM25">
+        <v>40</v>
+      </c>
+      <c r="BN25">
+        <v>100</v>
+      </c>
+      <c r="BO25">
+        <v>30</v>
+      </c>
+      <c r="BP25">
+        <v>8</v>
+      </c>
+      <c r="BQ25">
+        <v>100</v>
+      </c>
+      <c r="BR25">
+        <v>30</v>
+      </c>
+      <c r="BS25">
+        <v>2</v>
+      </c>
+      <c r="BT25">
+        <v>100</v>
+      </c>
+      <c r="BU25">
+        <v>30</v>
+      </c>
+      <c r="BV25">
+        <v>48</v>
+      </c>
+      <c r="BW25">
+        <v>100</v>
+      </c>
+      <c r="BX25">
+        <v>30</v>
+      </c>
+      <c r="BY25">
+        <v>36.6</v>
+      </c>
+      <c r="BZ25">
+        <v>48.2</v>
+      </c>
+      <c r="CA25">
+        <v>46.2</v>
+      </c>
+      <c r="CB25">
+        <v>41.4</v>
+      </c>
+      <c r="CC25">
+        <v>35.8</v>
+      </c>
+      <c r="CD25">
+        <v>10.4</v>
+      </c>
+      <c r="CE25">
+        <v>3</v>
+      </c>
+      <c r="CF25">
+        <v>44</v>
+      </c>
+      <c r="CG25">
+        <v>100</v>
+      </c>
+      <c r="CH25">
+        <v>100</v>
+      </c>
+      <c r="CI25">
+        <v>100</v>
+      </c>
+      <c r="CJ25">
+        <v>100</v>
+      </c>
+      <c r="CK25">
+        <v>100</v>
+      </c>
+      <c r="CL25">
+        <v>100</v>
+      </c>
+      <c r="CM25">
+        <v>100</v>
+      </c>
+      <c r="CN25">
+        <v>100</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>132</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW25">
+        <v>265.6</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY25">
+        <v>800</v>
+      </c>
+      <c r="CZ25">
+        <v>33.2</v>
+      </c>
+      <c r="DA25">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Class_VII/Result.xlsx
+++ b/Class_VII/Result.xlsx
@@ -28,291 +28,291 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>FA-I_Social Science</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English I</t>
-  </si>
-  <si>
-    <t>FA-I_English I_total</t>
-  </si>
-  <si>
-    <t>FA-I_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi_total</t>
-  </si>
-  <si>
-    <t>FA-I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>FA-I_English II</t>
-  </si>
-  <si>
-    <t>FA-I_English II_total</t>
-  </si>
-  <si>
-    <t>FA-I_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Maths</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-I_Maths_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Science</t>
-  </si>
-  <si>
-    <t>FA-I_Science_total</t>
-  </si>
-  <si>
-    <t>FA-I_Science_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>FA-I_Computer</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-I_Computer_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Social Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English I</t>
-  </si>
-  <si>
-    <t>FA-II_English I_total</t>
-  </si>
-  <si>
-    <t>FA-II_English I_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi_total</t>
-  </si>
-  <si>
-    <t>FA-II_Hindi_pass</t>
-  </si>
-  <si>
-    <t>FA-II_English II</t>
-  </si>
-  <si>
-    <t>FA-II_English II_total</t>
-  </si>
-  <si>
-    <t>FA-II_English II_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Maths</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_total</t>
-  </si>
-  <si>
-    <t>FA-II_Maths_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Science</t>
-  </si>
-  <si>
-    <t>FA-II_Science_total</t>
-  </si>
-  <si>
-    <t>FA-II_Science_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_total</t>
-  </si>
-  <si>
-    <t>FA-II_Assamese_pass</t>
-  </si>
-  <si>
-    <t>FA-II_Computer</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_total</t>
-  </si>
-  <si>
-    <t>FA-II_Computer_pass</t>
-  </si>
-  <si>
-    <t>HY_Social Science</t>
-  </si>
-  <si>
-    <t>HY_Social Science_total</t>
-  </si>
-  <si>
-    <t>HY_Social Science_pass</t>
-  </si>
-  <si>
-    <t>HY_English I</t>
-  </si>
-  <si>
-    <t>HY_English I_total</t>
-  </si>
-  <si>
-    <t>HY_English I_pass</t>
-  </si>
-  <si>
-    <t>HY_Hindi</t>
-  </si>
-  <si>
-    <t>HY_Hindi_total</t>
-  </si>
-  <si>
-    <t>HY_Hindi_pass</t>
-  </si>
-  <si>
-    <t>HY_English II</t>
-  </si>
-  <si>
-    <t>HY_English II_total</t>
-  </si>
-  <si>
-    <t>HY_English II_pass</t>
-  </si>
-  <si>
-    <t>HY_Maths</t>
-  </si>
-  <si>
-    <t>HY_Maths_total</t>
-  </si>
-  <si>
-    <t>HY_Maths_pass</t>
-  </si>
-  <si>
-    <t>HY_Science</t>
-  </si>
-  <si>
-    <t>HY_Science_total</t>
-  </si>
-  <si>
-    <t>HY_Science_pass</t>
-  </si>
-  <si>
-    <t>HY_Assamese</t>
-  </si>
-  <si>
-    <t>HY_Assamese_total</t>
-  </si>
-  <si>
-    <t>HY_Assamese_pass</t>
-  </si>
-  <si>
-    <t>HY_Computer</t>
-  </si>
-  <si>
-    <t>HY_Computer_total</t>
-  </si>
-  <si>
-    <t>HY_Computer_pass</t>
+    <t>FA-III_English I</t>
+  </si>
+  <si>
+    <t>FA-III_English I_total</t>
+  </si>
+  <si>
+    <t>FA-III_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-III_English II</t>
+  </si>
+  <si>
+    <t>FA-III_English II_total</t>
+  </si>
+  <si>
+    <t>FA-III_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-III_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Hindi</t>
+  </si>
+  <si>
+    <t>FA-III_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-III_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Maths</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-III_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Science</t>
+  </si>
+  <si>
+    <t>FA-III_Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-III_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-III_Computer</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-III_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English I</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_English II</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_total</t>
+  </si>
+  <si>
+    <t>FA-IV_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Social Science_pass</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-IV_Computer_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English I_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_English II_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Assamese_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Hindi_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Maths_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Social Science_pass</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_total</t>
+  </si>
+  <si>
+    <t>ANNUAL_Computer_pass</t>
+  </si>
+  <si>
+    <t>Weightage English I</t>
+  </si>
+  <si>
+    <t>Weightage English II</t>
+  </si>
+  <si>
+    <t>Weightage Assamese</t>
+  </si>
+  <si>
+    <t>Weightage Hindi</t>
+  </si>
+  <si>
+    <t>Weightage Maths</t>
+  </si>
+  <si>
+    <t>Weightage Science</t>
   </si>
   <si>
     <t>Weightage Social Science</t>
   </si>
   <si>
-    <t>Weightage English I</t>
-  </si>
-  <si>
-    <t>Weightage Hindi</t>
-  </si>
-  <si>
-    <t>Weightage English II</t>
-  </si>
-  <si>
-    <t>Weightage Maths</t>
-  </si>
-  <si>
-    <t>Weightage Science</t>
-  </si>
-  <si>
-    <t>Weightage Assamese</t>
-  </si>
-  <si>
     <t>Weightage Computer</t>
   </si>
   <si>
+    <t>Weightage English I total</t>
+  </si>
+  <si>
+    <t>Weightage English II total</t>
+  </si>
+  <si>
+    <t>Weightage Assamese total</t>
+  </si>
+  <si>
+    <t>Weightage Hindi total</t>
+  </si>
+  <si>
+    <t>Weightage Maths total</t>
+  </si>
+  <si>
+    <t>Weightage Science total</t>
+  </si>
+  <si>
     <t>Weightage Social Science total</t>
   </si>
   <si>
-    <t>Weightage English I total</t>
-  </si>
-  <si>
-    <t>Weightage Hindi total</t>
-  </si>
-  <si>
-    <t>Weightage English II total</t>
-  </si>
-  <si>
-    <t>Weightage Maths total</t>
-  </si>
-  <si>
-    <t>Weightage Science total</t>
-  </si>
-  <si>
-    <t>Weightage Assamese total</t>
-  </si>
-  <si>
     <t>Weightage Computer total</t>
   </si>
   <si>
+    <t>Result English I</t>
+  </si>
+  <si>
+    <t>Result English II</t>
+  </si>
+  <si>
+    <t>Result Assamese</t>
+  </si>
+  <si>
+    <t>Result Hindi</t>
+  </si>
+  <si>
+    <t>Result Maths</t>
+  </si>
+  <si>
+    <t>Result Science</t>
+  </si>
+  <si>
     <t>Result Social Science</t>
   </si>
   <si>
-    <t>Result English I</t>
-  </si>
-  <si>
-    <t>Result Hindi</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Maths</t>
-  </si>
-  <si>
-    <t>Result Science</t>
-  </si>
-  <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
     <t>Result Computer</t>
   </si>
   <si>
@@ -391,10 +391,10 @@
     <t>Sumit Chetry</t>
   </si>
   <si>
+    <t>Jyotirmoy Sharma</t>
+  </si>
+  <si>
     <t>Rasmita Boro</t>
-  </si>
-  <si>
-    <t>Jyotirmoy Sharma</t>
   </si>
   <si>
     <t>Jayshree Deka</t>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -1116,134 +1116,134 @@
         <v>7</v>
       </c>
       <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
         <v>23</v>
       </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>22.5</v>
+      </c>
+      <c r="X2">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>13.5</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
+        <v>23</v>
+      </c>
+      <c r="AD2">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>17</v>
+      </c>
+      <c r="AG2">
+        <v>25</v>
+      </c>
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <v>22</v>
+      </c>
+      <c r="AJ2">
+        <v>25</v>
+      </c>
+      <c r="AK2">
+        <v>7</v>
+      </c>
+      <c r="AL2">
+        <v>23.5</v>
+      </c>
+      <c r="AM2">
+        <v>25</v>
+      </c>
+      <c r="AN2">
+        <v>7</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>25</v>
+      </c>
+      <c r="AQ2">
+        <v>7</v>
+      </c>
+      <c r="AR2">
+        <v>23.5</v>
+      </c>
+      <c r="AS2">
+        <v>25</v>
+      </c>
+      <c r="AT2">
+        <v>7</v>
+      </c>
+      <c r="AU2">
+        <v>23</v>
+      </c>
+      <c r="AV2">
+        <v>25</v>
+      </c>
+      <c r="AW2">
+        <v>7</v>
+      </c>
+      <c r="AX2">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
-        <v>23.5</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>19.5</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
-        <v>24</v>
-      </c>
-      <c r="U2">
-        <v>25</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>13</v>
-      </c>
-      <c r="X2">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
-      </c>
-      <c r="Z2">
-        <v>25</v>
-      </c>
-      <c r="AA2">
-        <v>25</v>
-      </c>
-      <c r="AB2">
-        <v>7</v>
-      </c>
-      <c r="AC2">
-        <v>22</v>
-      </c>
-      <c r="AD2">
-        <v>25</v>
-      </c>
-      <c r="AE2">
-        <v>7</v>
-      </c>
-      <c r="AF2">
-        <v>24</v>
-      </c>
-      <c r="AG2">
-        <v>25</v>
-      </c>
-      <c r="AH2">
-        <v>7</v>
-      </c>
-      <c r="AI2">
-        <v>23</v>
-      </c>
-      <c r="AJ2">
-        <v>25</v>
-      </c>
-      <c r="AK2">
-        <v>7</v>
-      </c>
-      <c r="AL2">
-        <v>19</v>
-      </c>
-      <c r="AM2">
-        <v>25</v>
-      </c>
-      <c r="AN2">
-        <v>7</v>
-      </c>
-      <c r="AO2">
-        <v>16</v>
-      </c>
-      <c r="AP2">
-        <v>25</v>
-      </c>
-      <c r="AQ2">
-        <v>7</v>
-      </c>
-      <c r="AR2">
-        <v>19.5</v>
-      </c>
-      <c r="AS2">
-        <v>25</v>
-      </c>
-      <c r="AT2">
-        <v>7</v>
-      </c>
-      <c r="AU2">
-        <v>18.5</v>
-      </c>
-      <c r="AV2">
-        <v>25</v>
-      </c>
-      <c r="AW2">
-        <v>7</v>
-      </c>
-      <c r="AX2">
-        <v>25</v>
-      </c>
       <c r="AY2">
         <v>25</v>
       </c>
@@ -1251,53 +1251,53 @@
         <v>7</v>
       </c>
       <c r="BA2">
+        <v>97</v>
+      </c>
+      <c r="BB2">
+        <v>100</v>
+      </c>
+      <c r="BC2">
+        <v>30</v>
+      </c>
+      <c r="BD2">
+        <v>92</v>
+      </c>
+      <c r="BE2">
+        <v>100</v>
+      </c>
+      <c r="BF2">
+        <v>30</v>
+      </c>
+      <c r="BG2">
+        <v>68.5</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2">
+        <v>30</v>
+      </c>
+      <c r="BJ2">
+        <v>94</v>
+      </c>
+      <c r="BK2">
+        <v>100</v>
+      </c>
+      <c r="BL2">
+        <v>30</v>
+      </c>
+      <c r="BM2">
+        <v>85</v>
+      </c>
+      <c r="BN2">
+        <v>100</v>
+      </c>
+      <c r="BO2">
+        <v>30</v>
+      </c>
+      <c r="BP2">
         <v>86</v>
       </c>
-      <c r="BB2">
-        <v>100</v>
-      </c>
-      <c r="BC2">
-        <v>30</v>
-      </c>
-      <c r="BD2">
-        <v>94</v>
-      </c>
-      <c r="BE2">
-        <v>100</v>
-      </c>
-      <c r="BF2">
-        <v>30</v>
-      </c>
-      <c r="BG2">
-        <v>90.5</v>
-      </c>
-      <c r="BH2">
-        <v>100</v>
-      </c>
-      <c r="BI2">
-        <v>30</v>
-      </c>
-      <c r="BJ2">
-        <v>82</v>
-      </c>
-      <c r="BK2">
-        <v>100</v>
-      </c>
-      <c r="BL2">
-        <v>30</v>
-      </c>
-      <c r="BM2">
-        <v>86</v>
-      </c>
-      <c r="BN2">
-        <v>100</v>
-      </c>
-      <c r="BO2">
-        <v>30</v>
-      </c>
-      <c r="BP2">
-        <v>81</v>
-      </c>
       <c r="BQ2">
         <v>100</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="BS2">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="BT2">
         <v>100</v>
@@ -1314,7 +1314,7 @@
         <v>30</v>
       </c>
       <c r="BV2">
-        <v>93.5</v>
+        <v>93</v>
       </c>
       <c r="BW2">
         <v>100</v>
@@ -1323,28 +1323,28 @@
         <v>30</v>
       </c>
       <c r="BY2">
-        <v>87.2</v>
+        <v>94.8</v>
       </c>
       <c r="BZ2">
-        <v>94</v>
+        <v>89.2</v>
       </c>
       <c r="CA2">
-        <v>89.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="CB2">
-        <v>82.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="CC2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CD2">
-        <v>82.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="CE2">
-        <v>62.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="CF2">
-        <v>94.8</v>
+        <v>87.8</v>
       </c>
       <c r="CG2">
         <v>100</v>
@@ -1395,7 +1395,7 @@
         <v>131</v>
       </c>
       <c r="CW2">
-        <v>675.6</v>
+        <v>701</v>
       </c>
       <c r="CX2" t="s">
         <v>131</v>
@@ -1404,7 +1404,7 @@
         <v>800</v>
       </c>
       <c r="CZ2">
-        <v>84.45</v>
+        <v>87.625</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>25</v>
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="O3">
         <v>25</v>
@@ -1460,107 +1460,107 @@
         <v>7</v>
       </c>
       <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>14</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
         <v>10</v>
       </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
+      <c r="AA3">
+        <v>25</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>24</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>13</v>
+      </c>
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>25</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
+        <v>25</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>25</v>
+      </c>
+      <c r="AQ3">
+        <v>7</v>
+      </c>
+      <c r="AR3">
+        <v>19.5</v>
+      </c>
+      <c r="AS3">
+        <v>25</v>
+      </c>
+      <c r="AT3">
+        <v>7</v>
+      </c>
+      <c r="AU3">
+        <v>10</v>
+      </c>
+      <c r="AV3">
+        <v>25</v>
+      </c>
+      <c r="AW3">
+        <v>7</v>
+      </c>
+      <c r="AX3">
         <v>15.5</v>
       </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
-        <v>20</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3">
-        <v>21</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>16.5</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>21</v>
-      </c>
-      <c r="AG3">
-        <v>25</v>
-      </c>
-      <c r="AH3">
-        <v>7</v>
-      </c>
-      <c r="AI3">
-        <v>11</v>
-      </c>
-      <c r="AJ3">
-        <v>25</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>18</v>
-      </c>
-      <c r="AM3">
-        <v>25</v>
-      </c>
-      <c r="AN3">
-        <v>7</v>
-      </c>
-      <c r="AO3">
-        <v>16.5</v>
-      </c>
-      <c r="AP3">
-        <v>25</v>
-      </c>
-      <c r="AQ3">
-        <v>7</v>
-      </c>
-      <c r="AR3">
-        <v>3.5</v>
-      </c>
-      <c r="AS3">
-        <v>25</v>
-      </c>
-      <c r="AT3">
-        <v>7</v>
-      </c>
-      <c r="AU3">
-        <v>12</v>
-      </c>
-      <c r="AV3">
-        <v>25</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
-      </c>
-      <c r="AX3">
-        <v>22.5</v>
-      </c>
       <c r="AY3">
         <v>25</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="BA3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="BB3">
         <v>100</v>
@@ -1577,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="BD3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="BE3">
         <v>100</v>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="BG3">
-        <v>58</v>
+        <v>40.5</v>
       </c>
       <c r="BH3">
         <v>100</v>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="BJ3">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="BK3">
         <v>100</v>
@@ -1604,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="BM3">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="BN3">
         <v>100</v>
@@ -1613,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="BP3">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="BQ3">
         <v>100</v>
@@ -1622,46 +1622,46 @@
         <v>30</v>
       </c>
       <c r="BS3">
+        <v>75</v>
+      </c>
+      <c r="BT3">
+        <v>100</v>
+      </c>
+      <c r="BU3">
+        <v>30</v>
+      </c>
+      <c r="BV3">
+        <v>88</v>
+      </c>
+      <c r="BW3">
+        <v>100</v>
+      </c>
+      <c r="BX3">
+        <v>30</v>
+      </c>
+      <c r="BY3">
+        <v>79</v>
+      </c>
+      <c r="BZ3">
+        <v>77.2</v>
+      </c>
+      <c r="CA3">
+        <v>42.4</v>
+      </c>
+      <c r="CB3">
         <v>55</v>
       </c>
-      <c r="BT3">
-        <v>100</v>
-      </c>
-      <c r="BU3">
-        <v>30</v>
-      </c>
-      <c r="BV3">
-        <v>87</v>
-      </c>
-      <c r="BW3">
-        <v>100</v>
-      </c>
-      <c r="BX3">
-        <v>30</v>
-      </c>
-      <c r="BY3">
-        <v>61.6</v>
-      </c>
-      <c r="BZ3">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="CA3">
-        <v>57.2</v>
-      </c>
-      <c r="CB3">
-        <v>85.2</v>
-      </c>
       <c r="CC3">
-        <v>58.6</v>
+        <v>44</v>
       </c>
       <c r="CD3">
-        <v>45.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="CE3">
-        <v>56.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="CF3">
-        <v>87</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="CG3">
         <v>100</v>
@@ -1712,7 +1712,7 @@
         <v>131</v>
       </c>
       <c r="CW3">
-        <v>524</v>
+        <v>513.2</v>
       </c>
       <c r="CX3" t="s">
         <v>131</v>
@@ -1721,10 +1721,10 @@
         <v>800</v>
       </c>
       <c r="CZ3">
-        <v>65.5</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="DA3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -1768,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="O4">
         <v>25</v>
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="R4">
         <v>25</v>
@@ -1795,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>19.5</v>
       </c>
       <c r="X4">
         <v>25</v>
@@ -1804,26 +1804,26 @@
         <v>7</v>
       </c>
       <c r="Z4">
+        <v>15</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>24</v>
+      </c>
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
+      <c r="AF4">
         <v>16</v>
       </c>
-      <c r="AA4">
-        <v>25</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>13</v>
-      </c>
-      <c r="AD4">
-        <v>25</v>
-      </c>
-      <c r="AE4">
-        <v>7</v>
-      </c>
-      <c r="AF4">
-        <v>24</v>
-      </c>
       <c r="AG4">
         <v>25</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AJ4">
         <v>25</v>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="AL4">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AM4">
         <v>25</v>
@@ -1849,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>25</v>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="AR4">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AS4">
         <v>25</v>
@@ -1867,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="AU4">
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="AV4">
         <v>25</v>
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="AX4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY4">
         <v>25</v>
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="BA4">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="BB4">
         <v>100</v>
@@ -1894,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="BD4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BE4">
         <v>100</v>
@@ -1903,7 +1903,7 @@
         <v>30</v>
       </c>
       <c r="BG4">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BH4">
         <v>100</v>
@@ -1912,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="BJ4">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BK4">
         <v>100</v>
@@ -1921,7 +1921,7 @@
         <v>30</v>
       </c>
       <c r="BM4">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="BN4">
         <v>100</v>
@@ -1930,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="BP4">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="BQ4">
         <v>100</v>
@@ -1939,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="BS4">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="BT4">
         <v>100</v>
@@ -1948,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="BV4">
-        <v>71.5</v>
+        <v>70</v>
       </c>
       <c r="BW4">
         <v>100</v>
@@ -1957,28 +1957,28 @@
         <v>30</v>
       </c>
       <c r="BY4">
-        <v>68.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="BZ4">
-        <v>74.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="CA4">
-        <v>50.4</v>
+        <v>34.8</v>
       </c>
       <c r="CB4">
-        <v>48.8</v>
+        <v>61.6</v>
       </c>
       <c r="CC4">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="CD4">
-        <v>63.2</v>
+        <v>74.2</v>
       </c>
       <c r="CE4">
-        <v>29.6</v>
+        <v>83.2</v>
       </c>
       <c r="CF4">
-        <v>69.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="CG4">
         <v>100</v>
@@ -2023,13 +2023,13 @@
         <v>131</v>
       </c>
       <c r="CU4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV4" t="s">
         <v>131</v>
       </c>
       <c r="CW4">
-        <v>463.4</v>
+        <v>538.1999999999999</v>
       </c>
       <c r="CX4" t="s">
         <v>131</v>
@@ -2038,10 +2038,10 @@
         <v>800</v>
       </c>
       <c r="CZ4">
-        <v>57.92499999999999</v>
+        <v>67.27499999999999</v>
       </c>
       <c r="DA4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -2076,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>25</v>
@@ -2085,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>13.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
         <v>25</v>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R5">
         <v>25</v>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="U5">
         <v>25</v>
@@ -2112,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>25</v>
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AD5">
         <v>25</v>
@@ -2139,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="AF5">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AG5">
         <v>25</v>
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="AI5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>25</v>
@@ -2157,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AM5">
         <v>25</v>
@@ -2166,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>25</v>
@@ -2175,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="AR5">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="AS5">
         <v>25</v>
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="AU5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>25</v>
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="AX5">
-        <v>1.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY5">
         <v>25</v>
@@ -2202,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="BA5">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="BB5">
         <v>100</v>
@@ -2211,91 +2211,91 @@
         <v>30</v>
       </c>
       <c r="BD5">
+        <v>32</v>
+      </c>
+      <c r="BE5">
+        <v>100</v>
+      </c>
+      <c r="BF5">
+        <v>30</v>
+      </c>
+      <c r="BG5">
+        <v>32.5</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>30</v>
+      </c>
+      <c r="BJ5">
+        <v>26</v>
+      </c>
+      <c r="BK5">
+        <v>100</v>
+      </c>
+      <c r="BL5">
+        <v>30</v>
+      </c>
+      <c r="BM5">
+        <v>41</v>
+      </c>
+      <c r="BN5">
+        <v>100</v>
+      </c>
+      <c r="BO5">
+        <v>30</v>
+      </c>
+      <c r="BP5">
+        <v>47</v>
+      </c>
+      <c r="BQ5">
+        <v>100</v>
+      </c>
+      <c r="BR5">
+        <v>30</v>
+      </c>
+      <c r="BS5">
+        <v>38</v>
+      </c>
+      <c r="BT5">
+        <v>100</v>
+      </c>
+      <c r="BU5">
+        <v>30</v>
+      </c>
+      <c r="BV5">
+        <v>55</v>
+      </c>
+      <c r="BW5">
+        <v>100</v>
+      </c>
+      <c r="BX5">
+        <v>30</v>
+      </c>
+      <c r="BY5">
+        <v>57.6</v>
+      </c>
+      <c r="BZ5">
+        <v>30.4</v>
+      </c>
+      <c r="CA5">
+        <v>26.4</v>
+      </c>
+      <c r="CB5">
         <v>23</v>
       </c>
-      <c r="BE5">
-        <v>100</v>
-      </c>
-      <c r="BF5">
-        <v>30</v>
-      </c>
-      <c r="BG5">
-        <v>36</v>
-      </c>
-      <c r="BH5">
-        <v>100</v>
-      </c>
-      <c r="BI5">
-        <v>30</v>
-      </c>
-      <c r="BJ5">
-        <v>20</v>
-      </c>
-      <c r="BK5">
-        <v>100</v>
-      </c>
-      <c r="BL5">
-        <v>30</v>
-      </c>
-      <c r="BM5">
-        <v>60</v>
-      </c>
-      <c r="BN5">
-        <v>100</v>
-      </c>
-      <c r="BO5">
-        <v>30</v>
-      </c>
-      <c r="BP5">
-        <v>25</v>
-      </c>
-      <c r="BQ5">
-        <v>100</v>
-      </c>
-      <c r="BR5">
-        <v>30</v>
-      </c>
-      <c r="BS5">
-        <v>30</v>
-      </c>
-      <c r="BT5">
-        <v>100</v>
-      </c>
-      <c r="BU5">
-        <v>30</v>
-      </c>
-      <c r="BV5">
-        <v>37</v>
-      </c>
-      <c r="BW5">
-        <v>100</v>
-      </c>
-      <c r="BX5">
-        <v>30</v>
-      </c>
-      <c r="BY5">
-        <v>16.6</v>
-      </c>
-      <c r="BZ5">
-        <v>27.6</v>
-      </c>
-      <c r="CA5">
-        <v>34</v>
-      </c>
-      <c r="CB5">
-        <v>24.2</v>
-      </c>
       <c r="CC5">
-        <v>56.8</v>
+        <v>41</v>
       </c>
       <c r="CD5">
-        <v>21.8</v>
+        <v>42.4</v>
       </c>
       <c r="CE5">
-        <v>25.6</v>
+        <v>32</v>
       </c>
       <c r="CF5">
-        <v>32.2</v>
+        <v>50.6</v>
       </c>
       <c r="CG5">
         <v>100</v>
@@ -2322,13 +2322,13 @@
         <v>100</v>
       </c>
       <c r="CO5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>132</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>132</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>131</v>
       </c>
       <c r="CR5" t="s">
         <v>132</v>
@@ -2337,28 +2337,28 @@
         <v>131</v>
       </c>
       <c r="CT5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV5" t="s">
         <v>131</v>
       </c>
       <c r="CW5">
-        <v>238.8</v>
+        <v>303.4</v>
       </c>
       <c r="CX5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CY5">
         <v>800</v>
       </c>
       <c r="CZ5">
-        <v>29.85</v>
+        <v>37.925</v>
       </c>
       <c r="DA5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -2384,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -2393,125 +2393,125 @@
         <v>7</v>
       </c>
       <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
         <v>8.5</v>
       </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>15.5</v>
-      </c>
-      <c r="O6">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>18.5</v>
-      </c>
-      <c r="R6">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>25</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>25</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>21</v>
+      </c>
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>15</v>
+      </c>
+      <c r="AG6">
+        <v>25</v>
+      </c>
+      <c r="AH6">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>14</v>
+      </c>
+      <c r="AJ6">
+        <v>25</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
+        <v>7.5</v>
+      </c>
+      <c r="AM6">
+        <v>25</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>25</v>
+      </c>
+      <c r="AQ6">
+        <v>7</v>
+      </c>
+      <c r="AR6">
+        <v>17</v>
+      </c>
+      <c r="AS6">
+        <v>25</v>
+      </c>
+      <c r="AT6">
+        <v>7</v>
+      </c>
+      <c r="AU6">
+        <v>10.5</v>
+      </c>
+      <c r="AV6">
+        <v>25</v>
+      </c>
+      <c r="AW6">
+        <v>7</v>
+      </c>
+      <c r="AX6">
         <v>9</v>
       </c>
-      <c r="U6">
-        <v>25</v>
-      </c>
-      <c r="V6">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>6.5</v>
-      </c>
-      <c r="X6">
-        <v>25</v>
-      </c>
-      <c r="Y6">
-        <v>7</v>
-      </c>
-      <c r="Z6">
-        <v>9</v>
-      </c>
-      <c r="AA6">
-        <v>25</v>
-      </c>
-      <c r="AB6">
-        <v>7</v>
-      </c>
-      <c r="AC6">
-        <v>18.5</v>
-      </c>
-      <c r="AD6">
-        <v>25</v>
-      </c>
-      <c r="AE6">
-        <v>7</v>
-      </c>
-      <c r="AF6">
-        <v>22.5</v>
-      </c>
-      <c r="AG6">
-        <v>25</v>
-      </c>
-      <c r="AH6">
-        <v>7</v>
-      </c>
-      <c r="AI6">
-        <v>10.5</v>
-      </c>
-      <c r="AJ6">
-        <v>25</v>
-      </c>
-      <c r="AK6">
-        <v>7</v>
-      </c>
-      <c r="AL6">
-        <v>12</v>
-      </c>
-      <c r="AM6">
-        <v>25</v>
-      </c>
-      <c r="AN6">
-        <v>7</v>
-      </c>
-      <c r="AO6">
-        <v>12</v>
-      </c>
-      <c r="AP6">
-        <v>25</v>
-      </c>
-      <c r="AQ6">
-        <v>7</v>
-      </c>
-      <c r="AR6">
-        <v>4</v>
-      </c>
-      <c r="AS6">
-        <v>25</v>
-      </c>
-      <c r="AT6">
-        <v>7</v>
-      </c>
-      <c r="AU6">
-        <v>15.5</v>
-      </c>
-      <c r="AV6">
-        <v>25</v>
-      </c>
-      <c r="AW6">
-        <v>7</v>
-      </c>
-      <c r="AX6">
-        <v>5.5</v>
-      </c>
       <c r="AY6">
         <v>25</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="BA6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BB6">
         <v>100</v>
@@ -2528,91 +2528,91 @@
         <v>30</v>
       </c>
       <c r="BD6">
+        <v>64</v>
+      </c>
+      <c r="BE6">
+        <v>100</v>
+      </c>
+      <c r="BF6">
+        <v>30</v>
+      </c>
+      <c r="BG6">
+        <v>33</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+      <c r="BI6">
+        <v>30</v>
+      </c>
+      <c r="BJ6">
+        <v>68</v>
+      </c>
+      <c r="BK6">
+        <v>100</v>
+      </c>
+      <c r="BL6">
+        <v>30</v>
+      </c>
+      <c r="BM6">
+        <v>40</v>
+      </c>
+      <c r="BN6">
+        <v>100</v>
+      </c>
+      <c r="BO6">
+        <v>30</v>
+      </c>
+      <c r="BP6">
+        <v>66</v>
+      </c>
+      <c r="BQ6">
+        <v>100</v>
+      </c>
+      <c r="BR6">
+        <v>30</v>
+      </c>
+      <c r="BS6">
+        <v>79</v>
+      </c>
+      <c r="BT6">
+        <v>100</v>
+      </c>
+      <c r="BU6">
+        <v>30</v>
+      </c>
+      <c r="BV6">
+        <v>60.5</v>
+      </c>
+      <c r="BW6">
+        <v>100</v>
+      </c>
+      <c r="BX6">
+        <v>30</v>
+      </c>
+      <c r="BY6">
         <v>72</v>
       </c>
-      <c r="BE6">
-        <v>100</v>
-      </c>
-      <c r="BF6">
-        <v>30</v>
-      </c>
-      <c r="BG6">
-        <v>57.5</v>
-      </c>
-      <c r="BH6">
-        <v>100</v>
-      </c>
-      <c r="BI6">
-        <v>30</v>
-      </c>
-      <c r="BJ6">
-        <v>67</v>
-      </c>
-      <c r="BK6">
-        <v>100</v>
-      </c>
-      <c r="BL6">
-        <v>30</v>
-      </c>
-      <c r="BM6">
-        <v>59</v>
-      </c>
-      <c r="BN6">
-        <v>100</v>
-      </c>
-      <c r="BO6">
-        <v>30</v>
-      </c>
-      <c r="BP6">
-        <v>48</v>
-      </c>
-      <c r="BQ6">
-        <v>100</v>
-      </c>
-      <c r="BR6">
-        <v>30</v>
-      </c>
-      <c r="BS6">
-        <v>41</v>
-      </c>
-      <c r="BT6">
-        <v>100</v>
-      </c>
-      <c r="BU6">
-        <v>30</v>
-      </c>
-      <c r="BV6">
-        <v>55</v>
-      </c>
-      <c r="BW6">
-        <v>100</v>
-      </c>
-      <c r="BX6">
-        <v>30</v>
-      </c>
-      <c r="BY6">
-        <v>70.59999999999999</v>
-      </c>
       <c r="BZ6">
-        <v>74.40000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="CA6">
-        <v>53.6</v>
+        <v>34.4</v>
       </c>
       <c r="CB6">
-        <v>64.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="CC6">
-        <v>59.4</v>
+        <v>40</v>
       </c>
       <c r="CD6">
-        <v>43.6</v>
+        <v>63</v>
       </c>
       <c r="CE6">
-        <v>41.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="CF6">
-        <v>49.8</v>
+        <v>55.2</v>
       </c>
       <c r="CG6">
         <v>100</v>
@@ -2663,7 +2663,7 @@
         <v>131</v>
       </c>
       <c r="CW6">
-        <v>457.6</v>
+        <v>463.8</v>
       </c>
       <c r="CX6" t="s">
         <v>131</v>
@@ -2672,10 +2672,10 @@
         <v>800</v>
       </c>
       <c r="CZ6">
-        <v>57.2</v>
+        <v>57.975</v>
       </c>
       <c r="DA6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -2692,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>25</v>
@@ -2701,7 +2701,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -2710,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>25</v>
@@ -2719,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <v>25</v>
@@ -2728,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2737,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="T7">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="U7">
         <v>25</v>
@@ -2746,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="X7">
         <v>25</v>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA7">
         <v>25</v>
@@ -2764,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="AC7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AD7">
         <v>25</v>
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="AF7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG7">
         <v>25</v>
@@ -2782,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="AI7">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7">
         <v>25</v>
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="AL7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM7">
         <v>25</v>
@@ -2800,7 +2800,7 @@
         <v>7</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>25</v>
@@ -2809,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AS7">
         <v>25</v>
@@ -2818,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="AU7">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV7">
         <v>25</v>
@@ -2827,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="AX7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY7">
         <v>25</v>
@@ -2836,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="BA7">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="BB7">
         <v>100</v>
@@ -2845,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="BD7">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="BE7">
         <v>100</v>
@@ -2854,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="BG7">
-        <v>60.5</v>
+        <v>39</v>
       </c>
       <c r="BH7">
         <v>100</v>
@@ -2863,35 +2863,35 @@
         <v>30</v>
       </c>
       <c r="BJ7">
+        <v>52.5</v>
+      </c>
+      <c r="BK7">
+        <v>100</v>
+      </c>
+      <c r="BL7">
+        <v>30</v>
+      </c>
+      <c r="BM7">
+        <v>38</v>
+      </c>
+      <c r="BN7">
+        <v>100</v>
+      </c>
+      <c r="BO7">
+        <v>30</v>
+      </c>
+      <c r="BP7">
+        <v>54</v>
+      </c>
+      <c r="BQ7">
+        <v>100</v>
+      </c>
+      <c r="BR7">
+        <v>30</v>
+      </c>
+      <c r="BS7">
         <v>52</v>
       </c>
-      <c r="BK7">
-        <v>100</v>
-      </c>
-      <c r="BL7">
-        <v>30</v>
-      </c>
-      <c r="BM7">
-        <v>30</v>
-      </c>
-      <c r="BN7">
-        <v>100</v>
-      </c>
-      <c r="BO7">
-        <v>30</v>
-      </c>
-      <c r="BP7">
-        <v>32</v>
-      </c>
-      <c r="BQ7">
-        <v>100</v>
-      </c>
-      <c r="BR7">
-        <v>30</v>
-      </c>
-      <c r="BS7">
-        <v>43</v>
-      </c>
       <c r="BT7">
         <v>100</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>30</v>
       </c>
       <c r="BV7">
-        <v>40.5</v>
+        <v>54</v>
       </c>
       <c r="BW7">
         <v>100</v>
@@ -2908,28 +2908,28 @@
         <v>30</v>
       </c>
       <c r="BY7">
-        <v>42</v>
+        <v>67.2</v>
       </c>
       <c r="BZ7">
-        <v>68.59999999999999</v>
+        <v>46.4</v>
       </c>
       <c r="CA7">
-        <v>59.2</v>
+        <v>38.6</v>
       </c>
       <c r="CB7">
-        <v>50.2</v>
+        <v>48.8</v>
       </c>
       <c r="CC7">
-        <v>27.8</v>
+        <v>38</v>
       </c>
       <c r="CD7">
-        <v>28.2</v>
+        <v>54</v>
       </c>
       <c r="CE7">
-        <v>43.4</v>
+        <v>47.4</v>
       </c>
       <c r="CF7">
-        <v>34.8</v>
+        <v>47.4</v>
       </c>
       <c r="CG7">
         <v>100</v>
@@ -2968,10 +2968,10 @@
         <v>131</v>
       </c>
       <c r="CS7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU7" t="s">
         <v>131</v>
@@ -2980,7 +2980,7 @@
         <v>131</v>
       </c>
       <c r="CW7">
-        <v>354.2</v>
+        <v>387.8</v>
       </c>
       <c r="CX7" t="s">
         <v>131</v>
@@ -2989,10 +2989,10 @@
         <v>800</v>
       </c>
       <c r="CZ7">
-        <v>44.275</v>
+        <v>48.47499999999999</v>
       </c>
       <c r="DA7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -3009,170 +3009,170 @@
         <v>7</v>
       </c>
       <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>17.5</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>11.5</v>
+      </c>
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>10.5</v>
+      </c>
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>23</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>14</v>
+      </c>
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+      <c r="AJ8">
+        <v>25</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
+        <v>14.5</v>
+      </c>
+      <c r="AM8">
+        <v>25</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>25</v>
+      </c>
+      <c r="AQ8">
+        <v>7</v>
+      </c>
+      <c r="AR8">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>19.5</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>20.5</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>1.5</v>
-      </c>
-      <c r="R8">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>12.5</v>
-      </c>
-      <c r="U8">
-        <v>25</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
-      <c r="X8">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-      <c r="Z8">
+      <c r="AS8">
+        <v>25</v>
+      </c>
+      <c r="AT8">
+        <v>7</v>
+      </c>
+      <c r="AU8">
+        <v>8</v>
+      </c>
+      <c r="AV8">
+        <v>25</v>
+      </c>
+      <c r="AW8">
+        <v>7</v>
+      </c>
+      <c r="AX8">
         <v>10.5</v>
       </c>
-      <c r="AA8">
-        <v>25</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>11</v>
-      </c>
-      <c r="AD8">
-        <v>25</v>
-      </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-      <c r="AF8">
+      <c r="AY8">
+        <v>25</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>82</v>
+      </c>
+      <c r="BB8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>30</v>
+      </c>
+      <c r="BD8">
+        <v>60</v>
+      </c>
+      <c r="BE8">
+        <v>100</v>
+      </c>
+      <c r="BF8">
+        <v>30</v>
+      </c>
+      <c r="BG8">
         <v>23</v>
       </c>
-      <c r="AG8">
-        <v>25</v>
-      </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>13</v>
-      </c>
-      <c r="AJ8">
-        <v>25</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>11</v>
-      </c>
-      <c r="AM8">
-        <v>25</v>
-      </c>
-      <c r="AN8">
-        <v>7</v>
-      </c>
-      <c r="AO8">
-        <v>7</v>
-      </c>
-      <c r="AP8">
-        <v>25</v>
-      </c>
-      <c r="AQ8">
-        <v>7</v>
-      </c>
-      <c r="AR8">
-        <v>4</v>
-      </c>
-      <c r="AS8">
-        <v>25</v>
-      </c>
-      <c r="AT8">
-        <v>7</v>
-      </c>
-      <c r="AU8">
-        <v>4</v>
-      </c>
-      <c r="AV8">
-        <v>25</v>
-      </c>
-      <c r="AW8">
-        <v>7</v>
-      </c>
-      <c r="AX8">
-        <v>7.5</v>
-      </c>
-      <c r="AY8">
-        <v>25</v>
-      </c>
-      <c r="AZ8">
-        <v>7</v>
-      </c>
-      <c r="BA8">
-        <v>47</v>
-      </c>
-      <c r="BB8">
-        <v>100</v>
-      </c>
-      <c r="BC8">
-        <v>30</v>
-      </c>
-      <c r="BD8">
-        <v>65</v>
-      </c>
-      <c r="BE8">
-        <v>100</v>
-      </c>
-      <c r="BF8">
-        <v>30</v>
-      </c>
-      <c r="BG8">
-        <v>63</v>
-      </c>
       <c r="BH8">
         <v>100</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>30</v>
       </c>
       <c r="BJ8">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BK8">
         <v>100</v>
@@ -3189,7 +3189,7 @@
         <v>30</v>
       </c>
       <c r="BM8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="BN8">
         <v>100</v>
@@ -3198,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="BP8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BQ8">
         <v>100</v>
@@ -3207,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="BS8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="BT8">
         <v>100</v>
@@ -3216,7 +3216,7 @@
         <v>30</v>
       </c>
       <c r="BV8">
-        <v>37.5</v>
+        <v>78.5</v>
       </c>
       <c r="BW8">
         <v>100</v>
@@ -3225,29 +3225,29 @@
         <v>30</v>
       </c>
       <c r="BY8">
-        <v>46.8</v>
+        <v>81.2</v>
       </c>
       <c r="BZ8">
+        <v>60</v>
+      </c>
+      <c r="CA8">
+        <v>20.6</v>
+      </c>
+      <c r="CB8">
+        <v>60.8</v>
+      </c>
+      <c r="CC8">
+        <v>49</v>
+      </c>
+      <c r="CD8">
+        <v>55.8</v>
+      </c>
+      <c r="CE8">
+        <v>64.2</v>
+      </c>
+      <c r="CF8">
         <v>69</v>
       </c>
-      <c r="CA8">
-        <v>62</v>
-      </c>
-      <c r="CB8">
-        <v>71</v>
-      </c>
-      <c r="CC8">
-        <v>26.6</v>
-      </c>
-      <c r="CD8">
-        <v>48.2</v>
-      </c>
-      <c r="CE8">
-        <v>18.4</v>
-      </c>
-      <c r="CF8">
-        <v>37.2</v>
-      </c>
       <c r="CG8">
         <v>100</v>
       </c>
@@ -3279,25 +3279,25 @@
         <v>131</v>
       </c>
       <c r="CQ8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR8" t="s">
         <v>131</v>
       </c>
       <c r="CS8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT8" t="s">
         <v>131</v>
       </c>
       <c r="CU8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV8" t="s">
         <v>131</v>
       </c>
       <c r="CW8">
-        <v>379.2</v>
+        <v>460.6</v>
       </c>
       <c r="CX8" t="s">
         <v>131</v>
@@ -3306,10 +3306,10 @@
         <v>800</v>
       </c>
       <c r="CZ8">
-        <v>47.4</v>
+        <v>57.575</v>
       </c>
       <c r="DA8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -3335,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>25</v>
@@ -3344,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>25</v>
@@ -3353,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="O9">
         <v>25</v>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -3371,62 +3371,62 @@
         <v>7</v>
       </c>
       <c r="T9">
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>25</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>12</v>
+      </c>
+      <c r="AG9">
+        <v>25</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>11</v>
+      </c>
+      <c r="AJ9">
+        <v>25</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
         <v>11.5</v>
       </c>
-      <c r="U9">
-        <v>25</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
-      </c>
-      <c r="W9">
-        <v>9</v>
-      </c>
-      <c r="X9">
-        <v>25</v>
-      </c>
-      <c r="Y9">
-        <v>7</v>
-      </c>
-      <c r="Z9">
-        <v>8</v>
-      </c>
-      <c r="AA9">
-        <v>25</v>
-      </c>
-      <c r="AB9">
-        <v>7</v>
-      </c>
-      <c r="AC9">
-        <v>12.5</v>
-      </c>
-      <c r="AD9">
-        <v>25</v>
-      </c>
-      <c r="AE9">
-        <v>7</v>
-      </c>
-      <c r="AF9">
-        <v>18</v>
-      </c>
-      <c r="AG9">
-        <v>25</v>
-      </c>
-      <c r="AH9">
-        <v>7</v>
-      </c>
-      <c r="AI9">
-        <v>12</v>
-      </c>
-      <c r="AJ9">
-        <v>25</v>
-      </c>
-      <c r="AK9">
-        <v>7</v>
-      </c>
-      <c r="AL9">
-        <v>10</v>
-      </c>
       <c r="AM9">
         <v>25</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>25</v>
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="AR9">
-        <v>4</v>
+        <v>21.5</v>
       </c>
       <c r="AS9">
         <v>25</v>
@@ -3452,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="AU9">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="AV9">
         <v>25</v>
@@ -3470,7 +3470,7 @@
         <v>7</v>
       </c>
       <c r="BA9">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="BB9">
         <v>100</v>
@@ -3479,7 +3479,7 @@
         <v>30</v>
       </c>
       <c r="BD9">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="BE9">
         <v>100</v>
@@ -3488,82 +3488,82 @@
         <v>30</v>
       </c>
       <c r="BG9">
+        <v>30</v>
+      </c>
+      <c r="BH9">
+        <v>100</v>
+      </c>
+      <c r="BI9">
+        <v>30</v>
+      </c>
+      <c r="BJ9">
+        <v>48</v>
+      </c>
+      <c r="BK9">
+        <v>100</v>
+      </c>
+      <c r="BL9">
+        <v>30</v>
+      </c>
+      <c r="BM9">
+        <v>32</v>
+      </c>
+      <c r="BN9">
+        <v>100</v>
+      </c>
+      <c r="BO9">
+        <v>30</v>
+      </c>
+      <c r="BP9">
+        <v>52</v>
+      </c>
+      <c r="BQ9">
+        <v>100</v>
+      </c>
+      <c r="BR9">
+        <v>30</v>
+      </c>
+      <c r="BS9">
+        <v>59</v>
+      </c>
+      <c r="BT9">
+        <v>100</v>
+      </c>
+      <c r="BU9">
+        <v>30</v>
+      </c>
+      <c r="BV9">
+        <v>65.5</v>
+      </c>
+      <c r="BW9">
+        <v>100</v>
+      </c>
+      <c r="BX9">
+        <v>30</v>
+      </c>
+      <c r="BY9">
+        <v>80.8</v>
+      </c>
+      <c r="BZ9">
         <v>60</v>
       </c>
-      <c r="BH9">
-        <v>100</v>
-      </c>
-      <c r="BI9">
-        <v>30</v>
-      </c>
-      <c r="BJ9">
-        <v>45</v>
-      </c>
-      <c r="BK9">
-        <v>100</v>
-      </c>
-      <c r="BL9">
-        <v>30</v>
-      </c>
-      <c r="BM9">
-        <v>50</v>
-      </c>
-      <c r="BN9">
-        <v>100</v>
-      </c>
-      <c r="BO9">
-        <v>30</v>
-      </c>
-      <c r="BP9">
-        <v>55</v>
-      </c>
-      <c r="BQ9">
-        <v>100</v>
-      </c>
-      <c r="BR9">
-        <v>30</v>
-      </c>
-      <c r="BS9">
-        <v>24</v>
-      </c>
-      <c r="BT9">
-        <v>100</v>
-      </c>
-      <c r="BU9">
-        <v>30</v>
-      </c>
-      <c r="BV9">
-        <v>75</v>
-      </c>
-      <c r="BW9">
-        <v>100</v>
-      </c>
-      <c r="BX9">
-        <v>30</v>
-      </c>
-      <c r="BY9">
-        <v>59.4</v>
-      </c>
-      <c r="BZ9">
-        <v>69.2</v>
-      </c>
       <c r="CA9">
-        <v>56.2</v>
+        <v>29.6</v>
       </c>
       <c r="CB9">
-        <v>46.4</v>
+        <v>46</v>
       </c>
       <c r="CC9">
-        <v>46.6</v>
+        <v>32</v>
       </c>
       <c r="CD9">
-        <v>50.2</v>
+        <v>55.8</v>
       </c>
       <c r="CE9">
-        <v>25.8</v>
+        <v>58.2</v>
       </c>
       <c r="CF9">
-        <v>69.2</v>
+        <v>61.2</v>
       </c>
       <c r="CG9">
         <v>100</v>
@@ -3596,7 +3596,7 @@
         <v>131</v>
       </c>
       <c r="CQ9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR9" t="s">
         <v>131</v>
@@ -3608,13 +3608,13 @@
         <v>131</v>
       </c>
       <c r="CU9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV9" t="s">
         <v>131</v>
       </c>
       <c r="CW9">
-        <v>423</v>
+        <v>423.6</v>
       </c>
       <c r="CX9" t="s">
         <v>131</v>
@@ -3623,10 +3623,10 @@
         <v>800</v>
       </c>
       <c r="CZ9">
-        <v>52.87500000000001</v>
+        <v>52.95</v>
       </c>
       <c r="DA9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:105">
@@ -3643,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -3652,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -3661,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="L10">
         <v>25</v>
@@ -3670,107 +3670,107 @@
         <v>7</v>
       </c>
       <c r="N10">
+        <v>11.5</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>19.5</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>10.5</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>25</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>22</v>
+      </c>
+      <c r="AD10">
+        <v>25</v>
+      </c>
+      <c r="AE10">
+        <v>7</v>
+      </c>
+      <c r="AF10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>25</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>13</v>
+      </c>
+      <c r="AJ10">
+        <v>25</v>
+      </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10">
+        <v>6.5</v>
+      </c>
+      <c r="AM10">
+        <v>25</v>
+      </c>
+      <c r="AN10">
+        <v>7</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>25</v>
+      </c>
+      <c r="AQ10">
+        <v>7</v>
+      </c>
+      <c r="AR10">
+        <v>16</v>
+      </c>
+      <c r="AS10">
+        <v>25</v>
+      </c>
+      <c r="AT10">
+        <v>7</v>
+      </c>
+      <c r="AU10">
         <v>15.5</v>
       </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>13</v>
-      </c>
-      <c r="R10">
-        <v>25</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-      <c r="U10">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>8.5</v>
-      </c>
-      <c r="AA10">
-        <v>25</v>
-      </c>
-      <c r="AB10">
-        <v>7</v>
-      </c>
-      <c r="AC10">
-        <v>18.5</v>
-      </c>
-      <c r="AD10">
-        <v>25</v>
-      </c>
-      <c r="AE10">
-        <v>7</v>
-      </c>
-      <c r="AF10">
-        <v>18</v>
-      </c>
-      <c r="AG10">
-        <v>25</v>
-      </c>
-      <c r="AH10">
-        <v>7</v>
-      </c>
-      <c r="AI10">
-        <v>8.5</v>
-      </c>
-      <c r="AJ10">
-        <v>25</v>
-      </c>
-      <c r="AK10">
-        <v>7</v>
-      </c>
-      <c r="AL10">
-        <v>11.5</v>
-      </c>
-      <c r="AM10">
-        <v>25</v>
-      </c>
-      <c r="AN10">
-        <v>7</v>
-      </c>
-      <c r="AO10">
-        <v>17</v>
-      </c>
-      <c r="AP10">
-        <v>25</v>
-      </c>
-      <c r="AQ10">
-        <v>7</v>
-      </c>
-      <c r="AR10">
-        <v>7.5</v>
-      </c>
-      <c r="AS10">
-        <v>25</v>
-      </c>
-      <c r="AT10">
-        <v>7</v>
-      </c>
-      <c r="AU10">
-        <v>17</v>
-      </c>
       <c r="AV10">
         <v>25</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="AX10">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY10">
         <v>25</v>
@@ -3796,7 +3796,7 @@
         <v>30</v>
       </c>
       <c r="BD10">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="BE10">
         <v>100</v>
@@ -3805,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="BG10">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="BH10">
         <v>100</v>
@@ -3814,7 +3814,7 @@
         <v>30</v>
       </c>
       <c r="BJ10">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="BK10">
         <v>100</v>
@@ -3823,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="BM10">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="BN10">
         <v>100</v>
@@ -3832,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="BP10">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BQ10">
         <v>100</v>
@@ -3841,7 +3841,7 @@
         <v>30</v>
       </c>
       <c r="BS10">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="BT10">
         <v>100</v>
@@ -3850,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="BV10">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="BW10">
         <v>100</v>
@@ -3859,28 +3859,28 @@
         <v>30</v>
       </c>
       <c r="BY10">
-        <v>72.2</v>
+        <v>70.8</v>
       </c>
       <c r="BZ10">
+        <v>56.8</v>
+      </c>
+      <c r="CA10">
+        <v>49.8</v>
+      </c>
+      <c r="CB10">
+        <v>44.8</v>
+      </c>
+      <c r="CC10">
         <v>46</v>
       </c>
-      <c r="CA10">
-        <v>45</v>
-      </c>
-      <c r="CB10">
-        <v>58</v>
-      </c>
-      <c r="CC10">
-        <v>54.4</v>
-      </c>
       <c r="CD10">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="CE10">
-        <v>42</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="CF10">
-        <v>50.4</v>
+        <v>62.2</v>
       </c>
       <c r="CG10">
         <v>100</v>
@@ -3931,7 +3931,7 @@
         <v>131</v>
       </c>
       <c r="CW10">
-        <v>412.9999999999999</v>
+        <v>463.9999999999999</v>
       </c>
       <c r="CX10" t="s">
         <v>131</v>
@@ -3940,10 +3940,10 @@
         <v>800</v>
       </c>
       <c r="CZ10">
-        <v>51.62499999999999</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="DA10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:105">
@@ -3969,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>25</v>
@@ -3978,89 +3978,89 @@
         <v>7</v>
       </c>
       <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>2.5</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>25</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
         <v>5.5</v>
       </c>
-      <c r="L11">
-        <v>25</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>25</v>
+      </c>
+      <c r="AB11">
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <v>17</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>13</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>7.5</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
         <v>3</v>
       </c>
-      <c r="R11">
-        <v>25</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>7</v>
-      </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="Z11">
-        <v>7</v>
-      </c>
-      <c r="AA11">
-        <v>25</v>
-      </c>
-      <c r="AB11">
-        <v>7</v>
-      </c>
-      <c r="AC11">
-        <v>4.5</v>
-      </c>
-      <c r="AD11">
-        <v>25</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>16</v>
-      </c>
-      <c r="AG11">
-        <v>25</v>
-      </c>
-      <c r="AH11">
-        <v>7</v>
-      </c>
-      <c r="AI11">
-        <v>2.5</v>
-      </c>
-      <c r="AJ11">
-        <v>25</v>
-      </c>
-      <c r="AK11">
-        <v>7</v>
-      </c>
-      <c r="AL11">
-        <v>5</v>
-      </c>
       <c r="AM11">
         <v>25</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS11">
         <v>25</v>
@@ -4095,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="AX11">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AY11">
         <v>25</v>
@@ -4104,26 +4104,26 @@
         <v>7</v>
       </c>
       <c r="BA11">
+        <v>73</v>
+      </c>
+      <c r="BB11">
+        <v>100</v>
+      </c>
+      <c r="BC11">
+        <v>30</v>
+      </c>
+      <c r="BD11">
+        <v>50</v>
+      </c>
+      <c r="BE11">
+        <v>100</v>
+      </c>
+      <c r="BF11">
+        <v>30</v>
+      </c>
+      <c r="BG11">
         <v>24</v>
       </c>
-      <c r="BB11">
-        <v>100</v>
-      </c>
-      <c r="BC11">
-        <v>30</v>
-      </c>
-      <c r="BD11">
-        <v>34</v>
-      </c>
-      <c r="BE11">
-        <v>100</v>
-      </c>
-      <c r="BF11">
-        <v>30</v>
-      </c>
-      <c r="BG11">
-        <v>16.5</v>
-      </c>
       <c r="BH11">
         <v>100</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>30</v>
       </c>
       <c r="BJ11">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="BK11">
         <v>100</v>
@@ -4149,7 +4149,7 @@
         <v>30</v>
       </c>
       <c r="BP11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BQ11">
         <v>100</v>
@@ -4158,7 +4158,7 @@
         <v>30</v>
       </c>
       <c r="BS11">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="BT11">
         <v>100</v>
@@ -4167,7 +4167,7 @@
         <v>30</v>
       </c>
       <c r="BV11">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BW11">
         <v>100</v>
@@ -4176,28 +4176,28 @@
         <v>30</v>
       </c>
       <c r="BY11">
-        <v>23.8</v>
+        <v>68</v>
       </c>
       <c r="BZ11">
-        <v>39.6</v>
+        <v>48.8</v>
       </c>
       <c r="CA11">
-        <v>16.4</v>
+        <v>23</v>
       </c>
       <c r="CB11">
-        <v>29.2</v>
+        <v>25.8</v>
       </c>
       <c r="CC11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CD11">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="CE11">
-        <v>14.6</v>
+        <v>35.2</v>
       </c>
       <c r="CF11">
-        <v>31</v>
+        <v>43.2</v>
       </c>
       <c r="CG11">
         <v>100</v>
@@ -4224,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="CO11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CP11" t="s">
         <v>131</v>
@@ -4236,31 +4236,31 @@
         <v>132</v>
       </c>
       <c r="CS11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT11" t="s">
         <v>132</v>
       </c>
       <c r="CU11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV11" t="s">
         <v>131</v>
       </c>
       <c r="CW11">
-        <v>198.6</v>
+        <v>300</v>
       </c>
       <c r="CX11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CY11">
         <v>800</v>
       </c>
       <c r="CZ11">
-        <v>24.825</v>
+        <v>37.5</v>
       </c>
       <c r="DA11">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:105">
@@ -4277,98 +4277,98 @@
         <v>11</v>
       </c>
       <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>6.5</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
         <v>19</v>
       </c>
-      <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>25</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>20.5</v>
-      </c>
-      <c r="O12">
-        <v>25</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-      <c r="R12">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>7.5</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>23.5</v>
+      </c>
+      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>22</v>
+      </c>
+      <c r="AG12">
+        <v>25</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
         <v>16</v>
       </c>
-      <c r="U12">
-        <v>25</v>
-      </c>
-      <c r="V12">
-        <v>7</v>
-      </c>
-      <c r="W12">
-        <v>7.5</v>
-      </c>
-      <c r="X12">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12">
-        <v>13.5</v>
-      </c>
-      <c r="AA12">
-        <v>25</v>
-      </c>
-      <c r="AB12">
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <v>15.5</v>
-      </c>
-      <c r="AD12">
-        <v>25</v>
-      </c>
-      <c r="AE12">
-        <v>7</v>
-      </c>
-      <c r="AF12">
-        <v>15</v>
-      </c>
-      <c r="AG12">
-        <v>25</v>
-      </c>
-      <c r="AH12">
-        <v>7</v>
-      </c>
-      <c r="AI12">
-        <v>15.5</v>
-      </c>
       <c r="AJ12">
         <v>25</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>7</v>
       </c>
       <c r="AL12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AM12">
         <v>25</v>
@@ -4385,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>25</v>
@@ -4394,7 +4394,7 @@
         <v>7</v>
       </c>
       <c r="AR12">
-        <v>6</v>
+        <v>23.5</v>
       </c>
       <c r="AS12">
         <v>25</v>
@@ -4403,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="AU12">
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="AV12">
         <v>25</v>
@@ -4412,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="AX12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY12">
         <v>25</v>
@@ -4421,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="BA12">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="BB12">
         <v>100</v>
@@ -4430,92 +4430,92 @@
         <v>30</v>
       </c>
       <c r="BD12">
+        <v>64</v>
+      </c>
+      <c r="BE12">
+        <v>100</v>
+      </c>
+      <c r="BF12">
+        <v>30</v>
+      </c>
+      <c r="BG12">
+        <v>45</v>
+      </c>
+      <c r="BH12">
+        <v>100</v>
+      </c>
+      <c r="BI12">
+        <v>30</v>
+      </c>
+      <c r="BJ12">
+        <v>60</v>
+      </c>
+      <c r="BK12">
+        <v>100</v>
+      </c>
+      <c r="BL12">
+        <v>30</v>
+      </c>
+      <c r="BM12">
+        <v>53</v>
+      </c>
+      <c r="BN12">
+        <v>100</v>
+      </c>
+      <c r="BO12">
+        <v>30</v>
+      </c>
+      <c r="BP12">
+        <v>59</v>
+      </c>
+      <c r="BQ12">
+        <v>100</v>
+      </c>
+      <c r="BR12">
+        <v>30</v>
+      </c>
+      <c r="BS12">
+        <v>86</v>
+      </c>
+      <c r="BT12">
+        <v>100</v>
+      </c>
+      <c r="BU12">
+        <v>30</v>
+      </c>
+      <c r="BV12">
+        <v>76</v>
+      </c>
+      <c r="BW12">
+        <v>100</v>
+      </c>
+      <c r="BX12">
+        <v>30</v>
+      </c>
+      <c r="BY12">
+        <v>83.8</v>
+      </c>
+      <c r="BZ12">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="CA12">
+        <v>45</v>
+      </c>
+      <c r="CB12">
+        <v>54.8</v>
+      </c>
+      <c r="CC12">
+        <v>53</v>
+      </c>
+      <c r="CD12">
+        <v>56.6</v>
+      </c>
+      <c r="CE12">
+        <v>84.2</v>
+      </c>
+      <c r="CF12">
         <v>73</v>
       </c>
-      <c r="BE12">
-        <v>100</v>
-      </c>
-      <c r="BF12">
-        <v>30</v>
-      </c>
-      <c r="BG12">
-        <v>66</v>
-      </c>
-      <c r="BH12">
-        <v>100</v>
-      </c>
-      <c r="BI12">
-        <v>30</v>
-      </c>
-      <c r="BJ12">
-        <v>62</v>
-      </c>
-      <c r="BK12">
-        <v>100</v>
-      </c>
-      <c r="BL12">
-        <v>30</v>
-      </c>
-      <c r="BM12">
-        <v>59</v>
-      </c>
-      <c r="BN12">
-        <v>100</v>
-      </c>
-      <c r="BO12">
-        <v>30</v>
-      </c>
-      <c r="BP12">
-        <v>40</v>
-      </c>
-      <c r="BQ12">
-        <v>100</v>
-      </c>
-      <c r="BR12">
-        <v>30</v>
-      </c>
-      <c r="BS12">
-        <v>22.5</v>
-      </c>
-      <c r="BT12">
-        <v>100</v>
-      </c>
-      <c r="BU12">
-        <v>30</v>
-      </c>
-      <c r="BV12">
-        <v>79</v>
-      </c>
-      <c r="BW12">
-        <v>100</v>
-      </c>
-      <c r="BX12">
-        <v>30</v>
-      </c>
-      <c r="BY12">
-        <v>64.2</v>
-      </c>
-      <c r="BZ12">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="CA12">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="CB12">
-        <v>62.2</v>
-      </c>
-      <c r="CC12">
-        <v>57.2</v>
-      </c>
-      <c r="CD12">
-        <v>40.8</v>
-      </c>
-      <c r="CE12">
-        <v>24.8</v>
-      </c>
-      <c r="CF12">
-        <v>77</v>
-      </c>
       <c r="CG12">
         <v>100</v>
       </c>
@@ -4559,13 +4559,13 @@
         <v>131</v>
       </c>
       <c r="CU12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV12" t="s">
         <v>131</v>
       </c>
       <c r="CW12">
-        <v>465.2</v>
+        <v>518.8</v>
       </c>
       <c r="CX12" t="s">
         <v>131</v>
@@ -4574,7 +4574,7 @@
         <v>800</v>
       </c>
       <c r="CZ12">
-        <v>58.15</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="DA12">
         <v>4</v>
@@ -4594,7 +4594,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -4603,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>25</v>
@@ -4612,7 +4612,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L13">
         <v>25</v>
@@ -4621,17 +4621,17 @@
         <v>7</v>
       </c>
       <c r="N13">
+        <v>7.5</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="O13">
-        <v>25</v>
-      </c>
-      <c r="P13">
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
       <c r="R13">
         <v>25</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>7</v>
       </c>
       <c r="T13">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="U13">
         <v>25</v>
@@ -4648,7 +4648,7 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="X13">
         <v>25</v>
@@ -4657,7 +4657,7 @@
         <v>7</v>
       </c>
       <c r="Z13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA13">
         <v>25</v>
@@ -4666,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="AC13">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AD13">
         <v>25</v>
@@ -4675,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="AF13">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AG13">
         <v>25</v>
@@ -4684,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="AI13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
         <v>25</v>
@@ -4702,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="AO13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>25</v>
@@ -4711,7 +4711,7 @@
         <v>7</v>
       </c>
       <c r="AR13">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="AS13">
         <v>25</v>
@@ -4720,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="AU13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV13">
         <v>25</v>
@@ -4729,7 +4729,7 @@
         <v>7</v>
       </c>
       <c r="AX13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13">
         <v>25</v>
@@ -4738,62 +4738,62 @@
         <v>7</v>
       </c>
       <c r="BA13">
+        <v>65</v>
+      </c>
+      <c r="BB13">
+        <v>100</v>
+      </c>
+      <c r="BC13">
+        <v>30</v>
+      </c>
+      <c r="BD13">
+        <v>42</v>
+      </c>
+      <c r="BE13">
+        <v>100</v>
+      </c>
+      <c r="BF13">
+        <v>30</v>
+      </c>
+      <c r="BG13">
+        <v>26.5</v>
+      </c>
+      <c r="BH13">
+        <v>100</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BJ13">
+        <v>34.5</v>
+      </c>
+      <c r="BK13">
+        <v>100</v>
+      </c>
+      <c r="BL13">
+        <v>30</v>
+      </c>
+      <c r="BM13">
+        <v>50</v>
+      </c>
+      <c r="BN13">
+        <v>100</v>
+      </c>
+      <c r="BO13">
+        <v>30</v>
+      </c>
+      <c r="BP13">
+        <v>54</v>
+      </c>
+      <c r="BQ13">
+        <v>100</v>
+      </c>
+      <c r="BR13">
+        <v>30</v>
+      </c>
+      <c r="BS13">
         <v>49</v>
       </c>
-      <c r="BB13">
-        <v>100</v>
-      </c>
-      <c r="BC13">
-        <v>30</v>
-      </c>
-      <c r="BD13">
-        <v>41</v>
-      </c>
-      <c r="BE13">
-        <v>100</v>
-      </c>
-      <c r="BF13">
-        <v>30</v>
-      </c>
-      <c r="BG13">
-        <v>43</v>
-      </c>
-      <c r="BH13">
-        <v>100</v>
-      </c>
-      <c r="BI13">
-        <v>30</v>
-      </c>
-      <c r="BJ13">
-        <v>43</v>
-      </c>
-      <c r="BK13">
-        <v>100</v>
-      </c>
-      <c r="BL13">
-        <v>30</v>
-      </c>
-      <c r="BM13">
-        <v>42</v>
-      </c>
-      <c r="BN13">
-        <v>100</v>
-      </c>
-      <c r="BO13">
-        <v>30</v>
-      </c>
-      <c r="BP13">
-        <v>27</v>
-      </c>
-      <c r="BQ13">
-        <v>100</v>
-      </c>
-      <c r="BR13">
-        <v>30</v>
-      </c>
-      <c r="BS13">
-        <v>29</v>
-      </c>
       <c r="BT13">
         <v>100</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>30</v>
       </c>
       <c r="BV13">
-        <v>62</v>
+        <v>72.5</v>
       </c>
       <c r="BW13">
         <v>100</v>
@@ -4810,28 +4810,28 @@
         <v>30</v>
       </c>
       <c r="BY13">
-        <v>48.6</v>
+        <v>60.6</v>
       </c>
       <c r="BZ13">
-        <v>46.2</v>
+        <v>42.8</v>
       </c>
       <c r="CA13">
-        <v>39.2</v>
+        <v>26.6</v>
       </c>
       <c r="CB13">
-        <v>42</v>
+        <v>33.4</v>
       </c>
       <c r="CC13">
-        <v>37.2</v>
+        <v>50</v>
       </c>
       <c r="CD13">
-        <v>24.4</v>
+        <v>54</v>
       </c>
       <c r="CE13">
-        <v>28.6</v>
+        <v>49.6</v>
       </c>
       <c r="CF13">
-        <v>60.4</v>
+        <v>69.2</v>
       </c>
       <c r="CG13">
         <v>100</v>
@@ -4864,7 +4864,7 @@
         <v>131</v>
       </c>
       <c r="CQ13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR13" t="s">
         <v>131</v>
@@ -4873,16 +4873,16 @@
         <v>131</v>
       </c>
       <c r="CT13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV13" t="s">
         <v>131</v>
       </c>
       <c r="CW13">
-        <v>326.6</v>
+        <v>386.2</v>
       </c>
       <c r="CX13" t="s">
         <v>131</v>
@@ -4891,10 +4891,10 @@
         <v>800</v>
       </c>
       <c r="CZ13">
-        <v>40.825</v>
+        <v>48.275</v>
       </c>
       <c r="DA13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -4911,7 +4911,7 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4920,7 +4920,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -4929,98 +4929,98 @@
         <v>7</v>
       </c>
       <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
         <v>4.5</v>
       </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>8</v>
-      </c>
-      <c r="O14">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14">
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>17</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>7</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>7</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>25</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>2.5</v>
+      </c>
+      <c r="AM14">
+        <v>25</v>
+      </c>
+      <c r="AN14">
+        <v>7</v>
+      </c>
+      <c r="AO14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>25</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>25</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>4</v>
-      </c>
-      <c r="AA14">
-        <v>25</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>4</v>
-      </c>
-      <c r="AD14">
-        <v>25</v>
-      </c>
-      <c r="AE14">
-        <v>7</v>
-      </c>
-      <c r="AF14">
-        <v>9.5</v>
-      </c>
-      <c r="AG14">
-        <v>25</v>
-      </c>
-      <c r="AH14">
-        <v>7</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>25</v>
-      </c>
-      <c r="AK14">
-        <v>7</v>
-      </c>
-      <c r="AL14">
-        <v>7</v>
-      </c>
-      <c r="AM14">
-        <v>25</v>
-      </c>
-      <c r="AN14">
-        <v>7</v>
-      </c>
-      <c r="AO14">
-        <v>3</v>
-      </c>
       <c r="AP14">
         <v>25</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="AR14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS14">
         <v>25</v>
@@ -5037,7 +5037,7 @@
         <v>7</v>
       </c>
       <c r="AU14">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AV14">
         <v>25</v>
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="AX14">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="AY14">
         <v>25</v>
@@ -5055,100 +5055,100 @@
         <v>7</v>
       </c>
       <c r="BA14">
+        <v>57</v>
+      </c>
+      <c r="BB14">
+        <v>100</v>
+      </c>
+      <c r="BC14">
+        <v>30</v>
+      </c>
+      <c r="BD14">
+        <v>34</v>
+      </c>
+      <c r="BE14">
+        <v>100</v>
+      </c>
+      <c r="BF14">
+        <v>30</v>
+      </c>
+      <c r="BG14">
+        <v>18.5</v>
+      </c>
+      <c r="BH14">
+        <v>100</v>
+      </c>
+      <c r="BI14">
+        <v>30</v>
+      </c>
+      <c r="BJ14">
+        <v>27.5</v>
+      </c>
+      <c r="BK14">
+        <v>100</v>
+      </c>
+      <c r="BL14">
+        <v>30</v>
+      </c>
+      <c r="BM14">
+        <v>31</v>
+      </c>
+      <c r="BN14">
+        <v>100</v>
+      </c>
+      <c r="BO14">
+        <v>30</v>
+      </c>
+      <c r="BP14">
+        <v>49</v>
+      </c>
+      <c r="BQ14">
+        <v>100</v>
+      </c>
+      <c r="BR14">
+        <v>30</v>
+      </c>
+      <c r="BS14">
+        <v>40</v>
+      </c>
+      <c r="BT14">
+        <v>100</v>
+      </c>
+      <c r="BU14">
+        <v>30</v>
+      </c>
+      <c r="BV14">
+        <v>48</v>
+      </c>
+      <c r="BW14">
+        <v>100</v>
+      </c>
+      <c r="BX14">
+        <v>30</v>
+      </c>
+      <c r="BY14">
+        <v>54.8</v>
+      </c>
+      <c r="BZ14">
+        <v>34.4</v>
+      </c>
+      <c r="CA14">
+        <v>15.8</v>
+      </c>
+      <c r="CB14">
         <v>23</v>
       </c>
-      <c r="BB14">
-        <v>100</v>
-      </c>
-      <c r="BC14">
-        <v>30</v>
-      </c>
-      <c r="BD14">
-        <v>40</v>
-      </c>
-      <c r="BE14">
-        <v>100</v>
-      </c>
-      <c r="BF14">
-        <v>30</v>
-      </c>
-      <c r="BG14">
-        <v>17</v>
-      </c>
-      <c r="BH14">
-        <v>100</v>
-      </c>
-      <c r="BI14">
-        <v>30</v>
-      </c>
-      <c r="BJ14">
-        <v>27</v>
-      </c>
-      <c r="BK14">
-        <v>100</v>
-      </c>
-      <c r="BL14">
-        <v>30</v>
-      </c>
-      <c r="BM14">
-        <v>6</v>
-      </c>
-      <c r="BN14">
-        <v>100</v>
-      </c>
-      <c r="BO14">
-        <v>30</v>
-      </c>
-      <c r="BP14">
-        <v>32</v>
-      </c>
-      <c r="BQ14">
-        <v>100</v>
-      </c>
-      <c r="BR14">
-        <v>30</v>
-      </c>
-      <c r="BS14">
-        <v>30</v>
-      </c>
-      <c r="BT14">
-        <v>100</v>
-      </c>
-      <c r="BU14">
-        <v>30</v>
-      </c>
-      <c r="BV14">
-        <v>43</v>
-      </c>
-      <c r="BW14">
-        <v>100</v>
-      </c>
-      <c r="BX14">
-        <v>30</v>
-      </c>
-      <c r="BY14">
-        <v>21.2</v>
-      </c>
-      <c r="BZ14">
-        <v>39.6</v>
-      </c>
-      <c r="CA14">
-        <v>15.4</v>
-      </c>
-      <c r="CB14">
-        <v>27.6</v>
-      </c>
       <c r="CC14">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="CD14">
-        <v>27.6</v>
+        <v>46</v>
       </c>
       <c r="CE14">
-        <v>24.8</v>
+        <v>36.2</v>
       </c>
       <c r="CF14">
-        <v>37.2</v>
+        <v>42.8</v>
       </c>
       <c r="CG14">
         <v>100</v>
@@ -5175,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="CO14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CP14" t="s">
         <v>131</v>
@@ -5187,31 +5187,31 @@
         <v>132</v>
       </c>
       <c r="CS14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV14" t="s">
         <v>131</v>
       </c>
       <c r="CW14">
-        <v>199.4</v>
+        <v>284</v>
       </c>
       <c r="CX14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CY14">
         <v>800</v>
       </c>
       <c r="CZ14">
-        <v>24.925</v>
+        <v>35.5</v>
       </c>
       <c r="DA14">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:105">
@@ -5228,7 +5228,7 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -5246,7 +5246,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="L15">
         <v>25</v>
@@ -5255,116 +5255,116 @@
         <v>7</v>
       </c>
       <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>25</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>20</v>
+      </c>
+      <c r="AD15">
+        <v>25</v>
+      </c>
+      <c r="AE15">
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <v>18</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>7</v>
+      </c>
+      <c r="AI15">
+        <v>6.5</v>
+      </c>
+      <c r="AJ15">
+        <v>25</v>
+      </c>
+      <c r="AK15">
+        <v>7</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>25</v>
+      </c>
+      <c r="AN15">
+        <v>7</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>25</v>
+      </c>
+      <c r="AQ15">
+        <v>7</v>
+      </c>
+      <c r="AR15">
         <v>12.5</v>
       </c>
-      <c r="O15">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>7</v>
-      </c>
-      <c r="Q15">
-        <v>4.5</v>
-      </c>
-      <c r="R15">
-        <v>25</v>
-      </c>
-      <c r="S15">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-      <c r="U15">
-        <v>25</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>5.5</v>
-      </c>
-      <c r="X15">
-        <v>25</v>
-      </c>
-      <c r="Y15">
-        <v>7</v>
-      </c>
-      <c r="Z15">
+      <c r="AS15">
+        <v>25</v>
+      </c>
+      <c r="AT15">
+        <v>7</v>
+      </c>
+      <c r="AU15">
         <v>8.5</v>
       </c>
-      <c r="AA15">
-        <v>25</v>
-      </c>
-      <c r="AB15">
-        <v>7</v>
-      </c>
-      <c r="AC15">
+      <c r="AV15">
+        <v>25</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
         <v>5</v>
       </c>
-      <c r="AD15">
-        <v>25</v>
-      </c>
-      <c r="AE15">
-        <v>7</v>
-      </c>
-      <c r="AF15">
-        <v>11</v>
-      </c>
-      <c r="AG15">
-        <v>25</v>
-      </c>
-      <c r="AH15">
-        <v>7</v>
-      </c>
-      <c r="AI15">
-        <v>4</v>
-      </c>
-      <c r="AJ15">
-        <v>25</v>
-      </c>
-      <c r="AK15">
-        <v>7</v>
-      </c>
-      <c r="AL15">
-        <v>7.5</v>
-      </c>
-      <c r="AM15">
-        <v>25</v>
-      </c>
-      <c r="AN15">
-        <v>7</v>
-      </c>
-      <c r="AO15">
-        <v>7.5</v>
-      </c>
-      <c r="AP15">
-        <v>25</v>
-      </c>
-      <c r="AQ15">
-        <v>7</v>
-      </c>
-      <c r="AR15">
-        <v>5.5</v>
-      </c>
-      <c r="AS15">
-        <v>25</v>
-      </c>
-      <c r="AT15">
-        <v>7</v>
-      </c>
-      <c r="AU15">
-        <v>3.5</v>
-      </c>
-      <c r="AV15">
-        <v>25</v>
-      </c>
-      <c r="AW15">
-        <v>7</v>
-      </c>
-      <c r="AX15">
-        <v>3</v>
-      </c>
       <c r="AY15">
         <v>25</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>7</v>
       </c>
       <c r="BA15">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="BB15">
         <v>100</v>
@@ -5381,44 +5381,44 @@
         <v>30</v>
       </c>
       <c r="BD15">
+        <v>48</v>
+      </c>
+      <c r="BE15">
+        <v>100</v>
+      </c>
+      <c r="BF15">
+        <v>30</v>
+      </c>
+      <c r="BG15">
+        <v>19</v>
+      </c>
+      <c r="BH15">
+        <v>100</v>
+      </c>
+      <c r="BI15">
+        <v>30</v>
+      </c>
+      <c r="BJ15">
+        <v>25.5</v>
+      </c>
+      <c r="BK15">
+        <v>100</v>
+      </c>
+      <c r="BL15">
+        <v>30</v>
+      </c>
+      <c r="BM15">
+        <v>32</v>
+      </c>
+      <c r="BN15">
+        <v>100</v>
+      </c>
+      <c r="BO15">
+        <v>30</v>
+      </c>
+      <c r="BP15">
         <v>41</v>
       </c>
-      <c r="BE15">
-        <v>100</v>
-      </c>
-      <c r="BF15">
-        <v>30</v>
-      </c>
-      <c r="BG15">
-        <v>36</v>
-      </c>
-      <c r="BH15">
-        <v>100</v>
-      </c>
-      <c r="BI15">
-        <v>30</v>
-      </c>
-      <c r="BJ15">
-        <v>39</v>
-      </c>
-      <c r="BK15">
-        <v>100</v>
-      </c>
-      <c r="BL15">
-        <v>30</v>
-      </c>
-      <c r="BM15">
-        <v>28</v>
-      </c>
-      <c r="BN15">
-        <v>100</v>
-      </c>
-      <c r="BO15">
-        <v>30</v>
-      </c>
-      <c r="BP15">
-        <v>37</v>
-      </c>
       <c r="BQ15">
         <v>100</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>30</v>
       </c>
       <c r="BS15">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="BT15">
         <v>100</v>
@@ -5435,7 +5435,7 @@
         <v>30</v>
       </c>
       <c r="BV15">
-        <v>46.5</v>
+        <v>42</v>
       </c>
       <c r="BW15">
         <v>100</v>
@@ -5444,28 +5444,28 @@
         <v>30</v>
       </c>
       <c r="BY15">
-        <v>25.2</v>
+        <v>63.2</v>
       </c>
       <c r="BZ15">
-        <v>41.2</v>
+        <v>49.6</v>
       </c>
       <c r="CA15">
-        <v>32.6</v>
+        <v>18</v>
       </c>
       <c r="CB15">
-        <v>39.2</v>
+        <v>24.4</v>
       </c>
       <c r="CC15">
-        <v>27.2</v>
+        <v>32</v>
       </c>
       <c r="CD15">
-        <v>33.4</v>
+        <v>43</v>
       </c>
       <c r="CE15">
-        <v>22.8</v>
+        <v>42.2</v>
       </c>
       <c r="CF15">
-        <v>41.8</v>
+        <v>38</v>
       </c>
       <c r="CG15">
         <v>100</v>
@@ -5492,31 +5492,31 @@
         <v>100</v>
       </c>
       <c r="CO15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>132</v>
       </c>
-      <c r="CP15" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>131</v>
-      </c>
       <c r="CR15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CS15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT15" t="s">
         <v>131</v>
       </c>
       <c r="CU15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV15" t="s">
         <v>131</v>
       </c>
       <c r="CW15">
-        <v>263.4</v>
+        <v>310.4</v>
       </c>
       <c r="CX15" t="s">
         <v>131</v>
@@ -5525,10 +5525,10 @@
         <v>800</v>
       </c>
       <c r="CZ15">
-        <v>32.925</v>
+        <v>38.8</v>
       </c>
       <c r="DA15">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:105">
@@ -5545,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -5554,7 +5554,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>25</v>
@@ -5563,80 +5563,80 @@
         <v>7</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>5.5</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>11</v>
+      </c>
+      <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>4.5</v>
+      </c>
+      <c r="AA16">
+        <v>25</v>
+      </c>
+      <c r="AB16">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <v>18</v>
+      </c>
+      <c r="AD16">
+        <v>25</v>
+      </c>
+      <c r="AE16">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>25</v>
+      </c>
+      <c r="AH16">
+        <v>7</v>
+      </c>
+      <c r="AI16">
         <v>8.5</v>
       </c>
-      <c r="L16">
-        <v>25</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>22.5</v>
-      </c>
-      <c r="O16">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>7</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>25</v>
-      </c>
-      <c r="S16">
-        <v>7</v>
-      </c>
-      <c r="T16">
-        <v>8</v>
-      </c>
-      <c r="U16">
-        <v>25</v>
-      </c>
-      <c r="V16">
-        <v>7</v>
-      </c>
-      <c r="W16">
-        <v>8.5</v>
-      </c>
-      <c r="X16">
-        <v>25</v>
-      </c>
-      <c r="Y16">
-        <v>7</v>
-      </c>
-      <c r="Z16">
-        <v>11.5</v>
-      </c>
-      <c r="AA16">
-        <v>25</v>
-      </c>
-      <c r="AB16">
-        <v>7</v>
-      </c>
-      <c r="AC16">
-        <v>8.5</v>
-      </c>
-      <c r="AD16">
-        <v>25</v>
-      </c>
-      <c r="AE16">
-        <v>7</v>
-      </c>
-      <c r="AF16">
-        <v>17.5</v>
-      </c>
-      <c r="AG16">
-        <v>25</v>
-      </c>
-      <c r="AH16">
-        <v>7</v>
-      </c>
-      <c r="AI16">
-        <v>7</v>
-      </c>
       <c r="AJ16">
         <v>25</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>7</v>
       </c>
       <c r="AL16">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM16">
         <v>25</v>
@@ -5653,7 +5653,7 @@
         <v>7</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
         <v>25</v>
@@ -5662,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="AR16">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="AS16">
         <v>25</v>
@@ -5671,7 +5671,7 @@
         <v>7</v>
       </c>
       <c r="AU16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16">
         <v>25</v>
@@ -5680,7 +5680,7 @@
         <v>7</v>
       </c>
       <c r="AX16">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY16">
         <v>25</v>
@@ -5689,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="BA16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="BB16">
         <v>100</v>
@@ -5698,53 +5698,53 @@
         <v>30</v>
       </c>
       <c r="BD16">
+        <v>66</v>
+      </c>
+      <c r="BE16">
+        <v>100</v>
+      </c>
+      <c r="BF16">
+        <v>30</v>
+      </c>
+      <c r="BG16">
+        <v>33.5</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>30</v>
+      </c>
+      <c r="BJ16">
+        <v>36</v>
+      </c>
+      <c r="BK16">
+        <v>100</v>
+      </c>
+      <c r="BL16">
+        <v>30</v>
+      </c>
+      <c r="BM16">
+        <v>33</v>
+      </c>
+      <c r="BN16">
+        <v>100</v>
+      </c>
+      <c r="BO16">
+        <v>30</v>
+      </c>
+      <c r="BP16">
+        <v>54</v>
+      </c>
+      <c r="BQ16">
+        <v>100</v>
+      </c>
+      <c r="BR16">
+        <v>30</v>
+      </c>
+      <c r="BS16">
         <v>55</v>
       </c>
-      <c r="BE16">
-        <v>100</v>
-      </c>
-      <c r="BF16">
-        <v>30</v>
-      </c>
-      <c r="BG16">
-        <v>46.5</v>
-      </c>
-      <c r="BH16">
-        <v>100</v>
-      </c>
-      <c r="BI16">
-        <v>30</v>
-      </c>
-      <c r="BJ16">
-        <v>38</v>
-      </c>
-      <c r="BK16">
-        <v>100</v>
-      </c>
-      <c r="BL16">
-        <v>30</v>
-      </c>
-      <c r="BM16">
-        <v>31</v>
-      </c>
-      <c r="BN16">
-        <v>100</v>
-      </c>
-      <c r="BO16">
-        <v>30</v>
-      </c>
-      <c r="BP16">
-        <v>38</v>
-      </c>
-      <c r="BQ16">
-        <v>100</v>
-      </c>
-      <c r="BR16">
-        <v>30</v>
-      </c>
-      <c r="BS16">
-        <v>16</v>
-      </c>
       <c r="BT16">
         <v>100</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>30</v>
       </c>
       <c r="BV16">
-        <v>50.5</v>
+        <v>69</v>
       </c>
       <c r="BW16">
         <v>100</v>
@@ -5761,28 +5761,28 @@
         <v>30</v>
       </c>
       <c r="BY16">
-        <v>32.4</v>
+        <v>63.2</v>
       </c>
       <c r="BZ16">
-        <v>57.4</v>
+        <v>62.4</v>
       </c>
       <c r="CA16">
-        <v>43.4</v>
+        <v>30.2</v>
       </c>
       <c r="CB16">
-        <v>42.4</v>
+        <v>33.8</v>
       </c>
       <c r="CC16">
-        <v>27.6</v>
+        <v>33</v>
       </c>
       <c r="CD16">
-        <v>36.6</v>
+        <v>53.2</v>
       </c>
       <c r="CE16">
-        <v>20.2</v>
+        <v>52</v>
       </c>
       <c r="CF16">
-        <v>47.2</v>
+        <v>59</v>
       </c>
       <c r="CG16">
         <v>100</v>
@@ -5821,19 +5821,19 @@
         <v>131</v>
       </c>
       <c r="CS16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT16" t="s">
         <v>131</v>
       </c>
       <c r="CU16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV16" t="s">
         <v>131</v>
       </c>
       <c r="CW16">
-        <v>307.2</v>
+        <v>386.8</v>
       </c>
       <c r="CX16" t="s">
         <v>131</v>
@@ -5842,10 +5842,10 @@
         <v>800</v>
       </c>
       <c r="CZ16">
-        <v>38.4</v>
+        <v>48.34999999999999</v>
       </c>
       <c r="DA16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:105">
@@ -5862,107 +5862,107 @@
         <v>16</v>
       </c>
       <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>25</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
         <v>4.5</v>
       </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>10.5</v>
-      </c>
-      <c r="I17">
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17">
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
         <v>2.5</v>
       </c>
-      <c r="L17">
-        <v>25</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>8.5</v>
-      </c>
-      <c r="O17">
-        <v>25</v>
-      </c>
-      <c r="P17">
-        <v>7</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>25</v>
-      </c>
-      <c r="S17">
-        <v>7</v>
-      </c>
-      <c r="T17">
+      <c r="AA17">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>25</v>
+      </c>
+      <c r="AE17">
+        <v>7</v>
+      </c>
+      <c r="AF17">
+        <v>9</v>
+      </c>
+      <c r="AG17">
+        <v>25</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <v>25</v>
+      </c>
+      <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
         <v>2</v>
       </c>
-      <c r="U17">
-        <v>25</v>
-      </c>
-      <c r="V17">
-        <v>7</v>
-      </c>
-      <c r="W17">
-        <v>5.5</v>
-      </c>
-      <c r="X17">
-        <v>25</v>
-      </c>
-      <c r="Y17">
-        <v>7</v>
-      </c>
-      <c r="Z17">
-        <v>4</v>
-      </c>
-      <c r="AA17">
-        <v>25</v>
-      </c>
-      <c r="AB17">
-        <v>7</v>
-      </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AD17">
-        <v>25</v>
-      </c>
-      <c r="AE17">
-        <v>7</v>
-      </c>
-      <c r="AF17">
-        <v>11.5</v>
-      </c>
-      <c r="AG17">
-        <v>25</v>
-      </c>
-      <c r="AH17">
-        <v>7</v>
-      </c>
-      <c r="AI17">
-        <v>1.5</v>
-      </c>
-      <c r="AJ17">
-        <v>25</v>
-      </c>
-      <c r="AK17">
-        <v>7</v>
-      </c>
-      <c r="AL17">
-        <v>4.5</v>
-      </c>
       <c r="AM17">
         <v>25</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AO17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>25</v>
@@ -5979,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="AR17">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="AS17">
         <v>25</v>
@@ -5988,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="AU17">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="AV17">
         <v>25</v>
@@ -5997,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="AX17">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY17">
         <v>25</v>
@@ -6006,26 +6006,26 @@
         <v>7</v>
       </c>
       <c r="BA17">
+        <v>58</v>
+      </c>
+      <c r="BB17">
+        <v>100</v>
+      </c>
+      <c r="BC17">
+        <v>30</v>
+      </c>
+      <c r="BD17">
+        <v>34</v>
+      </c>
+      <c r="BE17">
+        <v>100</v>
+      </c>
+      <c r="BF17">
+        <v>30</v>
+      </c>
+      <c r="BG17">
         <v>22</v>
       </c>
-      <c r="BB17">
-        <v>100</v>
-      </c>
-      <c r="BC17">
-        <v>30</v>
-      </c>
-      <c r="BD17">
-        <v>28</v>
-      </c>
-      <c r="BE17">
-        <v>100</v>
-      </c>
-      <c r="BF17">
-        <v>30</v>
-      </c>
-      <c r="BG17">
-        <v>19.5</v>
-      </c>
       <c r="BH17">
         <v>100</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>30</v>
       </c>
       <c r="BJ17">
-        <v>18</v>
+        <v>24.5</v>
       </c>
       <c r="BK17">
         <v>100</v>
@@ -6042,7 +6042,7 @@
         <v>30</v>
       </c>
       <c r="BM17">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="BN17">
         <v>100</v>
@@ -6051,7 +6051,7 @@
         <v>30</v>
       </c>
       <c r="BP17">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="BQ17">
         <v>100</v>
@@ -6060,7 +6060,7 @@
         <v>30</v>
       </c>
       <c r="BS17">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BT17">
         <v>100</v>
@@ -6069,7 +6069,7 @@
         <v>30</v>
       </c>
       <c r="BV17">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BW17">
         <v>100</v>
@@ -6078,28 +6078,28 @@
         <v>30</v>
       </c>
       <c r="BY17">
+        <v>52.4</v>
+      </c>
+      <c r="BZ17">
+        <v>33.6</v>
+      </c>
+      <c r="CA17">
         <v>20.6</v>
       </c>
-      <c r="BZ17">
-        <v>31.2</v>
-      </c>
-      <c r="CA17">
-        <v>17.2</v>
-      </c>
       <c r="CB17">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="CC17">
-        <v>21.6</v>
+        <v>33</v>
       </c>
       <c r="CD17">
-        <v>21</v>
+        <v>35.4</v>
       </c>
       <c r="CE17">
-        <v>19.2</v>
+        <v>22.4</v>
       </c>
       <c r="CF17">
-        <v>33</v>
+        <v>39.2</v>
       </c>
       <c r="CG17">
         <v>100</v>
@@ -6126,7 +6126,7 @@
         <v>100</v>
       </c>
       <c r="CO17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CP17" t="s">
         <v>131</v>
@@ -6138,10 +6138,10 @@
         <v>132</v>
       </c>
       <c r="CS17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU17" t="s">
         <v>132</v>
@@ -6150,16 +6150,16 @@
         <v>131</v>
       </c>
       <c r="CW17">
-        <v>183.4</v>
+        <v>257.8</v>
       </c>
       <c r="CX17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CY17">
         <v>800</v>
       </c>
       <c r="CZ17">
-        <v>22.925</v>
+        <v>32.225</v>
       </c>
       <c r="DA17">
         <v>23</v>
@@ -6179,17 +6179,17 @@
         <v>17</v>
       </c>
       <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
         <v>9</v>
       </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
       <c r="I18">
         <v>25</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="K18">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>25</v>
@@ -6215,107 +6215,107 @@
         <v>7</v>
       </c>
       <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>25</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>11.5</v>
+      </c>
+      <c r="X18">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>3.5</v>
+      </c>
+      <c r="AA18">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>23</v>
+      </c>
+      <c r="AD18">
+        <v>25</v>
+      </c>
+      <c r="AE18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>15</v>
+      </c>
+      <c r="AG18">
+        <v>25</v>
+      </c>
+      <c r="AH18">
+        <v>7</v>
+      </c>
+      <c r="AI18">
         <v>4</v>
       </c>
-      <c r="R18">
-        <v>25</v>
-      </c>
-      <c r="S18">
-        <v>7</v>
-      </c>
-      <c r="T18">
+      <c r="AJ18">
+        <v>25</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>3</v>
+      </c>
+      <c r="AM18">
+        <v>25</v>
+      </c>
+      <c r="AN18">
+        <v>7</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>25</v>
+      </c>
+      <c r="AQ18">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>17</v>
+      </c>
+      <c r="AS18">
+        <v>25</v>
+      </c>
+      <c r="AT18">
+        <v>7</v>
+      </c>
+      <c r="AU18">
+        <v>15.5</v>
+      </c>
+      <c r="AV18">
+        <v>25</v>
+      </c>
+      <c r="AW18">
+        <v>7</v>
+      </c>
+      <c r="AX18">
         <v>8.5</v>
       </c>
-      <c r="U18">
-        <v>25</v>
-      </c>
-      <c r="V18">
-        <v>7</v>
-      </c>
-      <c r="W18">
-        <v>5.5</v>
-      </c>
-      <c r="X18">
-        <v>25</v>
-      </c>
-      <c r="Y18">
-        <v>7</v>
-      </c>
-      <c r="Z18">
-        <v>5.5</v>
-      </c>
-      <c r="AA18">
-        <v>25</v>
-      </c>
-      <c r="AB18">
-        <v>7</v>
-      </c>
-      <c r="AC18">
-        <v>10</v>
-      </c>
-      <c r="AD18">
-        <v>25</v>
-      </c>
-      <c r="AE18">
-        <v>7</v>
-      </c>
-      <c r="AF18">
-        <v>19</v>
-      </c>
-      <c r="AG18">
-        <v>25</v>
-      </c>
-      <c r="AH18">
-        <v>7</v>
-      </c>
-      <c r="AI18">
-        <v>6</v>
-      </c>
-      <c r="AJ18">
-        <v>25</v>
-      </c>
-      <c r="AK18">
-        <v>7</v>
-      </c>
-      <c r="AL18">
-        <v>5.5</v>
-      </c>
-      <c r="AM18">
-        <v>25</v>
-      </c>
-      <c r="AN18">
-        <v>7</v>
-      </c>
-      <c r="AO18">
-        <v>4</v>
-      </c>
-      <c r="AP18">
-        <v>25</v>
-      </c>
-      <c r="AQ18">
-        <v>7</v>
-      </c>
-      <c r="AR18">
-        <v>5</v>
-      </c>
-      <c r="AS18">
-        <v>25</v>
-      </c>
-      <c r="AT18">
-        <v>7</v>
-      </c>
-      <c r="AU18">
-        <v>6</v>
-      </c>
-      <c r="AV18">
-        <v>25</v>
-      </c>
-      <c r="AW18">
-        <v>7</v>
-      </c>
-      <c r="AX18">
-        <v>5.5</v>
-      </c>
       <c r="AY18">
         <v>25</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>7</v>
       </c>
       <c r="BA18">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="BB18">
         <v>100</v>
@@ -6332,44 +6332,44 @@
         <v>30</v>
       </c>
       <c r="BD18">
+        <v>62</v>
+      </c>
+      <c r="BE18">
+        <v>100</v>
+      </c>
+      <c r="BF18">
+        <v>30</v>
+      </c>
+      <c r="BG18">
+        <v>24</v>
+      </c>
+      <c r="BH18">
+        <v>100</v>
+      </c>
+      <c r="BI18">
+        <v>30</v>
+      </c>
+      <c r="BJ18">
+        <v>46</v>
+      </c>
+      <c r="BK18">
+        <v>100</v>
+      </c>
+      <c r="BL18">
+        <v>30</v>
+      </c>
+      <c r="BM18">
+        <v>38</v>
+      </c>
+      <c r="BN18">
+        <v>100</v>
+      </c>
+      <c r="BO18">
+        <v>30</v>
+      </c>
+      <c r="BP18">
         <v>48</v>
       </c>
-      <c r="BE18">
-        <v>100</v>
-      </c>
-      <c r="BF18">
-        <v>30</v>
-      </c>
-      <c r="BG18">
-        <v>38.5</v>
-      </c>
-      <c r="BH18">
-        <v>100</v>
-      </c>
-      <c r="BI18">
-        <v>30</v>
-      </c>
-      <c r="BJ18">
-        <v>39</v>
-      </c>
-      <c r="BK18">
-        <v>100</v>
-      </c>
-      <c r="BL18">
-        <v>30</v>
-      </c>
-      <c r="BM18">
-        <v>28</v>
-      </c>
-      <c r="BN18">
-        <v>100</v>
-      </c>
-      <c r="BO18">
-        <v>30</v>
-      </c>
-      <c r="BP18">
-        <v>45</v>
-      </c>
       <c r="BQ18">
         <v>100</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>30</v>
       </c>
       <c r="BS18">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="BT18">
         <v>100</v>
@@ -6386,7 +6386,7 @@
         <v>30</v>
       </c>
       <c r="BV18">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="BW18">
         <v>100</v>
@@ -6395,28 +6395,28 @@
         <v>30</v>
       </c>
       <c r="BY18">
-        <v>48.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="BZ18">
-        <v>52.8</v>
+        <v>59.2</v>
       </c>
       <c r="CA18">
-        <v>35</v>
+        <v>21.8</v>
       </c>
       <c r="CB18">
-        <v>35.4</v>
+        <v>40</v>
       </c>
       <c r="CC18">
-        <v>25.6</v>
+        <v>38</v>
       </c>
       <c r="CD18">
-        <v>41.4</v>
+        <v>49.2</v>
       </c>
       <c r="CE18">
-        <v>24.6</v>
+        <v>58</v>
       </c>
       <c r="CF18">
-        <v>44.4</v>
+        <v>63.2</v>
       </c>
       <c r="CG18">
         <v>100</v>
@@ -6449,25 +6449,25 @@
         <v>131</v>
       </c>
       <c r="CQ18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR18" t="s">
         <v>131</v>
       </c>
       <c r="CS18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT18" t="s">
         <v>131</v>
       </c>
       <c r="CU18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV18" t="s">
         <v>131</v>
       </c>
       <c r="CW18">
-        <v>307.6</v>
+        <v>401</v>
       </c>
       <c r="CX18" t="s">
         <v>131</v>
@@ -6476,10 +6476,10 @@
         <v>800</v>
       </c>
       <c r="CZ18">
-        <v>38.45</v>
+        <v>50.125</v>
       </c>
       <c r="DA18">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -6496,7 +6496,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -6505,7 +6505,7 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>25</v>
@@ -6514,17 +6514,17 @@
         <v>7</v>
       </c>
       <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
         <v>9.5</v>
       </c>
-      <c r="L19">
-        <v>25</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>8</v>
-      </c>
       <c r="O19">
         <v>25</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>7</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>25</v>
@@ -6550,7 +6550,7 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="X19">
         <v>25</v>
@@ -6559,7 +6559,7 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA19">
         <v>25</v>
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="AC19">
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="AD19">
         <v>25</v>
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="AL19">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="AM19">
         <v>25</v>
@@ -6604,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="AO19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>25</v>
@@ -6613,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="AR19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS19">
         <v>25</v>
@@ -6622,7 +6622,7 @@
         <v>7</v>
       </c>
       <c r="AU19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV19">
         <v>25</v>
@@ -6631,7 +6631,7 @@
         <v>7</v>
       </c>
       <c r="AX19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY19">
         <v>25</v>
@@ -6640,7 +6640,7 @@
         <v>7</v>
       </c>
       <c r="BA19">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="BB19">
         <v>100</v>
@@ -6649,7 +6649,7 @@
         <v>30</v>
       </c>
       <c r="BD19">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="BE19">
         <v>100</v>
@@ -6658,7 +6658,7 @@
         <v>30</v>
       </c>
       <c r="BG19">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BH19">
         <v>100</v>
@@ -6667,7 +6667,7 @@
         <v>30</v>
       </c>
       <c r="BJ19">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="BK19">
         <v>100</v>
@@ -6676,7 +6676,7 @@
         <v>30</v>
       </c>
       <c r="BM19">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BN19">
         <v>100</v>
@@ -6685,7 +6685,7 @@
         <v>30</v>
       </c>
       <c r="BP19">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="BQ19">
         <v>100</v>
@@ -6694,7 +6694,7 @@
         <v>30</v>
       </c>
       <c r="BS19">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="BT19">
         <v>100</v>
@@ -6703,7 +6703,7 @@
         <v>30</v>
       </c>
       <c r="BV19">
-        <v>50.5</v>
+        <v>67.5</v>
       </c>
       <c r="BW19">
         <v>100</v>
@@ -6712,28 +6712,28 @@
         <v>30</v>
       </c>
       <c r="BY19">
-        <v>46.6</v>
+        <v>70.8</v>
       </c>
       <c r="BZ19">
-        <v>52.4</v>
+        <v>61.6</v>
       </c>
       <c r="CA19">
-        <v>46.2</v>
+        <v>35.4</v>
       </c>
       <c r="CB19">
-        <v>31.6</v>
+        <v>48.8</v>
       </c>
       <c r="CC19">
-        <v>28.8</v>
+        <v>40</v>
       </c>
       <c r="CD19">
-        <v>35.6</v>
+        <v>54.8</v>
       </c>
       <c r="CE19">
-        <v>36.2</v>
+        <v>55.4</v>
       </c>
       <c r="CF19">
-        <v>44.4</v>
+        <v>58.8</v>
       </c>
       <c r="CG19">
         <v>100</v>
@@ -6772,7 +6772,7 @@
         <v>131</v>
       </c>
       <c r="CS19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT19" t="s">
         <v>131</v>
@@ -6784,7 +6784,7 @@
         <v>131</v>
       </c>
       <c r="CW19">
-        <v>321.8</v>
+        <v>425.6</v>
       </c>
       <c r="CX19" t="s">
         <v>131</v>
@@ -6793,10 +6793,10 @@
         <v>800</v>
       </c>
       <c r="CZ19">
-        <v>40.22499999999999</v>
+        <v>53.2</v>
       </c>
       <c r="DA19">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -6813,44 +6813,44 @@
         <v>19</v>
       </c>
       <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>13.5</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
         <v>14</v>
       </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>16.5</v>
-      </c>
-      <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>15</v>
-      </c>
-      <c r="O20">
-        <v>25</v>
-      </c>
-      <c r="P20">
-        <v>7</v>
-      </c>
-      <c r="Q20">
-        <v>5.5</v>
-      </c>
       <c r="R20">
         <v>25</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>7</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="U20">
         <v>25</v>
@@ -6867,7 +6867,7 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="X20">
         <v>25</v>
@@ -6876,7 +6876,7 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
       <c r="AC20">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD20">
         <v>25</v>
@@ -6894,7 +6894,7 @@
         <v>7</v>
       </c>
       <c r="AF20">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AG20">
         <v>25</v>
@@ -6903,7 +6903,7 @@
         <v>7</v>
       </c>
       <c r="AI20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ20">
         <v>25</v>
@@ -6912,7 +6912,7 @@
         <v>7</v>
       </c>
       <c r="AL20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM20">
         <v>25</v>
@@ -6921,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="AO20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>25</v>
@@ -6930,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="AR20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AS20">
         <v>25</v>
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="AU20">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AV20">
         <v>25</v>
@@ -6948,7 +6948,7 @@
         <v>7</v>
       </c>
       <c r="AX20">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY20">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         <v>7</v>
       </c>
       <c r="BA20">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BB20">
         <v>100</v>
@@ -6966,7 +6966,7 @@
         <v>30</v>
       </c>
       <c r="BD20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE20">
         <v>100</v>
@@ -6975,7 +6975,7 @@
         <v>30</v>
       </c>
       <c r="BG20">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH20">
         <v>100</v>
@@ -6984,7 +6984,7 @@
         <v>30</v>
       </c>
       <c r="BJ20">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="BK20">
         <v>100</v>
@@ -6993,7 +6993,7 @@
         <v>30</v>
       </c>
       <c r="BM20">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="BN20">
         <v>100</v>
@@ -7002,7 +7002,7 @@
         <v>30</v>
       </c>
       <c r="BP20">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="BQ20">
         <v>100</v>
@@ -7011,7 +7011,7 @@
         <v>30</v>
       </c>
       <c r="BS20">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="BT20">
         <v>100</v>
@@ -7020,7 +7020,7 @@
         <v>30</v>
       </c>
       <c r="BV20">
-        <v>61.5</v>
+        <v>65.5</v>
       </c>
       <c r="BW20">
         <v>100</v>
@@ -7029,28 +7029,28 @@
         <v>30</v>
       </c>
       <c r="BY20">
-        <v>54.8</v>
+        <v>67.2</v>
       </c>
       <c r="BZ20">
-        <v>58</v>
+        <v>56.4</v>
       </c>
       <c r="CA20">
-        <v>54</v>
+        <v>37.2</v>
       </c>
       <c r="CB20">
-        <v>35.2</v>
+        <v>49</v>
       </c>
       <c r="CC20">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="CD20">
-        <v>38.8</v>
+        <v>67</v>
       </c>
       <c r="CE20">
-        <v>33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="CF20">
-        <v>55.4</v>
+        <v>60.8</v>
       </c>
       <c r="CG20">
         <v>100</v>
@@ -7101,7 +7101,7 @@
         <v>131</v>
       </c>
       <c r="CW20">
-        <v>366.2</v>
+        <v>452.0000000000001</v>
       </c>
       <c r="CX20" t="s">
         <v>131</v>
@@ -7110,10 +7110,10 @@
         <v>800</v>
       </c>
       <c r="CZ20">
-        <v>45.775</v>
+        <v>56.50000000000001</v>
       </c>
       <c r="DA20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -7130,125 +7130,125 @@
         <v>20</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>7.5</v>
+      </c>
+      <c r="U21">
+        <v>25</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>25</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AC21">
+        <v>23</v>
+      </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <v>7</v>
+      </c>
+      <c r="AF21">
+        <v>11</v>
+      </c>
+      <c r="AG21">
+        <v>25</v>
+      </c>
+      <c r="AH21">
+        <v>7</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+      <c r="AJ21">
+        <v>25</v>
+      </c>
+      <c r="AK21">
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <v>8</v>
+      </c>
+      <c r="AM21">
+        <v>25</v>
+      </c>
+      <c r="AN21">
+        <v>7</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>25</v>
+      </c>
+      <c r="AQ21">
+        <v>7</v>
+      </c>
+      <c r="AR21">
         <v>10</v>
       </c>
-      <c r="L21">
-        <v>25</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>18.5</v>
-      </c>
-      <c r="O21">
-        <v>25</v>
-      </c>
-      <c r="P21">
-        <v>7</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>25</v>
-      </c>
-      <c r="S21">
-        <v>7</v>
-      </c>
-      <c r="T21">
-        <v>8.5</v>
-      </c>
-      <c r="U21">
-        <v>25</v>
-      </c>
-      <c r="V21">
-        <v>7</v>
-      </c>
-      <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="X21">
-        <v>25</v>
-      </c>
-      <c r="Y21">
-        <v>7</v>
-      </c>
-      <c r="Z21">
-        <v>16</v>
-      </c>
-      <c r="AA21">
-        <v>25</v>
-      </c>
-      <c r="AB21">
-        <v>7</v>
-      </c>
-      <c r="AC21">
-        <v>5</v>
-      </c>
-      <c r="AD21">
-        <v>25</v>
-      </c>
-      <c r="AE21">
-        <v>7</v>
-      </c>
-      <c r="AF21">
-        <v>17.5</v>
-      </c>
-      <c r="AG21">
-        <v>25</v>
-      </c>
-      <c r="AH21">
-        <v>7</v>
-      </c>
-      <c r="AI21">
-        <v>10</v>
-      </c>
-      <c r="AJ21">
-        <v>25</v>
-      </c>
-      <c r="AK21">
-        <v>7</v>
-      </c>
-      <c r="AL21">
-        <v>14</v>
-      </c>
-      <c r="AM21">
-        <v>25</v>
-      </c>
-      <c r="AN21">
-        <v>7</v>
-      </c>
-      <c r="AO21">
-        <v>16</v>
-      </c>
-      <c r="AP21">
-        <v>25</v>
-      </c>
-      <c r="AQ21">
-        <v>7</v>
-      </c>
-      <c r="AR21">
-        <v>8.5</v>
-      </c>
       <c r="AS21">
         <v>25</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>7</v>
       </c>
       <c r="AU21">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV21">
         <v>25</v>
@@ -7265,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="AX21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY21">
         <v>25</v>
@@ -7274,7 +7274,7 @@
         <v>7</v>
       </c>
       <c r="BA21">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="BB21">
         <v>100</v>
@@ -7283,53 +7283,53 @@
         <v>30</v>
       </c>
       <c r="BD21">
+        <v>54</v>
+      </c>
+      <c r="BE21">
+        <v>100</v>
+      </c>
+      <c r="BF21">
+        <v>30</v>
+      </c>
+      <c r="BG21">
+        <v>22</v>
+      </c>
+      <c r="BH21">
+        <v>100</v>
+      </c>
+      <c r="BI21">
+        <v>30</v>
+      </c>
+      <c r="BJ21">
+        <v>58</v>
+      </c>
+      <c r="BK21">
+        <v>100</v>
+      </c>
+      <c r="BL21">
+        <v>30</v>
+      </c>
+      <c r="BM21">
+        <v>50</v>
+      </c>
+      <c r="BN21">
+        <v>100</v>
+      </c>
+      <c r="BO21">
+        <v>30</v>
+      </c>
+      <c r="BP21">
         <v>52</v>
       </c>
-      <c r="BE21">
-        <v>100</v>
-      </c>
-      <c r="BF21">
-        <v>30</v>
-      </c>
-      <c r="BG21">
-        <v>47</v>
-      </c>
-      <c r="BH21">
-        <v>100</v>
-      </c>
-      <c r="BI21">
-        <v>30</v>
-      </c>
-      <c r="BJ21">
-        <v>42</v>
-      </c>
-      <c r="BK21">
-        <v>100</v>
-      </c>
-      <c r="BL21">
-        <v>30</v>
-      </c>
-      <c r="BM21">
+      <c r="BQ21">
+        <v>100</v>
+      </c>
+      <c r="BR21">
+        <v>30</v>
+      </c>
+      <c r="BS21">
         <v>44</v>
       </c>
-      <c r="BN21">
-        <v>100</v>
-      </c>
-      <c r="BO21">
-        <v>30</v>
-      </c>
-      <c r="BP21">
-        <v>26</v>
-      </c>
-      <c r="BQ21">
-        <v>100</v>
-      </c>
-      <c r="BR21">
-        <v>30</v>
-      </c>
-      <c r="BS21">
-        <v>4</v>
-      </c>
       <c r="BT21">
         <v>100</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>30</v>
       </c>
       <c r="BV21">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="BW21">
         <v>100</v>
@@ -7346,28 +7346,28 @@
         <v>30</v>
       </c>
       <c r="BY21">
-        <v>29.6</v>
+        <v>69.2</v>
       </c>
       <c r="BZ21">
-        <v>54.2</v>
+        <v>52.4</v>
       </c>
       <c r="CA21">
-        <v>45.6</v>
+        <v>19.6</v>
       </c>
       <c r="CB21">
-        <v>46.6</v>
+        <v>53.2</v>
       </c>
       <c r="CC21">
-        <v>44.4</v>
+        <v>50</v>
       </c>
       <c r="CD21">
-        <v>27.6</v>
+        <v>48.6</v>
       </c>
       <c r="CE21">
-        <v>7.4</v>
+        <v>38.8</v>
       </c>
       <c r="CF21">
-        <v>46</v>
+        <v>55.2</v>
       </c>
       <c r="CG21">
         <v>100</v>
@@ -7394,14 +7394,14 @@
         <v>100</v>
       </c>
       <c r="CO21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ21" t="s">
         <v>132</v>
       </c>
-      <c r="CP21" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ21" t="s">
-        <v>131</v>
-      </c>
       <c r="CR21" t="s">
         <v>131</v>
       </c>
@@ -7409,16 +7409,16 @@
         <v>131</v>
       </c>
       <c r="CT21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV21" t="s">
         <v>131</v>
       </c>
       <c r="CW21">
-        <v>301.4</v>
+        <v>387</v>
       </c>
       <c r="CX21" t="s">
         <v>131</v>
@@ -7427,10 +7427,10 @@
         <v>800</v>
       </c>
       <c r="CZ21">
-        <v>37.675</v>
+        <v>48.375</v>
       </c>
       <c r="DA21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -7447,7 +7447,7 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -7456,7 +7456,7 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>25</v>
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>25</v>
@@ -7474,7 +7474,7 @@
         <v>7</v>
       </c>
       <c r="N22">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>25</v>
@@ -7492,7 +7492,7 @@
         <v>7</v>
       </c>
       <c r="T22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>25</v>
@@ -7501,7 +7501,7 @@
         <v>7</v>
       </c>
       <c r="W22">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>25</v>
@@ -7510,7 +7510,7 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>25</v>
@@ -7519,7 +7519,7 @@
         <v>7</v>
       </c>
       <c r="AC22">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>25</v>
@@ -7528,7 +7528,7 @@
         <v>7</v>
       </c>
       <c r="AF22">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>25</v>
@@ -7537,7 +7537,7 @@
         <v>7</v>
       </c>
       <c r="AI22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>25</v>
@@ -7546,7 +7546,7 @@
         <v>7</v>
       </c>
       <c r="AL22">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>25</v>
@@ -7555,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="AO22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>25</v>
@@ -7564,7 +7564,7 @@
         <v>7</v>
       </c>
       <c r="AR22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS22">
         <v>25</v>
@@ -7573,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="AU22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AV22">
         <v>25</v>
@@ -7582,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="AX22">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="AY22">
         <v>25</v>
@@ -7591,7 +7591,7 @@
         <v>7</v>
       </c>
       <c r="BA22">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <v>100</v>
@@ -7600,7 +7600,7 @@
         <v>30</v>
       </c>
       <c r="BD22">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="BE22">
         <v>100</v>
@@ -7609,7 +7609,7 @@
         <v>30</v>
       </c>
       <c r="BG22">
-        <v>80.5</v>
+        <v>0</v>
       </c>
       <c r="BH22">
         <v>100</v>
@@ -7618,7 +7618,7 @@
         <v>30</v>
       </c>
       <c r="BJ22">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="BK22">
         <v>100</v>
@@ -7627,7 +7627,7 @@
         <v>30</v>
       </c>
       <c r="BM22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BN22">
         <v>100</v>
@@ -7636,7 +7636,7 @@
         <v>30</v>
       </c>
       <c r="BP22">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BQ22">
         <v>100</v>
@@ -7645,7 +7645,7 @@
         <v>30</v>
       </c>
       <c r="BS22">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BT22">
         <v>100</v>
@@ -7654,7 +7654,7 @@
         <v>30</v>
       </c>
       <c r="BV22">
-        <v>86</v>
+        <v>61.5</v>
       </c>
       <c r="BW22">
         <v>100</v>
@@ -7663,28 +7663,28 @@
         <v>30</v>
       </c>
       <c r="BY22">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="BZ22">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="CA22">
-        <v>80.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="CB22">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="CC22">
-        <v>68.8</v>
+        <v>0</v>
       </c>
       <c r="CD22">
-        <v>62.8</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="CF22">
-        <v>82.40000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="CG22">
         <v>100</v>
@@ -7711,43 +7711,43 @@
         <v>100</v>
       </c>
       <c r="CO22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CP22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CQ22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CS22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CT22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CU22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CV22" t="s">
         <v>131</v>
       </c>
       <c r="CW22">
-        <v>582.8000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="CX22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CY22">
         <v>800</v>
       </c>
       <c r="CZ22">
-        <v>72.85000000000001</v>
+        <v>6.15</v>
       </c>
       <c r="DA22">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:105">
@@ -7764,7 +7764,7 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -7773,7 +7773,7 @@
         <v>7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I23">
         <v>25</v>
@@ -7782,7 +7782,7 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L23">
         <v>25</v>
@@ -7791,7 +7791,7 @@
         <v>7</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O23">
         <v>25</v>
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="R23">
         <v>25</v>
@@ -7809,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="U23">
         <v>25</v>
@@ -7818,7 +7818,7 @@
         <v>7</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X23">
         <v>25</v>
@@ -7827,7 +7827,7 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA23">
         <v>25</v>
@@ -7836,7 +7836,7 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD23">
         <v>25</v>
@@ -7845,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG23">
         <v>25</v>
@@ -7854,7 +7854,7 @@
         <v>7</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AJ23">
         <v>25</v>
@@ -7863,7 +7863,7 @@
         <v>7</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AM23">
         <v>25</v>
@@ -7881,7 +7881,7 @@
         <v>7</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="AS23">
         <v>25</v>
@@ -7890,7 +7890,7 @@
         <v>7</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="AV23">
         <v>25</v>
@@ -7899,7 +7899,7 @@
         <v>7</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AY23">
         <v>25</v>
@@ -7908,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BB23">
         <v>100</v>
@@ -7917,7 +7917,7 @@
         <v>30</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BE23">
         <v>100</v>
@@ -7926,7 +7926,7 @@
         <v>30</v>
       </c>
       <c r="BG23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BH23">
         <v>100</v>
@@ -7935,7 +7935,7 @@
         <v>30</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BK23">
         <v>100</v>
@@ -7944,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="BM23">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BN23">
         <v>100</v>
@@ -7953,7 +7953,7 @@
         <v>30</v>
       </c>
       <c r="BP23">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BQ23">
         <v>100</v>
@@ -7962,7 +7962,7 @@
         <v>30</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BT23">
         <v>100</v>
@@ -7971,7 +7971,7 @@
         <v>30</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BW23">
         <v>100</v>
@@ -7980,28 +7980,28 @@
         <v>30</v>
       </c>
       <c r="BY23">
-        <v>0</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="BZ23">
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="CA23">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="CB23">
-        <v>0</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="CC23">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="CD23">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="CE23">
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="CF23">
-        <v>0</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="CG23">
         <v>100</v>
@@ -8028,43 +8028,43 @@
         <v>100</v>
       </c>
       <c r="CO23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CP23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CQ23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CR23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CS23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CV23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CW23">
-        <v>0</v>
+        <v>647.2</v>
       </c>
       <c r="CX23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CY23">
         <v>800</v>
       </c>
       <c r="CZ23">
-        <v>0</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="DA23">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -8081,143 +8081,143 @@
         <v>22</v>
       </c>
       <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>5.5</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>20.5</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>11.5</v>
+      </c>
+      <c r="U24">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>10.5</v>
+      </c>
+      <c r="X24">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>5.5</v>
+      </c>
+      <c r="AA24">
+        <v>25</v>
+      </c>
+      <c r="AB24">
+        <v>7</v>
+      </c>
+      <c r="AC24">
+        <v>23</v>
+      </c>
+      <c r="AD24">
+        <v>25</v>
+      </c>
+      <c r="AE24">
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <v>17</v>
+      </c>
+      <c r="AG24">
+        <v>25</v>
+      </c>
+      <c r="AH24">
+        <v>7</v>
+      </c>
+      <c r="AI24">
+        <v>8</v>
+      </c>
+      <c r="AJ24">
+        <v>25</v>
+      </c>
+      <c r="AK24">
+        <v>7</v>
+      </c>
+      <c r="AL24">
+        <v>6.5</v>
+      </c>
+      <c r="AM24">
+        <v>25</v>
+      </c>
+      <c r="AN24">
+        <v>7</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>25</v>
+      </c>
+      <c r="AQ24">
+        <v>7</v>
+      </c>
+      <c r="AR24">
+        <v>19.5</v>
+      </c>
+      <c r="AS24">
+        <v>25</v>
+      </c>
+      <c r="AT24">
+        <v>7</v>
+      </c>
+      <c r="AU24">
         <v>10</v>
       </c>
-      <c r="F24">
-        <v>25</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="I24">
-        <v>25</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>12</v>
-      </c>
-      <c r="O24">
-        <v>25</v>
-      </c>
-      <c r="P24">
-        <v>7</v>
-      </c>
-      <c r="Q24">
-        <v>6.5</v>
-      </c>
-      <c r="R24">
-        <v>25</v>
-      </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>4</v>
-      </c>
-      <c r="U24">
-        <v>25</v>
-      </c>
-      <c r="V24">
-        <v>7</v>
-      </c>
-      <c r="W24">
-        <v>12.5</v>
-      </c>
-      <c r="X24">
-        <v>25</v>
-      </c>
-      <c r="Y24">
-        <v>7</v>
-      </c>
-      <c r="Z24">
-        <v>6</v>
-      </c>
-      <c r="AA24">
-        <v>25</v>
-      </c>
-      <c r="AB24">
-        <v>7</v>
-      </c>
-      <c r="AC24">
+      <c r="AV24">
+        <v>25</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
         <v>8</v>
       </c>
-      <c r="AD24">
-        <v>25</v>
-      </c>
-      <c r="AE24">
-        <v>7</v>
-      </c>
-      <c r="AF24">
-        <v>23.5</v>
-      </c>
-      <c r="AG24">
-        <v>25</v>
-      </c>
-      <c r="AH24">
-        <v>7</v>
-      </c>
-      <c r="AI24">
-        <v>5</v>
-      </c>
-      <c r="AJ24">
-        <v>25</v>
-      </c>
-      <c r="AK24">
-        <v>7</v>
-      </c>
-      <c r="AL24">
-        <v>7</v>
-      </c>
-      <c r="AM24">
-        <v>25</v>
-      </c>
-      <c r="AN24">
-        <v>7</v>
-      </c>
-      <c r="AO24">
-        <v>4</v>
-      </c>
-      <c r="AP24">
-        <v>25</v>
-      </c>
-      <c r="AQ24">
-        <v>7</v>
-      </c>
-      <c r="AR24">
-        <v>4.5</v>
-      </c>
-      <c r="AS24">
-        <v>25</v>
-      </c>
-      <c r="AT24">
-        <v>7</v>
-      </c>
-      <c r="AU24">
-        <v>11.5</v>
-      </c>
-      <c r="AV24">
-        <v>25</v>
-      </c>
-      <c r="AW24">
-        <v>7</v>
-      </c>
-      <c r="AX24">
-        <v>5.5</v>
-      </c>
       <c r="AY24">
         <v>25</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>7</v>
       </c>
       <c r="BA24">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="BB24">
         <v>100</v>
@@ -8234,7 +8234,7 @@
         <v>30</v>
       </c>
       <c r="BD24">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="BE24">
         <v>100</v>
@@ -8243,7 +8243,7 @@
         <v>30</v>
       </c>
       <c r="BG24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BH24">
         <v>100</v>
@@ -8252,7 +8252,7 @@
         <v>30</v>
       </c>
       <c r="BJ24">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="BK24">
         <v>100</v>
@@ -8261,7 +8261,7 @@
         <v>30</v>
       </c>
       <c r="BM24">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="BN24">
         <v>100</v>
@@ -8270,7 +8270,7 @@
         <v>30</v>
       </c>
       <c r="BP24">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="BQ24">
         <v>100</v>
@@ -8279,7 +8279,7 @@
         <v>30</v>
       </c>
       <c r="BS24">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="BT24">
         <v>100</v>
@@ -8288,7 +8288,7 @@
         <v>30</v>
       </c>
       <c r="BV24">
-        <v>46.5</v>
+        <v>61.5</v>
       </c>
       <c r="BW24">
         <v>100</v>
@@ -8297,28 +8297,28 @@
         <v>30</v>
       </c>
       <c r="BY24">
-        <v>41.6</v>
+        <v>74.8</v>
       </c>
       <c r="BZ24">
-        <v>70.2</v>
+        <v>75.2</v>
       </c>
       <c r="CA24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB24">
-        <v>25.2</v>
+        <v>49.2</v>
       </c>
       <c r="CC24">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="CD24">
-        <v>30.6</v>
+        <v>54</v>
       </c>
       <c r="CE24">
-        <v>33.6</v>
+        <v>57</v>
       </c>
       <c r="CF24">
-        <v>41.8</v>
+        <v>54.6</v>
       </c>
       <c r="CG24">
         <v>100</v>
@@ -8354,10 +8354,10 @@
         <v>131</v>
       </c>
       <c r="CR24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CS24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CT24" t="s">
         <v>131</v>
@@ -8369,7 +8369,7 @@
         <v>131</v>
       </c>
       <c r="CW24">
-        <v>296</v>
+        <v>441.8</v>
       </c>
       <c r="CX24" t="s">
         <v>131</v>
@@ -8378,10 +8378,10 @@
         <v>800</v>
       </c>
       <c r="CZ24">
-        <v>37</v>
+        <v>55.225</v>
       </c>
       <c r="DA24">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -8398,7 +8398,7 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -8407,7 +8407,7 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>25</v>
@@ -8416,7 +8416,7 @@
         <v>7</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>25</v>
@@ -8425,152 +8425,152 @@
         <v>7</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>25</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>25</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AC25">
+        <v>22</v>
+      </c>
+      <c r="AD25">
+        <v>25</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>14</v>
+      </c>
+      <c r="AG25">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>7</v>
+      </c>
+      <c r="AI25">
+        <v>6</v>
+      </c>
+      <c r="AJ25">
+        <v>25</v>
+      </c>
+      <c r="AK25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>8.5</v>
+      </c>
+      <c r="AM25">
+        <v>25</v>
+      </c>
+      <c r="AN25">
+        <v>7</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>25</v>
+      </c>
+      <c r="AQ25">
+        <v>7</v>
+      </c>
+      <c r="AR25">
+        <v>18.5</v>
+      </c>
+      <c r="AS25">
+        <v>25</v>
+      </c>
+      <c r="AT25">
+        <v>7</v>
+      </c>
+      <c r="AU25">
+        <v>9</v>
+      </c>
+      <c r="AV25">
+        <v>25</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+      <c r="AY25">
+        <v>25</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+      <c r="BA25">
+        <v>53</v>
+      </c>
+      <c r="BB25">
+        <v>100</v>
+      </c>
+      <c r="BC25">
+        <v>30</v>
+      </c>
+      <c r="BD25">
+        <v>36</v>
+      </c>
+      <c r="BE25">
+        <v>100</v>
+      </c>
+      <c r="BF25">
+        <v>30</v>
+      </c>
+      <c r="BG25">
         <v>19.5</v>
       </c>
-      <c r="O25">
-        <v>25</v>
-      </c>
-      <c r="P25">
-        <v>7</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>25</v>
-      </c>
-      <c r="S25">
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>25</v>
-      </c>
-      <c r="V25">
-        <v>7</v>
-      </c>
-      <c r="W25">
-        <v>1.5</v>
-      </c>
-      <c r="X25">
-        <v>25</v>
-      </c>
-      <c r="Y25">
-        <v>7</v>
-      </c>
-      <c r="Z25">
-        <v>4</v>
-      </c>
-      <c r="AA25">
-        <v>25</v>
-      </c>
-      <c r="AB25">
-        <v>7</v>
-      </c>
-      <c r="AC25">
-        <v>6</v>
-      </c>
-      <c r="AD25">
-        <v>25</v>
-      </c>
-      <c r="AE25">
-        <v>7</v>
-      </c>
-      <c r="AF25">
-        <v>15.5</v>
-      </c>
-      <c r="AG25">
-        <v>25</v>
-      </c>
-      <c r="AH25">
-        <v>7</v>
-      </c>
-      <c r="AI25">
-        <v>8.5</v>
-      </c>
-      <c r="AJ25">
-        <v>25</v>
-      </c>
-      <c r="AK25">
-        <v>7</v>
-      </c>
-      <c r="AL25">
-        <v>10</v>
-      </c>
-      <c r="AM25">
-        <v>25</v>
-      </c>
-      <c r="AN25">
-        <v>7</v>
-      </c>
-      <c r="AO25">
-        <v>7.5</v>
-      </c>
-      <c r="AP25">
-        <v>25</v>
-      </c>
-      <c r="AQ25">
-        <v>7</v>
-      </c>
-      <c r="AR25">
-        <v>7</v>
-      </c>
-      <c r="AS25">
-        <v>25</v>
-      </c>
-      <c r="AT25">
-        <v>7</v>
-      </c>
-      <c r="AU25">
-        <v>2</v>
-      </c>
-      <c r="AV25">
-        <v>25</v>
-      </c>
-      <c r="AW25">
-        <v>7</v>
-      </c>
-      <c r="AX25">
-        <v>10</v>
-      </c>
-      <c r="AY25">
-        <v>25</v>
-      </c>
-      <c r="AZ25">
-        <v>7</v>
-      </c>
-      <c r="BA25">
-        <v>36</v>
-      </c>
-      <c r="BB25">
-        <v>100</v>
-      </c>
-      <c r="BC25">
-        <v>30</v>
-      </c>
-      <c r="BD25">
+      <c r="BH25">
+        <v>100</v>
+      </c>
+      <c r="BI25">
+        <v>30</v>
+      </c>
+      <c r="BJ25">
         <v>46</v>
       </c>
-      <c r="BE25">
-        <v>100</v>
-      </c>
-      <c r="BF25">
-        <v>30</v>
-      </c>
-      <c r="BG25">
-        <v>50</v>
-      </c>
-      <c r="BH25">
-        <v>100</v>
-      </c>
-      <c r="BI25">
-        <v>30</v>
-      </c>
-      <c r="BJ25">
-        <v>37</v>
-      </c>
       <c r="BK25">
         <v>100</v>
       </c>
@@ -8578,17 +8578,17 @@
         <v>30</v>
       </c>
       <c r="BM25">
+        <v>32</v>
+      </c>
+      <c r="BN25">
+        <v>100</v>
+      </c>
+      <c r="BO25">
+        <v>30</v>
+      </c>
+      <c r="BP25">
         <v>40</v>
       </c>
-      <c r="BN25">
-        <v>100</v>
-      </c>
-      <c r="BO25">
-        <v>30</v>
-      </c>
-      <c r="BP25">
-        <v>8</v>
-      </c>
       <c r="BQ25">
         <v>100</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>30</v>
       </c>
       <c r="BS25">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="BT25">
         <v>100</v>
@@ -8605,7 +8605,7 @@
         <v>30</v>
       </c>
       <c r="BV25">
-        <v>48</v>
+        <v>51.5</v>
       </c>
       <c r="BW25">
         <v>100</v>
@@ -8614,28 +8614,28 @@
         <v>30</v>
       </c>
       <c r="BY25">
-        <v>36.6</v>
+        <v>51.2</v>
       </c>
       <c r="BZ25">
-        <v>48.2</v>
+        <v>34.4</v>
       </c>
       <c r="CA25">
-        <v>46.2</v>
+        <v>18</v>
       </c>
       <c r="CB25">
-        <v>41.4</v>
+        <v>40.2</v>
       </c>
       <c r="CC25">
-        <v>35.8</v>
+        <v>32</v>
       </c>
       <c r="CD25">
-        <v>10.4</v>
+        <v>39.4</v>
       </c>
       <c r="CE25">
-        <v>3</v>
+        <v>27.6</v>
       </c>
       <c r="CF25">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="CG25">
         <v>100</v>
@@ -8668,7 +8668,7 @@
         <v>131</v>
       </c>
       <c r="CQ25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CR25" t="s">
         <v>131</v>
@@ -8677,7 +8677,7 @@
         <v>131</v>
       </c>
       <c r="CT25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CU25" t="s">
         <v>132</v>
@@ -8686,7 +8686,7 @@
         <v>131</v>
       </c>
       <c r="CW25">
-        <v>265.6</v>
+        <v>287.2</v>
       </c>
       <c r="CX25" t="s">
         <v>131</v>
@@ -8695,10 +8695,10 @@
         <v>800</v>
       </c>
       <c r="CZ25">
-        <v>33.2</v>
+        <v>35.9</v>
       </c>
       <c r="DA25">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
